--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>韭菜鸡蛋饼</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>此颜色色块可修改数值</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>蛋黄派</t>
+  </si>
+  <si>
+    <t>纯牛奶</t>
+  </si>
+  <si>
+    <t>脱脂牛奶</t>
+  </si>
+  <si>
+    <t>备用</t>
+  </si>
+  <si>
+    <t>琵琶腿*2+至尊鸡肉串</t>
   </si>
 </sst>
 </file>
@@ -897,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,6 +998,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1323,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.67968750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -1484,7 +1505,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.000000">
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -1524,6 +1545,9 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
+      <c r="F16" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A17" s="7" t="s">
@@ -1584,12 +1608,1467 @@
         <f>B23*C23/100</f>
         <v>825</v>
       </c>
-    </row>
-    <row r="24" ht="20.000000" customHeight="1"/>
-    <row r="27" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.000000">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.000000">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6">
+        <f>B27*C27/100</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="3">
+        <v>448</v>
+      </c>
+      <c r="C28" s="3">
+        <v>25</v>
+      </c>
+      <c r="D28" s="8">
+        <f>B28*C28/100</f>
+        <v>112</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A29" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="19">
+        <v>54</v>
+      </c>
+      <c r="C29" s="19">
+        <v>240</v>
+      </c>
+      <c r="D29" s="8">
+        <f>B29*C29/100</f>
+        <v>129.6</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3">
+        <v>300</v>
+      </c>
+      <c r="D30" s="8">
+        <f>B30*C30/100</f>
+        <v>99</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="8">
+        <f>B31*C31/100</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="8">
+        <f>B32*C32/100</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="8">
+        <f>B33*C33/100</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="8">
+        <f>B34*C34/100</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="8">
+        <f>B35*C35/100</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8">
+        <f>B36*C36/100</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="8">
+        <f>B37*C37/100</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="8">
+        <f>B38*C38/100</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="8">
+        <f>B39*C39/100</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11">
+        <f>B40*C40/100</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3">
+        <f>B41*C41/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="D42" s="3">
+        <f>B42*C42/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="D43" s="3">
+        <f>B43*C43/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="D44" s="3">
+        <f>B44*C44/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="D45" s="3">
+        <f>B45*C45/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="D46" s="3">
+        <f>B46*C46/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="D47" s="3">
+        <f>B47*C47/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="D48" s="3">
+        <f>B48*C48/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="3">
+        <f>B49*C49/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="3">
+        <f>B50*C50/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="3">
+        <f>B51*C51/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="3">
+        <f>B52*C52/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="3">
+        <f>B53*C53/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="3">
+        <f>B54*C54/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="3">
+        <f>B55*C55/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="3">
+        <f>B56*C56/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="3">
+        <f>B57*C57/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="3">
+        <f>B58*C58/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="3">
+        <f>B59*C59/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="3">
+        <f>B60*C60/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="3">
+        <f>B61*C61/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="3">
+        <f>B62*C62/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="3">
+        <f>B63*C63/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="3">
+        <f>B64*C64/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="3">
+        <f>B65*C65/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="3">
+        <f>B66*C66/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="3">
+        <f>B67*C67/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="3">
+        <f>B68*C68/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="3">
+        <f>B69*C69/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="3">
+        <f>B70*C70/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="3">
+        <f>B71*C71/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="3">
+        <f>B72*C72/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="3">
+        <f>B73*C73/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="3">
+        <f>B74*C74/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="3">
+        <f>B75*C75/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="3">
+        <f>B76*C76/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="3">
+        <f>B77*C77/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="3">
+        <f>B78*C78/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="3">
+        <f>B79*C79/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="3">
+        <f>B80*C80/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="3">
+        <f>B81*C81/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="3">
+        <f>B82*C82/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="3">
+        <f>B83*C83/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="3">
+        <f>B84*C84/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="3">
+        <f>B85*C85/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="3">
+        <f>B86*C86/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="3">
+        <f>B87*C87/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="3">
+        <f>B88*C88/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="3">
+        <f>B89*C89/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="3">
+        <f>B90*C90/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="3">
+        <f>B91*C91/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="3">
+        <f>B92*C92/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="3">
+        <f>B93*C93/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="3">
+        <f>B94*C94/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="3">
+        <f>B95*C95/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="3">
+        <f>B96*C96/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="3">
+        <f>B97*C97/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="3">
+        <f>B98*C98/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="3">
+        <f>B99*C99/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="3">
+        <f>B100*C100/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="3">
+        <f>B101*C101/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="3">
+        <f>B102*C102/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="3">
+        <f>B103*C103/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="3">
+        <f>B104*C104/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="3">
+        <f>B105*C105/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="3">
+        <f>B106*C106/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="3">
+        <f>B107*C107/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="3">
+        <f>B108*C108/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="3">
+        <f>B109*C109/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="3">
+        <f>B110*C110/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="3">
+        <f>B111*C111/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="3">
+        <f>B112*C112/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="3">
+        <f>B113*C113/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="3">
+        <f>B114*C114/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="3">
+        <f>B115*C115/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="3">
+        <f>B116*C116/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="3">
+        <f>B117*C117/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="3">
+        <f>B118*C118/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="3">
+        <f>B119*C119/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="3">
+        <f>B120*C120/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="3">
+        <f>B121*C121/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="3">
+        <f>B122*C122/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="3">
+        <f>B123*C123/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="3">
+        <f>B124*C124/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="3">
+        <f>B125*C125/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="3">
+        <f>B126*C126/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="3">
+        <f>B127*C127/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="3">
+        <f>B128*C128/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="3">
+        <f>B129*C129/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="3">
+        <f>B130*C130/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="3">
+        <f>B131*C131/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="3">
+        <f>B132*C132/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="3">
+        <f>B133*C133/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="3">
+        <f>B134*C134/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" s="3">
+        <f>B135*C135/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="3">
+        <f>B136*C136/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="3">
+        <f>B137*C137/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="3">
+        <f>B138*C138/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" s="3">
+        <f>B139*C139/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" s="3">
+        <f>B140*C140/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="3">
+        <f>B141*C141/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="3">
+        <f>B142*C142/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="3">
+        <f>B143*C143/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="3">
+        <f>B144*C144/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="3">
+        <f>B145*C145/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="3">
+        <f>B146*C146/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="3">
+        <f>B147*C147/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="3">
+        <f>B148*C148/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="3">
+        <f>B149*C149/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="3">
+        <f>B150*C150/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="3">
+        <f>B151*C151/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="3">
+        <f>B152*C152/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="3">
+        <f>B153*C153/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="3">
+        <f>B154*C154/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="3">
+        <f>B155*C155/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="3">
+        <f>B156*C156/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="3">
+        <f>B157*C157/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="3">
+        <f>B158*C158/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="3">
+        <f>B159*C159/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="3">
+        <f>B160*C160/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="3">
+        <f>B161*C161/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="3">
+        <f>B162*C162/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="3">
+        <f>B163*C163/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="3">
+        <f>B164*C164/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="3">
+        <f>B165*C165/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="3">
+        <f>B166*C166/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="3">
+        <f>B167*C167/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="3">
+        <f>B168*C168/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="3">
+        <f>B169*C169/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="3">
+        <f>B170*C170/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" s="3">
+        <f>B171*C171/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="3">
+        <f>B172*C172/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" s="3">
+        <f>B173*C173/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="3">
+        <f>B174*C174/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" s="3">
+        <f>B175*C175/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="3">
+        <f>B176*C176/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="3">
+        <f>B177*C177/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="3">
+        <f>B178*C178/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="3">
+        <f>B179*C179/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="3">
+        <f>B180*C180/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="3">
+        <f>B181*C181/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="3">
+        <f>B182*C182/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="3">
+        <f>B183*C183/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="3">
+        <f>B184*C184/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="3">
+        <f>B185*C185/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="3">
+        <f>B186*C186/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" s="3">
+        <f>B187*C187/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4">
+      <c r="D188" s="3">
+        <f>B188*C188/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="3">
+        <f>B189*C189/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" s="3">
+        <f>B190*C190/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="3">
+        <f>B191*C191/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="3">
+        <f>B192*C192/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="3">
+        <f>B193*C193/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="3">
+        <f>B194*C194/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="3">
+        <f>B195*C195/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="3">
+        <f>B196*C196/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="3">
+        <f>B197*C197/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="3">
+        <f>B198*C198/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="3">
+        <f>B199*C199/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" s="3">
+        <f>B200*C200/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="3">
+        <f>B201*C201/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="3">
+        <f>B202*C202/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="3">
+        <f>B203*C203/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="3">
+        <f>B204*C204/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="3">
+        <f>B205*C205/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="3">
+        <f>B206*C206/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" s="3">
+        <f>B207*C207/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" s="3">
+        <f>B208*C208/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="3">
+        <f>B209*C209/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="3">
+        <f>B210*C210/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="3">
+        <f>B211*C211/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="3">
+        <f>B212*C212/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="3">
+        <f>B213*C213/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="3">
+        <f>B214*C214/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="3">
+        <f>B215*C215/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="3">
+        <f>B216*C216/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="3">
+        <f>B217*C217/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="3">
+        <f>B218*C218/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="3">
+        <f>B219*C219/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="3">
+        <f>B220*C220/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="3">
+        <f>B221*C221/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" s="3">
+        <f>B222*C222/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4">
+      <c r="D223" s="3">
+        <f>B223*C223/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" s="3">
+        <f>B224*C224/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" s="3">
+        <f>B225*C225/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4">
+      <c r="D226" s="3">
+        <f>B226*C226/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="3">
+        <f>B227*C227/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="3">
+        <f>B228*C228/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" s="3">
+        <f>B229*C229/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" s="3">
+        <f>B230*C230/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" s="3">
+        <f>B231*C231/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" s="3">
+        <f>B232*C232/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" s="3">
+        <f>B233*C233/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" s="3">
+        <f>B234*C234/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" s="3">
+        <f>B235*C235/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4">
+      <c r="D236" s="3">
+        <f>B236*C236/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4">
+      <c r="D237" s="3">
+        <f>B237*C237/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" s="3">
+        <f>B238*C238/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4">
+      <c r="D239" s="3">
+        <f>B239*C239/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" s="3">
+        <f>B240*C240/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241" s="3">
+        <f>B241*C241/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4">
+      <c r="D242" s="3">
+        <f>B242*C242/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243" s="3">
+        <f>B243*C243/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4">
+      <c r="D244" s="3">
+        <f>B244*C244/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4">
+      <c r="D245" s="3">
+        <f>B245*C245/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4">
+      <c r="D246" s="3">
+        <f>B246*C246/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4">
+      <c r="D247" s="3">
+        <f>B247*C247/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4">
+      <c r="D248" s="3">
+        <f>B248*C248/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4">
+      <c r="D249" s="3">
+        <f>B249*C249/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4">
+      <c r="D250" s="3">
+        <f>B250*C250/100</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1609,7 +3088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>韭菜鸡蛋饼</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>琵琶腿*2+至尊鸡肉串</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1608,24 +1611,16 @@
         <f>B23*C23/100</f>
         <v>825</v>
       </c>
-      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="20.000000" customHeight="1">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.000000">
-      <c r="C25" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.000000">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
@@ -1637,7 +1632,6 @@
         <f>B27*C27/100</f>
         <v>0</v>
       </c>
-      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
@@ -1653,7 +1647,6 @@
         <f>B28*C28/100</f>
         <v>112</v>
       </c>
-      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A29" s="29" t="s">
@@ -1669,7 +1662,6 @@
         <f>B29*C29/100</f>
         <v>129.6</v>
       </c>
-      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
@@ -1685,7 +1677,6 @@
         <f>B30*C30/100</f>
         <v>99</v>
       </c>
-      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="7" t="s">
@@ -1697,7 +1688,6 @@
         <f>B31*C31/100</f>
         <v>0</v>
       </c>
-      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
@@ -1709,9 +1699,8 @@
         <f>B32*C32/100</f>
         <v>0</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
         <v>55</v>
       </c>
@@ -1721,9 +1710,8 @@
         <f>B33*C33/100</f>
         <v>0</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
         <v>55</v>
       </c>
@@ -1733,9 +1721,8 @@
         <f>B34*C34/100</f>
         <v>0</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>55</v>
       </c>
@@ -1745,9 +1732,8 @@
         <f>B35*C35/100</f>
         <v>0</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
         <v>55</v>
       </c>
@@ -1757,9 +1743,8 @@
         <f>B36*C36/100</f>
         <v>0</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>55</v>
       </c>
@@ -1769,9 +1754,8 @@
         <f>B37*C37/100</f>
         <v>0</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -1781,9 +1765,8 @@
         <f>B38*C38/100</f>
         <v>0</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
         <v>55</v>
       </c>
@@ -1793,9 +1776,8 @@
         <f>B39*C39/100</f>
         <v>0</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>55</v>
       </c>
@@ -1805,54 +1787,50 @@
         <f>B40*C40/100</f>
         <v>0</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="D41" s="3">
         <f>B41*C41/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:4">
       <c r="D42" s="3">
         <f>B42*C42/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:4">
       <c r="D43" s="3">
         <f>B43*C43/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:4">
       <c r="D44" s="3">
         <f>B44*C44/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:4">
       <c r="D45" s="3">
         <f>B45*C45/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:4">
       <c r="D46" s="3">
         <f>B46*C46/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:4">
       <c r="D47" s="3">
         <f>B47*C47/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:4">
       <c r="D48" s="3">
         <f>B48*C48/100</f>
         <v>0</v>
@@ -3088,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3354,7 +3332,9 @@
         <v>86200</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A16" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.67968750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3066,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3332,9 +3332,7 @@
         <v>86200</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>韭菜鸡蛋饼</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>香辣红烧肉饭</t>
+  </si>
+  <si>
+    <t>肉末酸豆角</t>
   </si>
 </sst>
 </file>
@@ -1347,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.67968750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -1478,226 +1484,229 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.000000" customHeight="1">
+    <row r="9" spans="1:6" ht="20.000000">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C9" s="3">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8">
         <f>B9*C9/100</f>
-        <v>134.4</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="C10" s="3">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D10" s="8">
         <f>B10*C10/100</f>
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.000000">
+      <c r="A11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>116</v>
+      </c>
+      <c r="C12" s="3">
+        <v>150</v>
+      </c>
+      <c r="D12" s="8">
+        <f>B12*C12/100</f>
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B13" s="3">
         <v>900</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="8">
-        <f>B11*C11/100</f>
+      <c r="D13" s="8">
+        <f>B13*C13/100</f>
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B14" s="10">
         <v>192</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C14" s="10">
         <v>50</v>
       </c>
-      <c r="D12" s="11">
-        <f>B12*C12/100</f>
+      <c r="D14" s="11">
+        <f>B14*C14/100</f>
         <v>96</v>
       </c>
     </row>
-    <row r="13" ht="20.000000" customHeight="1"/>
-    <row r="14" ht="20.000000" customHeight="1"/>
     <row r="15" ht="20.000000" customHeight="1"/>
-    <row r="16" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" ht="20.000000" customHeight="1"/>
+    <row r="17" ht="20.000000" customHeight="1"/>
+    <row r="18" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="2" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A17" s="7" t="s">
+    <row r="19" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B19" s="3">
         <v>261</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C19" s="3">
         <v>130</v>
       </c>
-      <c r="D17" s="8">
-        <f>B17*C17/100</f>
+      <c r="D19" s="8">
+        <f>B19*C19/100</f>
         <v>339.3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F19" s="2">
         <f>339.3*2+164</f>
         <v>842.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A18" s="9" t="s">
+    <row r="20" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B20" s="10">
         <v>164</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C20" s="10">
         <v>100</v>
       </c>
-      <c r="D18" s="11">
-        <f>B18*C18/100</f>
+      <c r="D20" s="11">
+        <f>B20*C20/100</f>
         <v>164</v>
       </c>
     </row>
-    <row r="19" ht="20.000000" customHeight="1"/>
-    <row r="20" ht="20.000000" customHeight="1"/>
     <row r="21" ht="20.000000" customHeight="1"/>
-    <row r="22" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A22" s="4" t="s">
+    <row r="22" ht="20.000000" customHeight="1"/>
+    <row r="23" ht="20.000000" customHeight="1"/>
+    <row r="24" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A23" s="9" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B25" s="10">
         <v>165</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C25" s="10">
         <v>500</v>
       </c>
-      <c r="D23" s="11">
-        <f>B23*C23/100</f>
+      <c r="D25" s="11">
+        <f>B25*C25/100</f>
         <v>825</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="20.000000" customHeight="1">
       <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6">
-        <f>B27*C27/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="3">
-        <v>448</v>
-      </c>
-      <c r="C28" s="3">
-        <v>25</v>
-      </c>
-      <c r="D28" s="8">
-        <f>B28*C28/100</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="19">
-        <v>54</v>
-      </c>
-      <c r="C29" s="19">
-        <v>240</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6">
         <f>B29*C29/100</f>
-        <v>129.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3">
-        <v>33</v>
+        <v>448</v>
       </c>
       <c r="C30" s="3">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="D30" s="8">
         <f>B30*C30/100</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="19">
+        <v>54</v>
+      </c>
+      <c r="C31" s="19">
+        <v>240</v>
+      </c>
       <c r="D31" s="8">
         <f>B31*C31/100</f>
-        <v>0</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B32" s="3">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3">
+        <v>300</v>
+      </c>
       <c r="D32" s="8">
         <f>B32*C32/100</f>
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1778,24 +1787,34 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="8">
         <f>B40*C40/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="D41" s="3">
+      <c r="A41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8">
         <f>B41*C41/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="D42" s="3">
+      <c r="A42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11">
         <f>B42*C42/100</f>
         <v>0</v>
       </c>
@@ -3045,6 +3064,18 @@
     <row r="250" spans="4:4">
       <c r="D250" s="3">
         <f>B250*C250/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4">
+      <c r="D251" s="3">
+        <f>B251*C251/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4">
+      <c r="D252" s="3">
+        <f>B252*C252/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3052,9 +3083,9 @@
   <mergeCells count="5">
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
@@ -3066,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3102,15 +3133,15 @@
         <v>2800</v>
       </c>
       <c r="C2" s="24">
-        <v>1700</v>
+        <v>1778</v>
       </c>
       <c r="D2" s="12">
         <f>B2-C2</f>
-        <v>1100</v>
+        <v>1022</v>
       </c>
       <c r="E2" s="12">
         <f>H4-D2</f>
-        <v>106700</v>
+        <v>106778</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>36</v>
@@ -3129,15 +3160,15 @@
         <v>2800</v>
       </c>
       <c r="C3" s="24">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12">
         <f>B3-C3</f>
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="E3" s="12">
         <f>E2-D3</f>
-        <v>105600</v>
+        <v>103978</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>37</v>
@@ -3162,7 +3193,7 @@
       </c>
       <c r="E4" s="12">
         <f>E3-D4</f>
-        <v>103800</v>
+        <v>102178</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>42</v>
@@ -3188,7 +3219,7 @@
       </c>
       <c r="E5" s="12">
         <f>E4-D5</f>
-        <v>102000</v>
+        <v>100378</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>43</v>
@@ -3213,7 +3244,7 @@
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>99200</v>
+        <v>97578</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3239,7 +3270,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>96400</v>
+        <v>94778</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3265,7 +3296,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>93600</v>
+        <v>91978</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3286,7 +3317,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>90800</v>
+        <v>89178</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3308,7 +3339,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>88000</v>
+        <v>86378</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3329,7 +3360,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>86200</v>
+        <v>84578</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3350,7 +3381,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>84400</v>
+        <v>82778</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3371,8 +3402,9 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>81600</v>
-      </c>
+        <v>79978</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
       <c r="A14" s="23">
@@ -3388,7 +3420,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>78800</v>
+        <v>77178</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3405,7 +3437,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>76000</v>
+        <v>74378</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3422,7 +3454,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>73200</v>
+        <v>71578</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3439,7 +3471,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>70400</v>
+        <v>68778</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3456,7 +3488,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>68600</v>
+        <v>66978</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3473,7 +3505,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>66800</v>
+        <v>65178</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3490,7 +3522,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>64000</v>
+        <v>62378</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3507,7 +3539,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>61200</v>
+        <v>59578</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3524,7 +3556,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>58400</v>
+        <v>56778</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3541,7 +3573,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>55600</v>
+        <v>53978</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3558,7 +3590,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>52800</v>
+        <v>51178</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3575,7 +3607,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>51000</v>
+        <v>49378</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3592,7 +3624,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>49200</v>
+        <v>47578</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3609,7 +3641,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>46400</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3626,7 +3658,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>43600</v>
+        <v>41978</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3643,7 +3675,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>40800</v>
+        <v>39178</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3660,7 +3692,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>38000</v>
+        <v>36378</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3677,7 +3709,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>35200</v>
+        <v>33578</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3694,7 +3726,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>33400</v>
+        <v>31778</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3711,7 +3743,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>31600</v>
+        <v>29978</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3728,7 +3760,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>28800</v>
+        <v>27178</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3745,7 +3777,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>26000</v>
+        <v>24378</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3762,7 +3794,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>23200</v>
+        <v>21578</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3779,7 +3811,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>20400</v>
+        <v>18778</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3796,7 +3828,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>17600</v>
+        <v>15978</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3813,7 +3845,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>15800</v>
+        <v>14178</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3830,7 +3862,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>14000</v>
+        <v>12378</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3847,7 +3879,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>11200</v>
+        <v>9578</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3864,7 +3896,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>8400</v>
+        <v>6778</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3881,7 +3913,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>5600</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3898,7 +3930,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>2800</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3915,7 +3947,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>0</v>
+        <v>-1622</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3932,7 +3964,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>-1800</v>
+        <v>-3422</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3949,7 +3981,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>-3600</v>
+        <v>-5222</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -3966,7 +3998,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-6400</v>
+        <v>-8022</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -3983,7 +4015,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-9200</v>
+        <v>-10822</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4000,7 +4032,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-12000</v>
+        <v>-13622</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4017,7 +4049,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-14800</v>
+        <v>-16422</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4034,7 +4066,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-17600</v>
+        <v>-19222</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4051,7 +4083,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-19400</v>
+        <v>-21022</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4068,7 +4100,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-21200</v>
+        <v>-22822</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4085,7 +4117,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-24000</v>
+        <v>-25622</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4102,7 +4134,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-26800</v>
+        <v>-28422</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4119,7 +4151,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-29600</v>
+        <v>-31222</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4136,7 +4168,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-32400</v>
+        <v>-34022</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4153,7 +4185,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-35200</v>
+        <v>-36822</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4170,7 +4202,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-37000</v>
+        <v>-38622</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4187,7 +4219,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-38800</v>
+        <v>-40422</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4204,7 +4236,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-41600</v>
+        <v>-43222</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4221,7 +4253,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-44400</v>
+        <v>-46022</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4238,7 +4270,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-47200</v>
+        <v>-48822</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4255,7 +4287,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-50000</v>
+        <v>-51622</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4272,7 +4304,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-52800</v>
+        <v>-54422</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4289,7 +4321,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-54600</v>
+        <v>-56222</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4306,7 +4338,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-56400</v>
+        <v>-58022</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4323,7 +4355,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-59200</v>
+        <v>-60822</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4340,7 +4372,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-62000</v>
+        <v>-63622</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4357,7 +4389,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-64800</v>
+        <v>-66422</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4374,7 +4406,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-67600</v>
+        <v>-69222</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4391,7 +4423,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-70400</v>
+        <v>-72022</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4408,7 +4440,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-72200</v>
+        <v>-73822</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4425,7 +4457,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-74000</v>
+        <v>-75622</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4442,7 +4474,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-76800</v>
+        <v>-78422</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4459,7 +4491,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-79600</v>
+        <v>-81222</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4476,7 +4508,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-82400</v>
+        <v>-84022</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4493,7 +4525,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-85200</v>
+        <v>-86822</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4510,7 +4542,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-88000</v>
+        <v>-89622</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4527,7 +4559,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-89800</v>
+        <v>-91422</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4544,7 +4576,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-91600</v>
+        <v>-93222</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4561,7 +4593,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-94400</v>
+        <v>-96022</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4578,7 +4610,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-97200</v>
+        <v>-98822</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4595,7 +4627,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-100000</v>
+        <v>-101622</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4612,7 +4644,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-102800</v>
+        <v>-104422</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4629,7 +4661,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-105600</v>
+        <v>-107222</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4646,7 +4678,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-107400</v>
+        <v>-109022</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4663,7 +4695,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-109200</v>
+        <v>-110822</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4680,7 +4712,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-112000</v>
+        <v>-113622</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4697,7 +4729,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-114800</v>
+        <v>-116422</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4714,7 +4746,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-117600</v>
+        <v>-119222</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4731,7 +4763,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-120400</v>
+        <v>-122022</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4748,7 +4780,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-123200</v>
+        <v>-124822</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4765,7 +4797,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-125000</v>
+        <v>-126622</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4782,7 +4814,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-126800</v>
+        <v>-128422</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4799,7 +4831,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-129600</v>
+        <v>-131222</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4816,7 +4848,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-132400</v>
+        <v>-134022</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4833,7 +4865,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-135200</v>
+        <v>-136822</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4850,7 +4882,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-138000</v>
+        <v>-139622</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4867,7 +4899,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-140800</v>
+        <v>-142422</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -1484,7 +1484,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.000000">
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.000000">
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
@@ -3098,7 +3098,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3157,18 +3157,18 @@
         <v>43959</v>
       </c>
       <c r="B3" s="24">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="C3" s="24">
-        <v>0</v>
+        <v>1791</v>
       </c>
       <c r="D3" s="12">
         <f>B3-C3</f>
-        <v>2800</v>
+        <v>109</v>
       </c>
       <c r="E3" s="12">
         <f>E2-D3</f>
-        <v>103978</v>
+        <v>106669</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>37</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="E4" s="12">
         <f>E3-D4</f>
-        <v>102178</v>
+        <v>104869</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>42</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="E5" s="12">
         <f>E4-D5</f>
-        <v>100378</v>
+        <v>103069</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>43</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>97578</v>
+        <v>100269</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>94778</v>
+        <v>97469</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>91978</v>
+        <v>94669</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>89178</v>
+        <v>91869</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>86378</v>
+        <v>89069</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>84578</v>
+        <v>87269</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>82778</v>
+        <v>85469</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3402,9 +3402,8 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>79978</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>82669</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
       <c r="A14" s="23">
@@ -3420,7 +3419,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>77178</v>
+        <v>79869</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3437,7 +3436,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>74378</v>
+        <v>77069</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3454,7 +3453,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>71578</v>
+        <v>74269</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3471,7 +3470,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>68778</v>
+        <v>71469</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3488,7 +3487,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>66978</v>
+        <v>69669</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3505,7 +3504,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>65178</v>
+        <v>67869</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3522,7 +3521,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>62378</v>
+        <v>65069</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3539,7 +3538,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>59578</v>
+        <v>62269</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3556,7 +3555,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>56778</v>
+        <v>59469</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3573,7 +3572,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>53978</v>
+        <v>56669</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3590,7 +3589,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>51178</v>
+        <v>53869</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3607,7 +3606,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>49378</v>
+        <v>52069</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3624,7 +3623,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>47578</v>
+        <v>50269</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3641,7 +3640,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>44778</v>
+        <v>47469</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3658,7 +3657,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>41978</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3675,7 +3674,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>39178</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3692,7 +3691,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>36378</v>
+        <v>39069</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3709,7 +3708,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>33578</v>
+        <v>36269</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3726,7 +3725,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>31778</v>
+        <v>34469</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3743,7 +3742,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>29978</v>
+        <v>32669</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3760,7 +3759,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>27178</v>
+        <v>29869</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3777,7 +3776,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>24378</v>
+        <v>27069</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3794,7 +3793,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>21578</v>
+        <v>24269</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3811,7 +3810,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>18778</v>
+        <v>21469</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3828,7 +3827,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>15978</v>
+        <v>18669</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3845,7 +3844,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>14178</v>
+        <v>16869</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3862,7 +3861,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>12378</v>
+        <v>15069</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3879,7 +3878,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>9578</v>
+        <v>12269</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3896,7 +3895,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>6778</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3913,7 +3912,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>3978</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3930,7 +3929,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>1178</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3947,7 +3946,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>-1622</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3964,7 +3963,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>-3422</v>
+        <v>-731</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3981,7 +3980,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>-5222</v>
+        <v>-2531</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -3998,7 +3997,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-8022</v>
+        <v>-5331</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4015,7 +4014,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-10822</v>
+        <v>-8131</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4032,7 +4031,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-13622</v>
+        <v>-10931</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4049,7 +4048,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-16422</v>
+        <v>-13731</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4066,7 +4065,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-19222</v>
+        <v>-16531</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4083,7 +4082,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-21022</v>
+        <v>-18331</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4100,7 +4099,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-22822</v>
+        <v>-20131</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4117,7 +4116,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-25622</v>
+        <v>-22931</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4134,7 +4133,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-28422</v>
+        <v>-25731</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4151,7 +4150,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-31222</v>
+        <v>-28531</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4168,7 +4167,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-34022</v>
+        <v>-31331</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4185,7 +4184,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-36822</v>
+        <v>-34131</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4202,7 +4201,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-38622</v>
+        <v>-35931</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4219,7 +4218,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-40422</v>
+        <v>-37731</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4236,7 +4235,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-43222</v>
+        <v>-40531</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4253,7 +4252,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-46022</v>
+        <v>-43331</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4270,7 +4269,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-48822</v>
+        <v>-46131</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4287,7 +4286,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-51622</v>
+        <v>-48931</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4304,7 +4303,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-54422</v>
+        <v>-51731</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4321,7 +4320,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-56222</v>
+        <v>-53531</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4338,7 +4337,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-58022</v>
+        <v>-55331</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4355,7 +4354,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-60822</v>
+        <v>-58131</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4372,7 +4371,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-63622</v>
+        <v>-60931</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4389,7 +4388,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-66422</v>
+        <v>-63731</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4406,7 +4405,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-69222</v>
+        <v>-66531</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4423,7 +4422,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-72022</v>
+        <v>-69331</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4440,7 +4439,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-73822</v>
+        <v>-71131</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4457,7 +4456,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-75622</v>
+        <v>-72931</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4474,7 +4473,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-78422</v>
+        <v>-75731</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4491,7 +4490,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-81222</v>
+        <v>-78531</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4508,7 +4507,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-84022</v>
+        <v>-81331</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4525,7 +4524,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-86822</v>
+        <v>-84131</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4542,7 +4541,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-89622</v>
+        <v>-86931</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4559,7 +4558,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-91422</v>
+        <v>-88731</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4576,7 +4575,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-93222</v>
+        <v>-90531</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4593,7 +4592,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-96022</v>
+        <v>-93331</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4610,7 +4609,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-98822</v>
+        <v>-96131</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4627,7 +4626,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-101622</v>
+        <v>-98931</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4644,7 +4643,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-104422</v>
+        <v>-101731</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4661,7 +4660,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-107222</v>
+        <v>-104531</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4678,7 +4677,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-109022</v>
+        <v>-106331</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4695,7 +4694,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-110822</v>
+        <v>-108131</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4712,7 +4711,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-113622</v>
+        <v>-110931</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4729,7 +4728,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-116422</v>
+        <v>-113731</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4746,7 +4745,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-119222</v>
+        <v>-116531</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4763,7 +4762,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-122022</v>
+        <v>-119331</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4780,7 +4779,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-124822</v>
+        <v>-122131</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4797,7 +4796,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-126622</v>
+        <v>-123931</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4814,7 +4813,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-128422</v>
+        <v>-125731</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4831,7 +4830,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-131222</v>
+        <v>-128531</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4848,7 +4847,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-134022</v>
+        <v>-131331</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4865,7 +4864,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-136822</v>
+        <v>-134131</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4882,7 +4881,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-139622</v>
+        <v>-136931</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4899,7 +4898,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-142422</v>
+        <v>-139731</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3098,7 +3098,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3184,16 +3184,16 @@
         <v>43960</v>
       </c>
       <c r="B4" s="24">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="12">
         <f>B4-C4</f>
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="E4" s="12">
         <f>E3-D4</f>
-        <v>104869</v>
+        <v>103869</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>42</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="E5" s="12">
         <f>E4-D5</f>
-        <v>103069</v>
+        <v>102069</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>43</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>100269</v>
+        <v>99269</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>97469</v>
+        <v>96469</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>94669</v>
+        <v>93669</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>91869</v>
+        <v>90869</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>89069</v>
+        <v>88069</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>87269</v>
+        <v>86269</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>85469</v>
+        <v>84469</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>82669</v>
+        <v>81669</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>79869</v>
+        <v>78869</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>77069</v>
+        <v>76069</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>74269</v>
+        <v>73269</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>71469</v>
+        <v>70469</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>69669</v>
+        <v>68669</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>67869</v>
+        <v>66869</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>65069</v>
+        <v>64069</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>62269</v>
+        <v>61269</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>59469</v>
+        <v>58469</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>56669</v>
+        <v>55669</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>53869</v>
+        <v>52869</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>52069</v>
+        <v>51069</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>50269</v>
+        <v>49269</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>47469</v>
+        <v>46469</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>44669</v>
+        <v>43669</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>41869</v>
+        <v>40869</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>39069</v>
+        <v>38069</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>36269</v>
+        <v>35269</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>34469</v>
+        <v>33469</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>32669</v>
+        <v>31669</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>29869</v>
+        <v>28869</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>27069</v>
+        <v>26069</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>24269</v>
+        <v>23269</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>21469</v>
+        <v>20469</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>18669</v>
+        <v>17669</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>16869</v>
+        <v>15869</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>15069</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>12269</v>
+        <v>11269</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>9469</v>
+        <v>8469</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>6669</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>3869</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>1069</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>-731</v>
+        <v>-1731</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>-2531</v>
+        <v>-3531</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-5331</v>
+        <v>-6331</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-8131</v>
+        <v>-9131</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-10931</v>
+        <v>-11931</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-13731</v>
+        <v>-14731</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-16531</v>
+        <v>-17531</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-18331</v>
+        <v>-19331</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-20131</v>
+        <v>-21131</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-22931</v>
+        <v>-23931</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-25731</v>
+        <v>-26731</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-28531</v>
+        <v>-29531</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-31331</v>
+        <v>-32331</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-34131</v>
+        <v>-35131</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-35931</v>
+        <v>-36931</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-37731</v>
+        <v>-38731</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-40531</v>
+        <v>-41531</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-43331</v>
+        <v>-44331</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-46131</v>
+        <v>-47131</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-48931</v>
+        <v>-49931</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-51731</v>
+        <v>-52731</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-53531</v>
+        <v>-54531</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-55331</v>
+        <v>-56331</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-58131</v>
+        <v>-59131</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-60931</v>
+        <v>-61931</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-63731</v>
+        <v>-64731</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-66531</v>
+        <v>-67531</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-69331</v>
+        <v>-70331</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-71131</v>
+        <v>-72131</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-72931</v>
+        <v>-73931</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-75731</v>
+        <v>-76731</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-78531</v>
+        <v>-79531</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-81331</v>
+        <v>-82331</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-84131</v>
+        <v>-85131</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-86931</v>
+        <v>-87931</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-88731</v>
+        <v>-89731</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-90531</v>
+        <v>-91531</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-93331</v>
+        <v>-94331</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-96131</v>
+        <v>-97131</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-98931</v>
+        <v>-99931</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-101731</v>
+        <v>-102731</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-104531</v>
+        <v>-105531</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-106331</v>
+        <v>-107331</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-108131</v>
+        <v>-109131</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-110931</v>
+        <v>-111931</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-113731</v>
+        <v>-114731</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-116531</v>
+        <v>-117531</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-119331</v>
+        <v>-120331</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-122131</v>
+        <v>-123131</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-123931</v>
+        <v>-124931</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-125731</v>
+        <v>-126731</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-128531</v>
+        <v>-129531</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-131331</v>
+        <v>-132331</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-134131</v>
+        <v>-135131</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-136931</v>
+        <v>-137931</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-139731</v>
+        <v>-140731</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3184,16 +3184,16 @@
         <v>43960</v>
       </c>
       <c r="B4" s="24">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="12">
         <f>B4-C4</f>
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E4" s="12">
         <f>E3-D4</f>
-        <v>103869</v>
+        <v>104869</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>42</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="E5" s="12">
         <f>E4-D5</f>
-        <v>102069</v>
+        <v>103069</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>43</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>99269</v>
+        <v>100269</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>96469</v>
+        <v>97469</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>93669</v>
+        <v>94669</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>90869</v>
+        <v>91869</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>88069</v>
+        <v>89069</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>86269</v>
+        <v>87269</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>84469</v>
+        <v>85469</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>81669</v>
+        <v>82669</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>78869</v>
+        <v>79869</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>76069</v>
+        <v>77069</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>73269</v>
+        <v>74269</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>70469</v>
+        <v>71469</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>68669</v>
+        <v>69669</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>66869</v>
+        <v>67869</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>64069</v>
+        <v>65069</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>61269</v>
+        <v>62269</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>58469</v>
+        <v>59469</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>55669</v>
+        <v>56669</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>52869</v>
+        <v>53869</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>51069</v>
+        <v>52069</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>49269</v>
+        <v>50269</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>46469</v>
+        <v>47469</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>43669</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>40869</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>38069</v>
+        <v>39069</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>35269</v>
+        <v>36269</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>33469</v>
+        <v>34469</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>31669</v>
+        <v>32669</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>28869</v>
+        <v>29869</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>26069</v>
+        <v>27069</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>23269</v>
+        <v>24269</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>20469</v>
+        <v>21469</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>17669</v>
+        <v>18669</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>15869</v>
+        <v>16869</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>14069</v>
+        <v>15069</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>11269</v>
+        <v>12269</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>8469</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>5669</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>2869</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>69</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>-1731</v>
+        <v>-731</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>-3531</v>
+        <v>-2531</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-6331</v>
+        <v>-5331</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-9131</v>
+        <v>-8131</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-11931</v>
+        <v>-10931</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-14731</v>
+        <v>-13731</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-17531</v>
+        <v>-16531</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-19331</v>
+        <v>-18331</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-21131</v>
+        <v>-20131</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-23931</v>
+        <v>-22931</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-26731</v>
+        <v>-25731</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-29531</v>
+        <v>-28531</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-32331</v>
+        <v>-31331</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-35131</v>
+        <v>-34131</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-36931</v>
+        <v>-35931</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-38731</v>
+        <v>-37731</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-41531</v>
+        <v>-40531</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-44331</v>
+        <v>-43331</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-47131</v>
+        <v>-46131</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-49931</v>
+        <v>-48931</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-52731</v>
+        <v>-51731</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-54531</v>
+        <v>-53531</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-56331</v>
+        <v>-55331</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-59131</v>
+        <v>-58131</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-61931</v>
+        <v>-60931</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-64731</v>
+        <v>-63731</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-67531</v>
+        <v>-66531</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-70331</v>
+        <v>-69331</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-72131</v>
+        <v>-71131</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-73931</v>
+        <v>-72931</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-76731</v>
+        <v>-75731</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-79531</v>
+        <v>-78531</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-82331</v>
+        <v>-81331</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-85131</v>
+        <v>-84131</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-87931</v>
+        <v>-86931</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-89731</v>
+        <v>-88731</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-91531</v>
+        <v>-90531</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-94331</v>
+        <v>-93331</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-97131</v>
+        <v>-96131</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-99931</v>
+        <v>-98931</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-102731</v>
+        <v>-101731</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-105531</v>
+        <v>-104531</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-107331</v>
+        <v>-106331</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-109131</v>
+        <v>-108131</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-111931</v>
+        <v>-110931</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-114731</v>
+        <v>-113731</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-117531</v>
+        <v>-116531</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-120331</v>
+        <v>-119331</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-123131</v>
+        <v>-122131</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-124931</v>
+        <v>-123931</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-126731</v>
+        <v>-125731</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-129531</v>
+        <v>-128531</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-132331</v>
+        <v>-131331</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-135131</v>
+        <v>-134131</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-137931</v>
+        <v>-136931</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-140731</v>
+        <v>-139731</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3186,14 +3186,16 @@
       <c r="B4" s="24">
         <v>1800</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="24">
+        <v>112</v>
+      </c>
       <c r="D4" s="12">
         <f>B4-C4</f>
-        <v>1800</v>
+        <v>1688</v>
       </c>
       <c r="E4" s="12">
         <f>E3-D4</f>
-        <v>104869</v>
+        <v>104981</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>42</v>
@@ -3219,7 +3221,7 @@
       </c>
       <c r="E5" s="12">
         <f>E4-D5</f>
-        <v>103069</v>
+        <v>103181</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>43</v>
@@ -3244,7 +3246,7 @@
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>100269</v>
+        <v>100381</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3270,7 +3272,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>97469</v>
+        <v>97581</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3296,7 +3298,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>94669</v>
+        <v>94781</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3317,7 +3319,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>91869</v>
+        <v>91981</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3339,7 +3341,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>89069</v>
+        <v>89181</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3360,7 +3362,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>87269</v>
+        <v>87381</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3381,7 +3383,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>85469</v>
+        <v>85581</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3402,7 +3404,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>82669</v>
+        <v>82781</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3419,7 +3421,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>79869</v>
+        <v>79981</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3436,7 +3438,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>77069</v>
+        <v>77181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3453,7 +3455,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>74269</v>
+        <v>74381</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3470,7 +3472,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>71469</v>
+        <v>71581</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3487,7 +3489,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>69669</v>
+        <v>69781</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3504,7 +3506,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>67869</v>
+        <v>67981</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3521,7 +3523,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>65069</v>
+        <v>65181</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3538,7 +3540,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>62269</v>
+        <v>62381</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3555,7 +3557,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>59469</v>
+        <v>59581</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3572,7 +3574,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>56669</v>
+        <v>56781</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3589,7 +3591,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>53869</v>
+        <v>53981</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3606,7 +3608,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>52069</v>
+        <v>52181</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3623,7 +3625,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>50269</v>
+        <v>50381</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3640,7 +3642,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>47469</v>
+        <v>47581</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3657,7 +3659,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>44669</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3674,7 +3676,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>41869</v>
+        <v>41981</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3691,7 +3693,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>39069</v>
+        <v>39181</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3708,7 +3710,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>36269</v>
+        <v>36381</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3725,7 +3727,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>34469</v>
+        <v>34581</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3742,7 +3744,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>32669</v>
+        <v>32781</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3759,7 +3761,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>29869</v>
+        <v>29981</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3776,7 +3778,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>27069</v>
+        <v>27181</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3793,7 +3795,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>24269</v>
+        <v>24381</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3810,7 +3812,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>21469</v>
+        <v>21581</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3827,7 +3829,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>18669</v>
+        <v>18781</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3844,7 +3846,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>16869</v>
+        <v>16981</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3861,7 +3863,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>15069</v>
+        <v>15181</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3878,7 +3880,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>12269</v>
+        <v>12381</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3895,7 +3897,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>9469</v>
+        <v>9581</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3912,7 +3914,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>6669</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3929,7 +3931,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>3869</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3946,7 +3948,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>1069</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3963,7 +3965,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>-731</v>
+        <v>-619</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3980,7 +3982,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>-2531</v>
+        <v>-2419</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -3997,7 +3999,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-5331</v>
+        <v>-5219</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4014,7 +4016,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-8131</v>
+        <v>-8019</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4031,7 +4033,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-10931</v>
+        <v>-10819</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4048,7 +4050,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-13731</v>
+        <v>-13619</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4065,7 +4067,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-16531</v>
+        <v>-16419</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4082,7 +4084,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-18331</v>
+        <v>-18219</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4099,7 +4101,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-20131</v>
+        <v>-20019</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4116,7 +4118,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-22931</v>
+        <v>-22819</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4133,7 +4135,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-25731</v>
+        <v>-25619</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4150,7 +4152,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-28531</v>
+        <v>-28419</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4167,7 +4169,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-31331</v>
+        <v>-31219</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4184,7 +4186,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-34131</v>
+        <v>-34019</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4201,7 +4203,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-35931</v>
+        <v>-35819</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4218,7 +4220,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-37731</v>
+        <v>-37619</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4235,7 +4237,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-40531</v>
+        <v>-40419</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4252,7 +4254,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-43331</v>
+        <v>-43219</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4269,7 +4271,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-46131</v>
+        <v>-46019</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4286,7 +4288,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-48931</v>
+        <v>-48819</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4303,7 +4305,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-51731</v>
+        <v>-51619</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4320,7 +4322,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-53531</v>
+        <v>-53419</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4337,7 +4339,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-55331</v>
+        <v>-55219</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4354,7 +4356,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-58131</v>
+        <v>-58019</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4371,7 +4373,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-60931</v>
+        <v>-60819</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4388,7 +4390,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-63731</v>
+        <v>-63619</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4405,7 +4407,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-66531</v>
+        <v>-66419</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4422,7 +4424,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-69331</v>
+        <v>-69219</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4439,7 +4441,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-71131</v>
+        <v>-71019</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4456,7 +4458,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-72931</v>
+        <v>-72819</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4473,7 +4475,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-75731</v>
+        <v>-75619</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4490,7 +4492,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-78531</v>
+        <v>-78419</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4507,7 +4509,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-81331</v>
+        <v>-81219</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4524,7 +4526,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-84131</v>
+        <v>-84019</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4541,7 +4543,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-86931</v>
+        <v>-86819</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4558,7 +4560,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-88731</v>
+        <v>-88619</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4575,7 +4577,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-90531</v>
+        <v>-90419</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4592,7 +4594,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-93331</v>
+        <v>-93219</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4609,7 +4611,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-96131</v>
+        <v>-96019</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4626,7 +4628,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-98931</v>
+        <v>-98819</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4643,7 +4645,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-101731</v>
+        <v>-101619</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4660,7 +4662,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-104531</v>
+        <v>-104419</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4677,7 +4679,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-106331</v>
+        <v>-106219</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4694,7 +4696,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-108131</v>
+        <v>-108019</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4711,7 +4713,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-110931</v>
+        <v>-110819</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4728,7 +4730,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-113731</v>
+        <v>-113619</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4745,7 +4747,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-116531</v>
+        <v>-116419</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4762,7 +4764,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-119331</v>
+        <v>-119219</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4779,7 +4781,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-122131</v>
+        <v>-122019</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4796,7 +4798,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-123931</v>
+        <v>-123819</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4813,7 +4815,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-125731</v>
+        <v>-125619</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4830,7 +4832,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-128531</v>
+        <v>-128419</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4847,7 +4849,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-131331</v>
+        <v>-131219</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4864,7 +4866,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-134131</v>
+        <v>-134019</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4881,7 +4883,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-136931</v>
+        <v>-136819</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4898,7 +4900,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-139731</v>
+        <v>-139619</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3184,18 +3184,18 @@
         <v>43960</v>
       </c>
       <c r="B4" s="24">
-        <v>1800</v>
+        <v>3528</v>
       </c>
       <c r="C4" s="24">
-        <v>112</v>
+        <v>2600</v>
       </c>
       <c r="D4" s="12">
         <f>B4-C4</f>
-        <v>1688</v>
+        <v>928</v>
       </c>
       <c r="E4" s="12">
         <f>E3-D4</f>
-        <v>104981</v>
+        <v>105741</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>42</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="E5" s="12">
         <f>E4-D5</f>
-        <v>103181</v>
+        <v>103941</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>43</v>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>100381</v>
+        <v>101141</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>97581</v>
+        <v>98341</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>94781</v>
+        <v>95541</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>91981</v>
+        <v>92741</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>89181</v>
+        <v>89941</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>87381</v>
+        <v>88141</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>85581</v>
+        <v>86341</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>82781</v>
+        <v>83541</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>79981</v>
+        <v>80741</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>77181</v>
+        <v>77941</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>74381</v>
+        <v>75141</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>71581</v>
+        <v>72341</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>69781</v>
+        <v>70541</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>67981</v>
+        <v>68741</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>65181</v>
+        <v>65941</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>62381</v>
+        <v>63141</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>59581</v>
+        <v>60341</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>56781</v>
+        <v>57541</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>53981</v>
+        <v>54741</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>52181</v>
+        <v>52941</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>50381</v>
+        <v>51141</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>47581</v>
+        <v>48341</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>44781</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>41981</v>
+        <v>42741</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>39181</v>
+        <v>39941</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>36381</v>
+        <v>37141</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>34581</v>
+        <v>35341</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>32781</v>
+        <v>33541</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>29981</v>
+        <v>30741</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>27181</v>
+        <v>27941</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>24381</v>
+        <v>25141</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>21581</v>
+        <v>22341</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>18781</v>
+        <v>19541</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>16981</v>
+        <v>17741</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>15181</v>
+        <v>15941</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>12381</v>
+        <v>13141</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>9581</v>
+        <v>10341</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>6781</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>3981</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>1181</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>-619</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>-2419</v>
+        <v>-1659</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-5219</v>
+        <v>-4459</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-8019</v>
+        <v>-7259</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-10819</v>
+        <v>-10059</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-13619</v>
+        <v>-12859</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-16419</v>
+        <v>-15659</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-18219</v>
+        <v>-17459</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-20019</v>
+        <v>-19259</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-22819</v>
+        <v>-22059</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-25619</v>
+        <v>-24859</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-28419</v>
+        <v>-27659</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-31219</v>
+        <v>-30459</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-34019</v>
+        <v>-33259</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-35819</v>
+        <v>-35059</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-37619</v>
+        <v>-36859</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-40419</v>
+        <v>-39659</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-43219</v>
+        <v>-42459</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-46019</v>
+        <v>-45259</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-48819</v>
+        <v>-48059</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-51619</v>
+        <v>-50859</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-53419</v>
+        <v>-52659</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-55219</v>
+        <v>-54459</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-58019</v>
+        <v>-57259</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-60819</v>
+        <v>-60059</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-63619</v>
+        <v>-62859</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-66419</v>
+        <v>-65659</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-69219</v>
+        <v>-68459</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-71019</v>
+        <v>-70259</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-72819</v>
+        <v>-72059</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-75619</v>
+        <v>-74859</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-78419</v>
+        <v>-77659</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-81219</v>
+        <v>-80459</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-84019</v>
+        <v>-83259</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-86819</v>
+        <v>-86059</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-88619</v>
+        <v>-87859</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-90419</v>
+        <v>-89659</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-93219</v>
+        <v>-92459</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-96019</v>
+        <v>-95259</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-98819</v>
+        <v>-98059</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-101619</v>
+        <v>-100859</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-104419</v>
+        <v>-103659</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-106219</v>
+        <v>-105459</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-108019</v>
+        <v>-107259</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-110819</v>
+        <v>-110059</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-113619</v>
+        <v>-112859</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-116419</v>
+        <v>-115659</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-119219</v>
+        <v>-118459</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-122019</v>
+        <v>-121259</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-123819</v>
+        <v>-123059</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-125619</v>
+        <v>-124859</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-128419</v>
+        <v>-127659</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-131219</v>
+        <v>-130459</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-134019</v>
+        <v>-133259</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-136819</v>
+        <v>-136059</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-139619</v>
+        <v>-138859</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.67968750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -1702,11 +1702,11 @@
         <v>33</v>
       </c>
       <c r="C32" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D32" s="8">
         <f>B32*C32/100</f>
-        <v>99</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3212,16 +3212,18 @@
         <v>43961</v>
       </c>
       <c r="B5" s="24">
-        <v>1800</v>
-      </c>
-      <c r="C5" s="24"/>
+        <v>2000</v>
+      </c>
+      <c r="C5" s="24">
+        <v>2100</v>
+      </c>
       <c r="D5" s="12">
         <f>B5-C5</f>
-        <v>1800</v>
+        <v>-100</v>
       </c>
       <c r="E5" s="12">
         <f>E4-D5</f>
-        <v>103941</v>
+        <v>105841</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>43</v>
@@ -3239,14 +3241,16 @@
       <c r="B6" s="24">
         <v>2800</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="24">
+        <v>116</v>
+      </c>
       <c r="D6" s="12">
         <f>B6-C6</f>
-        <v>2800</v>
+        <v>2684</v>
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>101141</v>
+        <v>103157</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3272,7 +3276,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>98341</v>
+        <v>100357</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3298,7 +3302,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>95541</v>
+        <v>97557</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3319,7 +3323,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>92741</v>
+        <v>94757</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3341,7 +3345,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>89941</v>
+        <v>91957</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3362,7 +3366,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>88141</v>
+        <v>90157</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>86341</v>
+        <v>88357</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3404,7 +3408,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>83541</v>
+        <v>85557</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3421,7 +3425,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>80741</v>
+        <v>82757</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3438,7 +3442,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>77941</v>
+        <v>79957</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3455,7 +3459,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>75141</v>
+        <v>77157</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3472,7 +3476,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>72341</v>
+        <v>74357</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3489,7 +3493,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>70541</v>
+        <v>72557</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3506,7 +3510,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>68741</v>
+        <v>70757</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3523,7 +3527,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>65941</v>
+        <v>67957</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3540,7 +3544,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>63141</v>
+        <v>65157</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3557,7 +3561,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>60341</v>
+        <v>62357</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3574,7 +3578,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>57541</v>
+        <v>59557</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3591,7 +3595,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>54741</v>
+        <v>56757</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3608,7 +3612,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>52941</v>
+        <v>54957</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3625,7 +3629,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>51141</v>
+        <v>53157</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3642,7 +3646,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>48341</v>
+        <v>50357</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3659,7 +3663,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>45541</v>
+        <v>47557</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3676,7 +3680,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>42741</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3693,7 +3697,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>39941</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3710,7 +3714,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>37141</v>
+        <v>39157</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3727,7 +3731,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>35341</v>
+        <v>37357</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3744,7 +3748,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>33541</v>
+        <v>35557</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3761,7 +3765,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>30741</v>
+        <v>32757</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3778,7 +3782,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>27941</v>
+        <v>29957</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3795,7 +3799,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>25141</v>
+        <v>27157</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3812,7 +3816,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>22341</v>
+        <v>24357</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3829,7 +3833,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>19541</v>
+        <v>21557</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3846,7 +3850,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>17741</v>
+        <v>19757</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3863,7 +3867,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>15941</v>
+        <v>17957</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3880,7 +3884,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>13141</v>
+        <v>15157</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3897,7 +3901,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>10341</v>
+        <v>12357</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3914,7 +3918,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>7541</v>
+        <v>9557</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3931,7 +3935,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>4741</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3948,7 +3952,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>1941</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3965,7 +3969,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>141</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3982,7 +3986,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>-1659</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -3999,7 +4003,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-4459</v>
+        <v>-2443</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4016,7 +4020,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-7259</v>
+        <v>-5243</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4033,7 +4037,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-10059</v>
+        <v>-8043</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4050,7 +4054,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-12859</v>
+        <v>-10843</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4067,7 +4071,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-15659</v>
+        <v>-13643</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4084,7 +4088,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-17459</v>
+        <v>-15443</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4101,7 +4105,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-19259</v>
+        <v>-17243</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4118,7 +4122,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-22059</v>
+        <v>-20043</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4135,7 +4139,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-24859</v>
+        <v>-22843</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4152,7 +4156,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-27659</v>
+        <v>-25643</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4169,7 +4173,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-30459</v>
+        <v>-28443</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4186,7 +4190,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-33259</v>
+        <v>-31243</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4203,7 +4207,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-35059</v>
+        <v>-33043</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4220,7 +4224,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-36859</v>
+        <v>-34843</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4237,7 +4241,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-39659</v>
+        <v>-37643</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4254,7 +4258,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-42459</v>
+        <v>-40443</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4271,7 +4275,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-45259</v>
+        <v>-43243</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4288,7 +4292,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-48059</v>
+        <v>-46043</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4305,7 +4309,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-50859</v>
+        <v>-48843</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4322,7 +4326,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-52659</v>
+        <v>-50643</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4339,7 +4343,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-54459</v>
+        <v>-52443</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4356,7 +4360,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-57259</v>
+        <v>-55243</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4373,7 +4377,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-60059</v>
+        <v>-58043</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4390,7 +4394,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-62859</v>
+        <v>-60843</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4407,7 +4411,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-65659</v>
+        <v>-63643</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4424,7 +4428,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-68459</v>
+        <v>-66443</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4441,7 +4445,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-70259</v>
+        <v>-68243</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4458,7 +4462,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-72059</v>
+        <v>-70043</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4475,7 +4479,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-74859</v>
+        <v>-72843</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4492,7 +4496,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-77659</v>
+        <v>-75643</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4509,7 +4513,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-80459</v>
+        <v>-78443</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4526,7 +4530,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-83259</v>
+        <v>-81243</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4543,7 +4547,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-86059</v>
+        <v>-84043</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4560,7 +4564,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-87859</v>
+        <v>-85843</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4577,7 +4581,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-89659</v>
+        <v>-87643</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4594,7 +4598,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-92459</v>
+        <v>-90443</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4611,7 +4615,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-95259</v>
+        <v>-93243</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4628,7 +4632,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-98059</v>
+        <v>-96043</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4645,7 +4649,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-100859</v>
+        <v>-98843</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4662,7 +4666,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-103659</v>
+        <v>-101643</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4679,7 +4683,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-105459</v>
+        <v>-103443</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4696,7 +4700,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-107259</v>
+        <v>-105243</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4713,7 +4717,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-110059</v>
+        <v>-108043</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4730,7 +4734,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-112859</v>
+        <v>-110843</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4747,7 +4751,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-115659</v>
+        <v>-113643</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4764,7 +4768,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-118459</v>
+        <v>-116443</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4781,7 +4785,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-121259</v>
+        <v>-119243</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4798,7 +4802,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-123059</v>
+        <v>-121043</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4815,7 +4819,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-124859</v>
+        <v>-122843</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4832,7 +4836,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-127659</v>
+        <v>-125643</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4849,7 +4853,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-130459</v>
+        <v>-128443</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4866,7 +4870,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-133259</v>
+        <v>-131243</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4883,7 +4887,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-136059</v>
+        <v>-134043</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4900,7 +4904,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-138859</v>
+        <v>-136843</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -3242,15 +3242,15 @@
         <v>2800</v>
       </c>
       <c r="C6" s="24">
-        <v>116</v>
+        <v>694</v>
       </c>
       <c r="D6" s="12">
         <f>B6-C6</f>
-        <v>2684</v>
+        <v>2106</v>
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>103157</v>
+        <v>103735</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>100357</v>
+        <v>100935</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>97557</v>
+        <v>98135</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>94757</v>
+        <v>95335</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>91957</v>
+        <v>92535</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>90157</v>
+        <v>90735</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>88357</v>
+        <v>88935</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>85557</v>
+        <v>86135</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>82757</v>
+        <v>83335</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>79957</v>
+        <v>80535</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>77157</v>
+        <v>77735</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>74357</v>
+        <v>74935</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>72557</v>
+        <v>73135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>70757</v>
+        <v>71335</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>67957</v>
+        <v>68535</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>65157</v>
+        <v>65735</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>62357</v>
+        <v>62935</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>59557</v>
+        <v>60135</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>56757</v>
+        <v>57335</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>54957</v>
+        <v>55535</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>53157</v>
+        <v>53735</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>50357</v>
+        <v>50935</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>47557</v>
+        <v>48135</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>44757</v>
+        <v>45335</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>41957</v>
+        <v>42535</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>39157</v>
+        <v>39735</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>37357</v>
+        <v>37935</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>35557</v>
+        <v>36135</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>32757</v>
+        <v>33335</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>29957</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>27157</v>
+        <v>27735</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>24357</v>
+        <v>24935</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>21557</v>
+        <v>22135</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>19757</v>
+        <v>20335</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>17957</v>
+        <v>18535</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>15157</v>
+        <v>15735</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>12357</v>
+        <v>12935</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>9557</v>
+        <v>10135</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>6757</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>3957</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>2157</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>357</v>
+        <v>935</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-2443</v>
+        <v>-1865</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-5243</v>
+        <v>-4665</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-8043</v>
+        <v>-7465</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-10843</v>
+        <v>-10265</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-13643</v>
+        <v>-13065</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-15443</v>
+        <v>-14865</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-17243</v>
+        <v>-16665</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-20043</v>
+        <v>-19465</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-22843</v>
+        <v>-22265</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-25643</v>
+        <v>-25065</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-28443</v>
+        <v>-27865</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-31243</v>
+        <v>-30665</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-33043</v>
+        <v>-32465</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-34843</v>
+        <v>-34265</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-37643</v>
+        <v>-37065</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-40443</v>
+        <v>-39865</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-43243</v>
+        <v>-42665</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-46043</v>
+        <v>-45465</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-48843</v>
+        <v>-48265</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-50643</v>
+        <v>-50065</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-52443</v>
+        <v>-51865</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-55243</v>
+        <v>-54665</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-58043</v>
+        <v>-57465</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-60843</v>
+        <v>-60265</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-63643</v>
+        <v>-63065</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-66443</v>
+        <v>-65865</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-68243</v>
+        <v>-67665</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-70043</v>
+        <v>-69465</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-72843</v>
+        <v>-72265</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-75643</v>
+        <v>-75065</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-78443</v>
+        <v>-77865</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-81243</v>
+        <v>-80665</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-84043</v>
+        <v>-83465</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-85843</v>
+        <v>-85265</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-87643</v>
+        <v>-87065</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-90443</v>
+        <v>-89865</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-93243</v>
+        <v>-92665</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-96043</v>
+        <v>-95465</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-98843</v>
+        <v>-98265</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-101643</v>
+        <v>-101065</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-103443</v>
+        <v>-102865</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-105243</v>
+        <v>-104665</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-108043</v>
+        <v>-107465</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-110843</v>
+        <v>-110265</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-113643</v>
+        <v>-113065</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-116443</v>
+        <v>-115865</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-119243</v>
+        <v>-118665</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-121043</v>
+        <v>-120465</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-122843</v>
+        <v>-122265</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-125643</v>
+        <v>-125065</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-128443</v>
+        <v>-127865</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-131243</v>
+        <v>-130665</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-134043</v>
+        <v>-133465</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-136843</v>
+        <v>-136265</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3242,15 +3242,15 @@
         <v>2800</v>
       </c>
       <c r="C6" s="24">
-        <v>694</v>
+        <v>1700</v>
       </c>
       <c r="D6" s="12">
         <f>B6-C6</f>
-        <v>2106</v>
+        <v>1100</v>
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>103735</v>
+        <v>104741</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>100935</v>
+        <v>101941</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>98135</v>
+        <v>99141</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>95335</v>
+        <v>96341</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>92535</v>
+        <v>93541</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>90735</v>
+        <v>91741</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>88935</v>
+        <v>89941</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>86135</v>
+        <v>87141</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>83335</v>
+        <v>84341</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>80535</v>
+        <v>81541</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>77735</v>
+        <v>78741</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>74935</v>
+        <v>75941</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>73135</v>
+        <v>74141</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>71335</v>
+        <v>72341</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>68535</v>
+        <v>69541</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>65735</v>
+        <v>66741</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>62935</v>
+        <v>63941</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>60135</v>
+        <v>61141</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>57335</v>
+        <v>58341</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>55535</v>
+        <v>56541</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>53735</v>
+        <v>54741</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>50935</v>
+        <v>51941</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>48135</v>
+        <v>49141</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>45335</v>
+        <v>46341</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>42535</v>
+        <v>43541</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>39735</v>
+        <v>40741</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>37935</v>
+        <v>38941</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>36135</v>
+        <v>37141</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>33335</v>
+        <v>34341</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>30535</v>
+        <v>31541</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>27735</v>
+        <v>28741</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>24935</v>
+        <v>25941</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>22135</v>
+        <v>23141</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>20335</v>
+        <v>21341</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>18535</v>
+        <v>19541</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>15735</v>
+        <v>16741</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>12935</v>
+        <v>13941</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>10135</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>7335</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>4535</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>2735</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>935</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-1865</v>
+        <v>-859</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-4665</v>
+        <v>-3659</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-7465</v>
+        <v>-6459</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-10265</v>
+        <v>-9259</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-13065</v>
+        <v>-12059</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-14865</v>
+        <v>-13859</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-16665</v>
+        <v>-15659</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-19465</v>
+        <v>-18459</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-22265</v>
+        <v>-21259</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-25065</v>
+        <v>-24059</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-27865</v>
+        <v>-26859</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-30665</v>
+        <v>-29659</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-32465</v>
+        <v>-31459</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-34265</v>
+        <v>-33259</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-37065</v>
+        <v>-36059</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-39865</v>
+        <v>-38859</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-42665</v>
+        <v>-41659</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-45465</v>
+        <v>-44459</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-48265</v>
+        <v>-47259</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-50065</v>
+        <v>-49059</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-51865</v>
+        <v>-50859</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-54665</v>
+        <v>-53659</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-57465</v>
+        <v>-56459</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-60265</v>
+        <v>-59259</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-63065</v>
+        <v>-62059</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-65865</v>
+        <v>-64859</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-67665</v>
+        <v>-66659</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-69465</v>
+        <v>-68459</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-72265</v>
+        <v>-71259</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-75065</v>
+        <v>-74059</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-77865</v>
+        <v>-76859</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-80665</v>
+        <v>-79659</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-83465</v>
+        <v>-82459</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-85265</v>
+        <v>-84259</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-87065</v>
+        <v>-86059</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-89865</v>
+        <v>-88859</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-92665</v>
+        <v>-91659</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-95465</v>
+        <v>-94459</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-98265</v>
+        <v>-97259</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-101065</v>
+        <v>-100059</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-102865</v>
+        <v>-101859</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-104665</v>
+        <v>-103659</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-107465</v>
+        <v>-106459</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-110265</v>
+        <v>-109259</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-113065</v>
+        <v>-112059</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-115865</v>
+        <v>-114859</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-118665</v>
+        <v>-117659</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-120465</v>
+        <v>-119459</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-122265</v>
+        <v>-121259</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-125065</v>
+        <v>-124059</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-127865</v>
+        <v>-126859</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-130665</v>
+        <v>-129659</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-133465</v>
+        <v>-132459</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-136265</v>
+        <v>-135259</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3098,7 +3098,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3269,14 +3269,16 @@
       <c r="B7" s="24">
         <v>2800</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="24">
+        <v>1900</v>
+      </c>
       <c r="D7" s="12">
         <f>B7-C7</f>
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>101941</v>
+        <v>103841</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3302,7 +3304,7 @@
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>99141</v>
+        <v>101041</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3323,7 +3325,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>96341</v>
+        <v>98241</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3345,7 +3347,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>93541</v>
+        <v>95441</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3366,7 +3368,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>91741</v>
+        <v>93641</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3387,7 +3389,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>89941</v>
+        <v>91841</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3408,7 +3410,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>87141</v>
+        <v>89041</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3425,7 +3427,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>84341</v>
+        <v>86241</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3442,7 +3444,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>81541</v>
+        <v>83441</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3459,7 +3461,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>78741</v>
+        <v>80641</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3476,7 +3478,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>75941</v>
+        <v>77841</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3493,7 +3495,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>74141</v>
+        <v>76041</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3510,7 +3512,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>72341</v>
+        <v>74241</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3527,7 +3529,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>69541</v>
+        <v>71441</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3544,7 +3546,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>66741</v>
+        <v>68641</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3561,7 +3563,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>63941</v>
+        <v>65841</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3578,7 +3580,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>61141</v>
+        <v>63041</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3595,7 +3597,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>58341</v>
+        <v>60241</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3612,7 +3614,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>56541</v>
+        <v>58441</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3629,7 +3631,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>54741</v>
+        <v>56641</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3646,7 +3648,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>51941</v>
+        <v>53841</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3663,7 +3665,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>49141</v>
+        <v>51041</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3680,7 +3682,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>46341</v>
+        <v>48241</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3697,7 +3699,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>43541</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3714,7 +3716,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>40741</v>
+        <v>42641</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3731,7 +3733,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>38941</v>
+        <v>40841</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3748,7 +3750,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>37141</v>
+        <v>39041</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3765,7 +3767,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>34341</v>
+        <v>36241</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3782,7 +3784,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>31541</v>
+        <v>33441</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3799,7 +3801,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>28741</v>
+        <v>30641</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3816,7 +3818,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>25941</v>
+        <v>27841</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3833,7 +3835,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>23141</v>
+        <v>25041</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3850,7 +3852,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>21341</v>
+        <v>23241</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3867,7 +3869,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>19541</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3884,7 +3886,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>16741</v>
+        <v>18641</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3901,7 +3903,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>13941</v>
+        <v>15841</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3918,7 +3920,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>11141</v>
+        <v>13041</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3935,7 +3937,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>8341</v>
+        <v>10241</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3952,7 +3954,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>5541</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3969,7 +3971,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>3741</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3986,7 +3988,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>1941</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4003,7 +4005,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>-859</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4020,7 +4022,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-3659</v>
+        <v>-1759</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4037,7 +4039,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-6459</v>
+        <v>-4559</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4054,7 +4056,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-9259</v>
+        <v>-7359</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4071,7 +4073,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-12059</v>
+        <v>-10159</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4088,7 +4090,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-13859</v>
+        <v>-11959</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4105,7 +4107,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-15659</v>
+        <v>-13759</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4122,7 +4124,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-18459</v>
+        <v>-16559</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4139,7 +4141,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-21259</v>
+        <v>-19359</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4156,7 +4158,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-24059</v>
+        <v>-22159</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4173,7 +4175,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-26859</v>
+        <v>-24959</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4190,7 +4192,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-29659</v>
+        <v>-27759</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4207,7 +4209,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-31459</v>
+        <v>-29559</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4224,7 +4226,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-33259</v>
+        <v>-31359</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4241,7 +4243,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-36059</v>
+        <v>-34159</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4258,7 +4260,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-38859</v>
+        <v>-36959</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4275,7 +4277,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-41659</v>
+        <v>-39759</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4292,7 +4294,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-44459</v>
+        <v>-42559</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4309,7 +4311,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-47259</v>
+        <v>-45359</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4326,7 +4328,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-49059</v>
+        <v>-47159</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4343,7 +4345,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-50859</v>
+        <v>-48959</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4360,7 +4362,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-53659</v>
+        <v>-51759</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4377,7 +4379,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-56459</v>
+        <v>-54559</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4394,7 +4396,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-59259</v>
+        <v>-57359</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4411,7 +4413,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-62059</v>
+        <v>-60159</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4428,7 +4430,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-64859</v>
+        <v>-62959</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4445,7 +4447,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-66659</v>
+        <v>-64759</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4462,7 +4464,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-68459</v>
+        <v>-66559</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4479,7 +4481,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-71259</v>
+        <v>-69359</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4496,7 +4498,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-74059</v>
+        <v>-72159</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4513,7 +4515,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-76859</v>
+        <v>-74959</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4530,7 +4532,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-79659</v>
+        <v>-77759</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4547,7 +4549,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-82459</v>
+        <v>-80559</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4564,7 +4566,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-84259</v>
+        <v>-82359</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4581,7 +4583,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-86059</v>
+        <v>-84159</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4598,7 +4600,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-88859</v>
+        <v>-86959</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4615,7 +4617,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-91659</v>
+        <v>-89759</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4632,7 +4634,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-94459</v>
+        <v>-92559</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4649,7 +4651,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-97259</v>
+        <v>-95359</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4666,7 +4668,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-100059</v>
+        <v>-98159</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4683,7 +4685,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-101859</v>
+        <v>-99959</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4700,7 +4702,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-103659</v>
+        <v>-101759</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4717,7 +4719,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-106459</v>
+        <v>-104559</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4734,7 +4736,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-109259</v>
+        <v>-107359</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4751,7 +4753,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-112059</v>
+        <v>-110159</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4768,7 +4770,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-114859</v>
+        <v>-112959</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4785,7 +4787,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-117659</v>
+        <v>-115759</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4802,7 +4804,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-119459</v>
+        <v>-117559</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4819,7 +4821,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-121259</v>
+        <v>-119359</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4836,7 +4838,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-124059</v>
+        <v>-122159</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4853,7 +4855,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-126859</v>
+        <v>-124959</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4870,7 +4872,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-129659</v>
+        <v>-127759</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4887,7 +4889,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-132459</v>
+        <v>-130559</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4904,7 +4906,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-135259</v>
+        <v>-133359</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3098,7 +3098,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3270,15 +3270,15 @@
         <v>2800</v>
       </c>
       <c r="C7" s="24">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="D7" s="12">
         <f>B7-C7</f>
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>103841</v>
+        <v>104141</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3297,14 +3297,16 @@
       <c r="B8" s="24">
         <v>2800</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="24">
+        <v>116</v>
+      </c>
       <c r="D8" s="12">
         <f>B8-C8</f>
-        <v>2800</v>
+        <v>2684</v>
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>101041</v>
+        <v>101457</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3325,7 +3327,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>98241</v>
+        <v>98657</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3347,7 +3349,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>95441</v>
+        <v>95857</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3368,7 +3370,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>93641</v>
+        <v>94057</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3389,7 +3391,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>91841</v>
+        <v>92257</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3410,7 +3412,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>89041</v>
+        <v>89457</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3427,7 +3429,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>86241</v>
+        <v>86657</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3444,7 +3446,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>83441</v>
+        <v>83857</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3461,7 +3463,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>80641</v>
+        <v>81057</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3478,7 +3480,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>77841</v>
+        <v>78257</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3495,7 +3497,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>76041</v>
+        <v>76457</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3512,7 +3514,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>74241</v>
+        <v>74657</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3529,7 +3531,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>71441</v>
+        <v>71857</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3546,7 +3548,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>68641</v>
+        <v>69057</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3563,7 +3565,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>65841</v>
+        <v>66257</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3580,7 +3582,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>63041</v>
+        <v>63457</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3597,7 +3599,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>60241</v>
+        <v>60657</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3614,7 +3616,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>58441</v>
+        <v>58857</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3631,7 +3633,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>56641</v>
+        <v>57057</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3648,7 +3650,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>53841</v>
+        <v>54257</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3665,7 +3667,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>51041</v>
+        <v>51457</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3682,7 +3684,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>48241</v>
+        <v>48657</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3699,7 +3701,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>45441</v>
+        <v>45857</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3716,7 +3718,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>42641</v>
+        <v>43057</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3733,7 +3735,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>40841</v>
+        <v>41257</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3750,7 +3752,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>39041</v>
+        <v>39457</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3767,7 +3769,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>36241</v>
+        <v>36657</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3784,7 +3786,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>33441</v>
+        <v>33857</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3801,7 +3803,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>30641</v>
+        <v>31057</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3818,7 +3820,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>27841</v>
+        <v>28257</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3835,7 +3837,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>25041</v>
+        <v>25457</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3852,7 +3854,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>23241</v>
+        <v>23657</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3869,7 +3871,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>21441</v>
+        <v>21857</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3886,7 +3888,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>18641</v>
+        <v>19057</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3903,7 +3905,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>15841</v>
+        <v>16257</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3920,7 +3922,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>13041</v>
+        <v>13457</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3937,7 +3939,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>10241</v>
+        <v>10657</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3954,7 +3956,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>7441</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3971,7 +3973,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>5641</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3988,7 +3990,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>3841</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4005,7 +4007,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>1041</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4022,7 +4024,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-1759</v>
+        <v>-1343</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4039,7 +4041,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-4559</v>
+        <v>-4143</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4056,7 +4058,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-7359</v>
+        <v>-6943</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4073,7 +4075,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-10159</v>
+        <v>-9743</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4090,7 +4092,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-11959</v>
+        <v>-11543</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4107,7 +4109,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-13759</v>
+        <v>-13343</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4124,7 +4126,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-16559</v>
+        <v>-16143</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4141,7 +4143,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-19359</v>
+        <v>-18943</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4158,7 +4160,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-22159</v>
+        <v>-21743</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4175,7 +4177,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-24959</v>
+        <v>-24543</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4192,7 +4194,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-27759</v>
+        <v>-27343</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4209,7 +4211,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-29559</v>
+        <v>-29143</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4226,7 +4228,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-31359</v>
+        <v>-30943</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4243,7 +4245,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-34159</v>
+        <v>-33743</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4260,7 +4262,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-36959</v>
+        <v>-36543</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4277,7 +4279,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-39759</v>
+        <v>-39343</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4294,7 +4296,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-42559</v>
+        <v>-42143</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4311,7 +4313,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-45359</v>
+        <v>-44943</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4328,7 +4330,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-47159</v>
+        <v>-46743</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4345,7 +4347,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-48959</v>
+        <v>-48543</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4362,7 +4364,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-51759</v>
+        <v>-51343</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4379,7 +4381,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-54559</v>
+        <v>-54143</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4396,7 +4398,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-57359</v>
+        <v>-56943</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4413,7 +4415,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-60159</v>
+        <v>-59743</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4430,7 +4432,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-62959</v>
+        <v>-62543</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4447,7 +4449,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-64759</v>
+        <v>-64343</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4464,7 +4466,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-66559</v>
+        <v>-66143</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4481,7 +4483,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-69359</v>
+        <v>-68943</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4498,7 +4500,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-72159</v>
+        <v>-71743</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4515,7 +4517,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-74959</v>
+        <v>-74543</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4532,7 +4534,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-77759</v>
+        <v>-77343</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4549,7 +4551,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-80559</v>
+        <v>-80143</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4566,7 +4568,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-82359</v>
+        <v>-81943</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4583,7 +4585,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-84159</v>
+        <v>-83743</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4600,7 +4602,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-86959</v>
+        <v>-86543</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4617,7 +4619,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-89759</v>
+        <v>-89343</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4634,7 +4636,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-92559</v>
+        <v>-92143</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4651,7 +4653,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-95359</v>
+        <v>-94943</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4668,7 +4670,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-98159</v>
+        <v>-97743</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4685,7 +4687,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-99959</v>
+        <v>-99543</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4702,7 +4704,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-101759</v>
+        <v>-101343</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4719,7 +4721,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-104559</v>
+        <v>-104143</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4736,7 +4738,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-107359</v>
+        <v>-106943</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4753,7 +4755,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-110159</v>
+        <v>-109743</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4770,7 +4772,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-112959</v>
+        <v>-112543</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4787,7 +4789,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-115759</v>
+        <v>-115343</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4804,7 +4806,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-117559</v>
+        <v>-117143</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4821,7 +4823,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-119359</v>
+        <v>-118943</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4838,7 +4840,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-122159</v>
+        <v>-121743</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4855,7 +4857,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-124959</v>
+        <v>-124543</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4872,7 +4874,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-127759</v>
+        <v>-127343</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4889,7 +4891,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-130559</v>
+        <v>-130143</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4906,7 +4908,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-133359</v>
+        <v>-132943</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="440" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>韭菜鸡蛋饼</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>肉末酸豆角</t>
+  </si>
+  <si>
+    <t>凉拌土豆丝</t>
+  </si>
+  <si>
+    <t>五香豆腐丝</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.67968750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -1469,266 +1475,274 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.000000" customHeight="1">
+    <row r="8" spans="1:6" ht="20.000000">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8">
         <f>B8*C8/100</f>
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>72.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.000000">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D9" s="8">
         <f>B9*C9/100</f>
-        <v>56.25</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8">
         <f>B10*C10/100</f>
-        <v>134.4</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B11" s="3">
+        <v>225</v>
+      </c>
+      <c r="C11" s="3">
+        <v>25</v>
+      </c>
       <c r="D11" s="8">
-        <v>850</v>
+        <f>B11*C11/100</f>
+        <v>56.25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="C12" s="3">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8">
         <f>B12*C12/100</f>
-        <v>174</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>116</v>
+      </c>
+      <c r="C14" s="3">
+        <v>150</v>
+      </c>
+      <c r="D14" s="8">
+        <f>B14*C14/100</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B15" s="3">
         <v>900</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
-        <f>B13*C13/100</f>
+      <c r="D15" s="8">
+        <f>B15*C15/100</f>
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A14" s="9" t="s">
+    <row r="16" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B16" s="10">
         <v>192</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C16" s="10">
         <v>50</v>
       </c>
-      <c r="D14" s="11">
-        <f>B14*C14/100</f>
+      <c r="D16" s="11">
+        <f>B16*C16/100</f>
         <v>96</v>
       </c>
     </row>
-    <row r="15" ht="20.000000" customHeight="1"/>
-    <row r="16" ht="20.000000" customHeight="1"/>
     <row r="17" ht="20.000000" customHeight="1"/>
-    <row r="18" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="20.000000" customHeight="1"/>
+    <row r="19" ht="20.000000" customHeight="1"/>
+    <row r="20" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="2" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A19" s="7" t="s">
+    <row r="21" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B21" s="3">
         <v>261</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C21" s="3">
         <v>130</v>
       </c>
-      <c r="D19" s="8">
-        <f>B19*C19/100</f>
+      <c r="D21" s="8">
+        <f>B21*C21/100</f>
         <v>339.3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F21" s="2">
         <f>339.3*2+164</f>
         <v>842.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A20" s="9" t="s">
+    <row r="22" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B22" s="10">
         <v>164</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C22" s="10">
         <v>100</v>
       </c>
-      <c r="D20" s="11">
-        <f>B20*C20/100</f>
+      <c r="D22" s="11">
+        <f>B22*C22/100</f>
         <v>164</v>
       </c>
     </row>
-    <row r="21" ht="20.000000" customHeight="1"/>
-    <row r="22" ht="20.000000" customHeight="1"/>
     <row r="23" ht="20.000000" customHeight="1"/>
-    <row r="24" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A24" s="4" t="s">
+    <row r="24" ht="20.000000" customHeight="1"/>
+    <row r="25" ht="20.000000" customHeight="1"/>
+    <row r="26" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A25" s="9" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.000000" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B27" s="10">
         <v>165</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C27" s="10">
         <v>500</v>
       </c>
-      <c r="D25" s="11">
-        <f>B25*C25/100</f>
+      <c r="D27" s="11">
+        <f>B27*C27/100</f>
         <v>825</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="20.000000" customHeight="1">
       <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6">
-        <f>B29*C29/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3">
-        <v>448</v>
-      </c>
-      <c r="C30" s="3">
-        <v>25</v>
-      </c>
-      <c r="D30" s="8">
-        <f>B30*C30/100</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.000000" customHeight="1">
-      <c r="A31" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="19">
-        <v>54</v>
-      </c>
-      <c r="C31" s="19">
-        <v>240</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6">
         <f>B31*C31/100</f>
-        <v>129.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3">
-        <v>33</v>
+        <v>448</v>
       </c>
       <c r="C32" s="3">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="D32" s="8">
         <f>B32*C32/100</f>
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.000000" customHeight="1">
+      <c r="A33" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="19">
+        <v>54</v>
+      </c>
+      <c r="C33" s="19">
+        <v>240</v>
+      </c>
       <c r="D33" s="8">
         <f>B33*C33/100</f>
-        <v>0</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
+        <v>350</v>
+      </c>
       <c r="D34" s="8">
         <f>B34*C34/100</f>
-        <v>0</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1809,24 +1823,34 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="8">
         <f>B42*C42/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="D43" s="3">
+      <c r="A43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="8">
         <f>B43*C43/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="D44" s="3">
+      <c r="A44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11">
         <f>B44*C44/100</f>
         <v>0</v>
       </c>
@@ -3076,6 +3100,18 @@
     <row r="252" spans="4:4">
       <c r="D252" s="3">
         <f>B252*C252/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4">
+      <c r="D253" s="3">
+        <f>B253*C253/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" s="3">
+        <f>B254*C254/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3083,9 +3119,9 @@
   <mergeCells count="5">
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
@@ -3298,15 +3334,15 @@
         <v>2800</v>
       </c>
       <c r="C8" s="24">
-        <v>116</v>
+        <v>700</v>
       </c>
       <c r="D8" s="12">
         <f>B8-C8</f>
-        <v>2684</v>
+        <v>2100</v>
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>101457</v>
+        <v>102041</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3327,7 +3363,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>98657</v>
+        <v>99241</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3349,7 +3385,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>95857</v>
+        <v>96441</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3370,7 +3406,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>94057</v>
+        <v>94641</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3391,7 +3427,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>92257</v>
+        <v>92841</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3412,7 +3448,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>89457</v>
+        <v>90041</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3429,7 +3465,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>86657</v>
+        <v>87241</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3446,7 +3482,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>83857</v>
+        <v>84441</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3463,7 +3499,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>81057</v>
+        <v>81641</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3480,7 +3516,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>78257</v>
+        <v>78841</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3497,7 +3533,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>76457</v>
+        <v>77041</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3514,7 +3550,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>74657</v>
+        <v>75241</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3531,7 +3567,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>71857</v>
+        <v>72441</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3548,7 +3584,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>69057</v>
+        <v>69641</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3565,7 +3601,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>66257</v>
+        <v>66841</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3582,7 +3618,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>63457</v>
+        <v>64041</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3599,7 +3635,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>60657</v>
+        <v>61241</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3616,7 +3652,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>58857</v>
+        <v>59441</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3633,7 +3669,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>57057</v>
+        <v>57641</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3650,7 +3686,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>54257</v>
+        <v>54841</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3667,7 +3703,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>51457</v>
+        <v>52041</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3684,7 +3720,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>48657</v>
+        <v>49241</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3701,7 +3737,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>45857</v>
+        <v>46441</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3718,7 +3754,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>43057</v>
+        <v>43641</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3735,7 +3771,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>41257</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3752,7 +3788,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>39457</v>
+        <v>40041</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3769,7 +3805,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>36657</v>
+        <v>37241</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3786,7 +3822,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>33857</v>
+        <v>34441</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3803,7 +3839,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>31057</v>
+        <v>31641</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3820,7 +3856,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>28257</v>
+        <v>28841</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3837,7 +3873,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>25457</v>
+        <v>26041</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3854,7 +3890,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>23657</v>
+        <v>24241</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3871,7 +3907,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>21857</v>
+        <v>22441</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3888,7 +3924,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>19057</v>
+        <v>19641</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3905,7 +3941,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>16257</v>
+        <v>16841</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3922,7 +3958,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>13457</v>
+        <v>14041</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3939,7 +3975,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>10657</v>
+        <v>11241</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3956,7 +3992,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>7857</v>
+        <v>8441</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -3973,7 +4009,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>6057</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -3990,7 +4026,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>4257</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4007,7 +4043,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>1457</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4024,7 +4060,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-1343</v>
+        <v>-759</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4041,7 +4077,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-4143</v>
+        <v>-3559</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4058,7 +4094,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-6943</v>
+        <v>-6359</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4075,7 +4111,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-9743</v>
+        <v>-9159</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4092,7 +4128,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-11543</v>
+        <v>-10959</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4109,7 +4145,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-13343</v>
+        <v>-12759</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4126,7 +4162,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-16143</v>
+        <v>-15559</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4143,7 +4179,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-18943</v>
+        <v>-18359</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4160,7 +4196,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-21743</v>
+        <v>-21159</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4177,7 +4213,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-24543</v>
+        <v>-23959</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4194,7 +4230,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-27343</v>
+        <v>-26759</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4211,7 +4247,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-29143</v>
+        <v>-28559</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4228,7 +4264,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-30943</v>
+        <v>-30359</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4245,7 +4281,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-33743</v>
+        <v>-33159</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4262,7 +4298,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-36543</v>
+        <v>-35959</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4279,7 +4315,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-39343</v>
+        <v>-38759</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4296,7 +4332,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-42143</v>
+        <v>-41559</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4313,7 +4349,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-44943</v>
+        <v>-44359</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4330,7 +4366,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-46743</v>
+        <v>-46159</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4347,7 +4383,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-48543</v>
+        <v>-47959</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4364,7 +4400,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-51343</v>
+        <v>-50759</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4381,7 +4417,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-54143</v>
+        <v>-53559</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4398,7 +4434,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-56943</v>
+        <v>-56359</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4415,7 +4451,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-59743</v>
+        <v>-59159</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4432,7 +4468,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-62543</v>
+        <v>-61959</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4449,7 +4485,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-64343</v>
+        <v>-63759</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4466,7 +4502,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-66143</v>
+        <v>-65559</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4483,7 +4519,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-68943</v>
+        <v>-68359</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4500,7 +4536,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-71743</v>
+        <v>-71159</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4517,7 +4553,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-74543</v>
+        <v>-73959</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4534,7 +4570,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-77343</v>
+        <v>-76759</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4551,7 +4587,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-80143</v>
+        <v>-79559</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4568,7 +4604,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-81943</v>
+        <v>-81359</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4585,7 +4621,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-83743</v>
+        <v>-83159</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4602,7 +4638,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-86543</v>
+        <v>-85959</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4619,7 +4655,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-89343</v>
+        <v>-88759</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4636,7 +4672,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-92143</v>
+        <v>-91559</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4653,7 +4689,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-94943</v>
+        <v>-94359</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4670,7 +4706,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-97743</v>
+        <v>-97159</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4687,7 +4723,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-99543</v>
+        <v>-98959</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4704,7 +4740,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-101343</v>
+        <v>-100759</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4721,7 +4757,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-104143</v>
+        <v>-103559</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4738,7 +4774,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-106943</v>
+        <v>-106359</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4755,7 +4791,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-109743</v>
+        <v>-109159</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4772,7 +4808,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-112543</v>
+        <v>-111959</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4789,7 +4825,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-115343</v>
+        <v>-114759</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4806,7 +4842,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-117143</v>
+        <v>-116559</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4823,7 +4859,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-118943</v>
+        <v>-118359</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4840,7 +4876,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-121743</v>
+        <v>-121159</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4857,7 +4893,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-124543</v>
+        <v>-123959</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4874,7 +4910,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-127343</v>
+        <v>-126759</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4891,7 +4927,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-130143</v>
+        <v>-129559</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4908,7 +4944,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-132943</v>
+        <v>-132359</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="430" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -1475,7 +1475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.000000">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>72.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.000000">
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>61</v>
       </c>
@@ -3334,15 +3334,15 @@
         <v>2800</v>
       </c>
       <c r="C8" s="24">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="D8" s="12">
         <f>B8-C8</f>
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>102041</v>
+        <v>102841</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>99241</v>
+        <v>100041</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>96441</v>
+        <v>97241</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>94641</v>
+        <v>95441</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>92841</v>
+        <v>93641</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>90041</v>
+        <v>90841</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>87241</v>
+        <v>88041</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>84441</v>
+        <v>85241</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>81641</v>
+        <v>82441</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>78841</v>
+        <v>79641</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>77041</v>
+        <v>77841</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>75241</v>
+        <v>76041</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>72441</v>
+        <v>73241</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>69641</v>
+        <v>70441</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>66841</v>
+        <v>67641</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>64041</v>
+        <v>64841</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>61241</v>
+        <v>62041</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>59441</v>
+        <v>60241</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>57641</v>
+        <v>58441</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>54841</v>
+        <v>55641</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>52041</v>
+        <v>52841</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>49241</v>
+        <v>50041</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>46441</v>
+        <v>47241</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>43641</v>
+        <v>44441</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>41841</v>
+        <v>42641</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>40041</v>
+        <v>40841</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>37241</v>
+        <v>38041</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>34441</v>
+        <v>35241</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>31641</v>
+        <v>32441</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>28841</v>
+        <v>29641</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>26041</v>
+        <v>26841</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>24241</v>
+        <v>25041</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>22441</v>
+        <v>23241</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>19641</v>
+        <v>20441</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>16841</v>
+        <v>17641</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>14041</v>
+        <v>14841</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>11241</v>
+        <v>12041</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>8441</v>
+        <v>9241</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>6641</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>4841</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>2041</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>-759</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-3559</v>
+        <v>-2759</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-6359</v>
+        <v>-5559</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-9159</v>
+        <v>-8359</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-10959</v>
+        <v>-10159</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-12759</v>
+        <v>-11959</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-15559</v>
+        <v>-14759</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-18359</v>
+        <v>-17559</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-21159</v>
+        <v>-20359</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-23959</v>
+        <v>-23159</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-26759</v>
+        <v>-25959</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-28559</v>
+        <v>-27759</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-30359</v>
+        <v>-29559</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-33159</v>
+        <v>-32359</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-35959</v>
+        <v>-35159</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-38759</v>
+        <v>-37959</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-41559</v>
+        <v>-40759</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-44359</v>
+        <v>-43559</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-46159</v>
+        <v>-45359</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-47959</v>
+        <v>-47159</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-50759</v>
+        <v>-49959</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-53559</v>
+        <v>-52759</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-56359</v>
+        <v>-55559</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-59159</v>
+        <v>-58359</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-61959</v>
+        <v>-61159</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-63759</v>
+        <v>-62959</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-65559</v>
+        <v>-64759</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-68359</v>
+        <v>-67559</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-71159</v>
+        <v>-70359</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-73959</v>
+        <v>-73159</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-76759</v>
+        <v>-75959</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-79559</v>
+        <v>-78759</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-81359</v>
+        <v>-80559</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-83159</v>
+        <v>-82359</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-85959</v>
+        <v>-85159</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-88759</v>
+        <v>-87959</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-91559</v>
+        <v>-90759</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-94359</v>
+        <v>-93559</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-97159</v>
+        <v>-96359</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-98959</v>
+        <v>-98159</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-100759</v>
+        <v>-99959</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-103559</v>
+        <v>-102759</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-106359</v>
+        <v>-105559</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-109159</v>
+        <v>-108359</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-111959</v>
+        <v>-111159</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-114759</v>
+        <v>-113959</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-116559</v>
+        <v>-115759</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-118359</v>
+        <v>-117559</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-121159</v>
+        <v>-120359</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-123959</v>
+        <v>-123159</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-126759</v>
+        <v>-125959</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-129559</v>
+        <v>-128759</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-132359</v>
+        <v>-131559</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:F254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.67968750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3169,15 +3169,15 @@
         <v>2800</v>
       </c>
       <c r="C2" s="24">
-        <v>1778</v>
+        <v>1800</v>
       </c>
       <c r="D2" s="12">
         <f>B2-C2</f>
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="12">
         <f>H4-D2</f>
-        <v>106778</v>
+        <v>106800</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>36</v>
@@ -3196,15 +3196,15 @@
         <v>1900</v>
       </c>
       <c r="C3" s="24">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="D3" s="12">
         <f>B3-C3</f>
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12">
         <f>E2-D3</f>
-        <v>106669</v>
+        <v>106700</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>37</v>
@@ -3220,18 +3220,18 @@
         <v>43960</v>
       </c>
       <c r="B4" s="24">
-        <v>3528</v>
+        <v>3500</v>
       </c>
       <c r="C4" s="24">
         <v>2600</v>
       </c>
       <c r="D4" s="12">
         <f>B4-C4</f>
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="E4" s="12">
         <f>E3-D4</f>
-        <v>105741</v>
+        <v>105800</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>42</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="E5" s="12">
         <f>E4-D5</f>
-        <v>105841</v>
+        <v>105900</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>43</v>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E6" s="12">
         <f>E5-D6</f>
-        <v>104741</v>
+        <v>104800</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>41</v>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="E7" s="12">
         <f>E6-D7</f>
-        <v>104141</v>
+        <v>104200</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>44</v>
@@ -3334,15 +3334,15 @@
         <v>2800</v>
       </c>
       <c r="C8" s="24">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="D8" s="12">
         <f>B8-C8</f>
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E8" s="12">
         <f>E7-D8</f>
-        <v>102841</v>
+        <v>103300</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -3356,14 +3356,16 @@
       <c r="B9" s="24">
         <v>2800</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="24">
+        <v>1900</v>
+      </c>
       <c r="D9" s="12">
         <f>B9-C9</f>
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="E9" s="12">
         <f>E8-D9</f>
-        <v>100041</v>
+        <v>102400</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24" t="s">
@@ -3385,7 +3387,7 @@
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>97241</v>
+        <v>99600</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3406,7 +3408,7 @@
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>95441</v>
+        <v>97800</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3427,7 +3429,7 @@
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>93641</v>
+        <v>96000</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3448,7 +3450,7 @@
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>90841</v>
+        <v>93200</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3465,7 +3467,7 @@
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>88041</v>
+        <v>90400</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3482,7 +3484,7 @@
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>85241</v>
+        <v>87600</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3499,7 +3501,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>82441</v>
+        <v>84800</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3516,7 +3518,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>79641</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3533,7 +3535,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>77841</v>
+        <v>80200</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3550,7 +3552,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>76041</v>
+        <v>78400</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3567,7 +3569,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>73241</v>
+        <v>75600</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3584,7 +3586,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>70441</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3601,7 +3603,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>67641</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3618,7 +3620,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>64841</v>
+        <v>67200</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3635,7 +3637,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>62041</v>
+        <v>64400</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3652,7 +3654,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>60241</v>
+        <v>62600</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3669,7 +3671,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>58441</v>
+        <v>60800</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3686,7 +3688,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>55641</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3703,7 +3705,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>52841</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3720,7 +3722,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>50041</v>
+        <v>52400</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3737,7 +3739,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>47241</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3754,7 +3756,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>44441</v>
+        <v>46800</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3771,7 +3773,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>42641</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3788,7 +3790,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>40841</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3805,7 +3807,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>38041</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3822,7 +3824,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>35241</v>
+        <v>37600</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3839,7 +3841,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>32441</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3856,7 +3858,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>29641</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3873,7 +3875,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>26841</v>
+        <v>29200</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3890,7 +3892,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>25041</v>
+        <v>27400</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3907,7 +3909,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>23241</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3924,7 +3926,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>20441</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3941,7 +3943,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>17641</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3958,7 +3960,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>14841</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3975,7 +3977,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>12041</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3992,7 +3994,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>9241</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -4009,7 +4011,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>7441</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -4026,7 +4028,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>5641</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4043,7 +4045,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>2841</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4060,7 +4062,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>41</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4077,7 +4079,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-2759</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4094,7 +4096,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-5559</v>
+        <v>-3200</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4111,7 +4113,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-8359</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4128,7 +4130,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-10159</v>
+        <v>-7800</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4145,7 +4147,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-11959</v>
+        <v>-9600</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4162,7 +4164,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-14759</v>
+        <v>-12400</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4179,7 +4181,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-17559</v>
+        <v>-15200</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4196,7 +4198,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-20359</v>
+        <v>-18000</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4213,7 +4215,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-23159</v>
+        <v>-20800</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4230,7 +4232,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-25959</v>
+        <v>-23600</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4247,7 +4249,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-27759</v>
+        <v>-25400</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4264,7 +4266,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-29559</v>
+        <v>-27200</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4281,7 +4283,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-32359</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4298,7 +4300,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-35159</v>
+        <v>-32800</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4315,7 +4317,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-37959</v>
+        <v>-35600</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4332,7 +4334,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-40759</v>
+        <v>-38400</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4349,7 +4351,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-43559</v>
+        <v>-41200</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4366,7 +4368,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-45359</v>
+        <v>-43000</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4383,7 +4385,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-47159</v>
+        <v>-44800</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4400,7 +4402,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-49959</v>
+        <v>-47600</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4417,7 +4419,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-52759</v>
+        <v>-50400</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4434,7 +4436,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-55559</v>
+        <v>-53200</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4451,7 +4453,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-58359</v>
+        <v>-56000</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4468,7 +4470,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-61159</v>
+        <v>-58800</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4485,7 +4487,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-62959</v>
+        <v>-60600</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4502,7 +4504,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-64759</v>
+        <v>-62400</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4519,7 +4521,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-67559</v>
+        <v>-65200</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4536,7 +4538,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-70359</v>
+        <v>-68000</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4553,7 +4555,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-73159</v>
+        <v>-70800</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4570,7 +4572,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-75959</v>
+        <v>-73600</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4587,7 +4589,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-78759</v>
+        <v>-76400</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4604,7 +4606,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-80559</v>
+        <v>-78200</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4621,7 +4623,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-82359</v>
+        <v>-80000</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4638,7 +4640,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-85159</v>
+        <v>-82800</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4655,7 +4657,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-87959</v>
+        <v>-85600</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4672,7 +4674,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-90759</v>
+        <v>-88400</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4689,7 +4691,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-93559</v>
+        <v>-91200</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4706,7 +4708,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-96359</v>
+        <v>-94000</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4723,7 +4725,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-98159</v>
+        <v>-95800</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4740,7 +4742,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-99959</v>
+        <v>-97600</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4757,7 +4759,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-102759</v>
+        <v>-100400</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4774,7 +4776,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-105559</v>
+        <v>-103200</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4791,7 +4793,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-108359</v>
+        <v>-106000</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4808,7 +4810,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-111159</v>
+        <v>-108800</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4825,7 +4827,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-113959</v>
+        <v>-111600</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4842,7 +4844,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-115759</v>
+        <v>-113400</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4859,7 +4861,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-117559</v>
+        <v>-115200</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4876,7 +4878,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-120359</v>
+        <v>-118000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4893,7 +4895,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-123159</v>
+        <v>-120800</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4910,7 +4912,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-125959</v>
+        <v>-123600</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4927,7 +4929,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-128759</v>
+        <v>-126400</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4944,7 +4946,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-131559</v>
+        <v>-129200</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3380,14 +3380,16 @@
       <c r="B10" s="24">
         <v>2800</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="24">
+        <v>2700</v>
+      </c>
       <c r="D10" s="12">
         <f>B10-C10</f>
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="E10" s="12">
         <f>E9-D10</f>
-        <v>99600</v>
+        <v>102300</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3401,14 +3403,16 @@
       <c r="B11" s="24">
         <v>1800</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="24">
+        <v>1900</v>
+      </c>
       <c r="D11" s="12">
         <f>B11-C11</f>
-        <v>1800</v>
+        <v>-100</v>
       </c>
       <c r="E11" s="12">
         <f>E10-D11</f>
-        <v>97800</v>
+        <v>102400</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3422,14 +3426,16 @@
       <c r="B12" s="24">
         <v>1800</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="24">
+        <v>1900</v>
+      </c>
       <c r="D12" s="12">
         <f>B12-C12</f>
-        <v>1800</v>
+        <v>-100</v>
       </c>
       <c r="E12" s="12">
         <f>E11-D12</f>
-        <v>96000</v>
+        <v>102500</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3443,14 +3449,16 @@
       <c r="B13" s="24">
         <v>2800</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="24">
+        <v>2700</v>
+      </c>
       <c r="D13" s="12">
         <f>B13-C13</f>
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12">
         <f>E12-D13</f>
-        <v>93200</v>
+        <v>102400</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.000000" customHeight="1">
@@ -3460,14 +3468,16 @@
       <c r="B14" s="24">
         <v>2800</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="24">
+        <v>2800</v>
+      </c>
       <c r="D14" s="12">
         <f>B14-C14</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="12">
         <f>E13-D14</f>
-        <v>90400</v>
+        <v>102400</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.000000" customHeight="1">
@@ -3475,16 +3485,18 @@
         <v>43971</v>
       </c>
       <c r="B15" s="24">
-        <v>2800</v>
-      </c>
-      <c r="C15" s="24"/>
+        <v>1800</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1800</v>
+      </c>
       <c r="D15" s="12">
         <f>B15-C15</f>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>87600</v>
+        <v>102400</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3501,7 +3513,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>84800</v>
+        <v>99600</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3518,7 +3530,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>82000</v>
+        <v>96800</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3535,7 +3547,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>80200</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3552,7 +3564,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>78400</v>
+        <v>93200</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3569,7 +3581,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>75600</v>
+        <v>90400</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3586,7 +3598,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>72800</v>
+        <v>87600</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3603,7 +3615,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>70000</v>
+        <v>84800</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3620,7 +3632,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>67200</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3637,7 +3649,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>64400</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3654,7 +3666,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>62600</v>
+        <v>77400</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3671,7 +3683,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>60800</v>
+        <v>75600</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3688,7 +3700,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>58000</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3705,7 +3717,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>55200</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3722,7 +3734,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>52400</v>
+        <v>67200</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3739,7 +3751,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>49600</v>
+        <v>64400</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3756,7 +3768,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>46800</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3773,7 +3785,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>45000</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3790,7 +3802,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>43200</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3807,7 +3819,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>40400</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3824,7 +3836,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>37600</v>
+        <v>52400</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3841,7 +3853,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>34800</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3858,7 +3870,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>32000</v>
+        <v>46800</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3875,7 +3887,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>29200</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3892,7 +3904,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>27400</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3909,7 +3921,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>25600</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3926,7 +3938,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>22800</v>
+        <v>37600</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3943,7 +3955,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>20000</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3960,7 +3972,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>17200</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3977,7 +3989,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>14400</v>
+        <v>29200</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -3994,7 +4006,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>11600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -4011,7 +4023,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>9800</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -4028,7 +4040,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>8000</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4045,7 +4057,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>5200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4062,7 +4074,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>2400</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4079,7 +4091,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>-400</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4096,7 +4108,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>-3200</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4113,7 +4125,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>-6000</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4130,7 +4142,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>-7800</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4147,7 +4159,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>-9600</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4164,7 +4176,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>-12400</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4181,7 +4193,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-15200</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4198,7 +4210,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-18000</v>
+        <v>-3200</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4215,7 +4227,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-20800</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4232,7 +4244,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-23600</v>
+        <v>-8800</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4249,7 +4261,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-25400</v>
+        <v>-10600</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4266,7 +4278,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-27200</v>
+        <v>-12400</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4283,7 +4295,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-30000</v>
+        <v>-15200</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4300,7 +4312,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-32800</v>
+        <v>-18000</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4317,7 +4329,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-35600</v>
+        <v>-20800</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4334,7 +4346,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-38400</v>
+        <v>-23600</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4351,7 +4363,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-41200</v>
+        <v>-26400</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4368,7 +4380,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-43000</v>
+        <v>-28200</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4385,7 +4397,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-44800</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4402,7 +4414,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-47600</v>
+        <v>-32800</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4419,7 +4431,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-50400</v>
+        <v>-35600</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4436,7 +4448,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-53200</v>
+        <v>-38400</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4453,7 +4465,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-56000</v>
+        <v>-41200</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4470,7 +4482,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-58800</v>
+        <v>-44000</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4487,7 +4499,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-60600</v>
+        <v>-45800</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4504,7 +4516,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-62400</v>
+        <v>-47600</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4521,7 +4533,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-65200</v>
+        <v>-50400</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4538,7 +4550,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-68000</v>
+        <v>-53200</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4555,7 +4567,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-70800</v>
+        <v>-56000</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4572,7 +4584,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-73600</v>
+        <v>-58800</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4589,7 +4601,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-76400</v>
+        <v>-61600</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4606,7 +4618,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-78200</v>
+        <v>-63400</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4623,7 +4635,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-80000</v>
+        <v>-65200</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4640,7 +4652,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-82800</v>
+        <v>-68000</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4657,7 +4669,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-85600</v>
+        <v>-70800</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4674,7 +4686,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-88400</v>
+        <v>-73600</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4691,7 +4703,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-91200</v>
+        <v>-76400</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4708,7 +4720,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-94000</v>
+        <v>-79200</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4725,7 +4737,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-95800</v>
+        <v>-81000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4742,7 +4754,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-97600</v>
+        <v>-82800</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4759,7 +4771,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-100400</v>
+        <v>-85600</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4776,7 +4788,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-103200</v>
+        <v>-88400</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4793,7 +4805,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-106000</v>
+        <v>-91200</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4810,7 +4822,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-108800</v>
+        <v>-94000</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4827,7 +4839,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-111600</v>
+        <v>-96800</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4844,7 +4856,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-113400</v>
+        <v>-98600</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4861,7 +4873,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-115200</v>
+        <v>-100400</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4878,7 +4890,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-118000</v>
+        <v>-103200</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4895,7 +4907,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-120800</v>
+        <v>-106000</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4912,7 +4924,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-123600</v>
+        <v>-108800</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4929,7 +4941,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-126400</v>
+        <v>-111600</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4946,7 +4958,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-129200</v>
+        <v>-114400</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3488,15 +3488,15 @@
         <v>1800</v>
       </c>
       <c r="C15" s="24">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D15" s="12">
         <f>B15-C15</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E15" s="12">
         <f>E14-D15</f>
-        <v>102400</v>
+        <v>102600</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.000000" customHeight="1">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>99600</v>
+        <v>99800</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.000000" customHeight="1">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>96800</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.000000" customHeight="1">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>95000</v>
+        <v>95200</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.000000" customHeight="1">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>93200</v>
+        <v>93400</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.000000" customHeight="1">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>90400</v>
+        <v>90600</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.000000" customHeight="1">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>87600</v>
+        <v>87800</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.000000" customHeight="1">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>84800</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.000000" customHeight="1">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>82000</v>
+        <v>82200</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.000000" customHeight="1">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>79200</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.000000" customHeight="1">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>77400</v>
+        <v>77600</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.000000" customHeight="1">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>75600</v>
+        <v>75800</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.000000" customHeight="1">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>72800</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.000000" customHeight="1">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>70000</v>
+        <v>70200</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.000000" customHeight="1">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>67200</v>
+        <v>67400</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.000000" customHeight="1">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>64400</v>
+        <v>64600</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.000000" customHeight="1">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>61600</v>
+        <v>61800</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.000000" customHeight="1">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>59800</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.000000" customHeight="1">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>58000</v>
+        <v>58200</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.000000" customHeight="1">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>55200</v>
+        <v>55400</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.000000" customHeight="1">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>52400</v>
+        <v>52600</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.000000" customHeight="1">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>49600</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.000000" customHeight="1">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>46800</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.000000" customHeight="1">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>44000</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.000000" customHeight="1">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>42200</v>
+        <v>42400</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.000000" customHeight="1">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>40400</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.000000" customHeight="1">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>37600</v>
+        <v>37800</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.000000" customHeight="1">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>34800</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.000000" customHeight="1">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>32000</v>
+        <v>32200</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.000000" customHeight="1">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>29200</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.000000" customHeight="1">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>26400</v>
+        <v>26600</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.000000" customHeight="1">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>24600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.000000" customHeight="1">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>22800</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.000000" customHeight="1">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>20000</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.000000" customHeight="1">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>17200</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.000000" customHeight="1">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>14400</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.000000" customHeight="1">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>11600</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.000000" customHeight="1">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>8800</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.000000" customHeight="1">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>7000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.000000" customHeight="1">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.000000" customHeight="1">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>2400</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.000000" customHeight="1">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-400</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.000000" customHeight="1">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.000000" customHeight="1">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.000000" customHeight="1">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.000000" customHeight="1">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-10600</v>
+        <v>-10400</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.000000" customHeight="1">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20.000000" customHeight="1">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20.000000" customHeight="1">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20.000000" customHeight="1">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.000000" customHeight="1">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-23600</v>
+        <v>-23400</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20.000000" customHeight="1">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-26400</v>
+        <v>-26200</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.000000" customHeight="1">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.000000" customHeight="1">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-30000</v>
+        <v>-29800</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20.000000" customHeight="1">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-32800</v>
+        <v>-32600</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.000000" customHeight="1">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.000000" customHeight="1">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-38400</v>
+        <v>-38200</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.000000" customHeight="1">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-41200</v>
+        <v>-41000</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.000000" customHeight="1">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-44000</v>
+        <v>-43800</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.000000" customHeight="1">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-45800</v>
+        <v>-45600</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.000000" customHeight="1">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-47600</v>
+        <v>-47400</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.000000" customHeight="1">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-50400</v>
+        <v>-50200</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.000000" customHeight="1">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-53200</v>
+        <v>-53000</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20.000000" customHeight="1">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-56000</v>
+        <v>-55800</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20.000000" customHeight="1">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-58800</v>
+        <v>-58600</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20.000000" customHeight="1">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-61600</v>
+        <v>-61400</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.000000" customHeight="1">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-63400</v>
+        <v>-63200</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.000000" customHeight="1">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-65200</v>
+        <v>-65000</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.000000" customHeight="1">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-68000</v>
+        <v>-67800</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.000000" customHeight="1">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-70800</v>
+        <v>-70600</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.000000" customHeight="1">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-73600</v>
+        <v>-73400</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.000000" customHeight="1">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-76400</v>
+        <v>-76200</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.000000" customHeight="1">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-79200</v>
+        <v>-79000</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.000000" customHeight="1">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-81000</v>
+        <v>-80800</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.000000" customHeight="1">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-82800</v>
+        <v>-82600</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="20.000000" customHeight="1">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-85600</v>
+        <v>-85400</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.000000" customHeight="1">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-88400</v>
+        <v>-88200</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.000000" customHeight="1">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-91200</v>
+        <v>-91000</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="20.000000" customHeight="1">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-94000</v>
+        <v>-93800</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.000000" customHeight="1">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-96800</v>
+        <v>-96600</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="20.000000" customHeight="1">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-98600</v>
+        <v>-98400</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="20.000000" customHeight="1">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-100400</v>
+        <v>-100200</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.000000" customHeight="1">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-103200</v>
+        <v>-103000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.000000" customHeight="1">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-106000</v>
+        <v>-105800</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.000000" customHeight="1">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-108800</v>
+        <v>-108600</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.000000" customHeight="1">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-111600</v>
+        <v>-111400</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="20.000000" customHeight="1">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-114400</v>
+        <v>-114200</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>韭菜鸡蛋饼</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>五香豆腐丝</t>
+  </si>
+  <si>
+    <t>已减去热量(nKcal)</t>
   </si>
 </sst>
 </file>
@@ -3131,20 +3134,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
   <cols>
-    <col min="1" max="5" style="12" width="20.62355624" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="3" width="20.62355624" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="16384" style="2" width="20.62355624" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="6" style="12" width="20.62355624" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="3" width="20.62355624" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="16384" style="2" width="20.62355624" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
@@ -3160,8 +3163,11 @@
       <c r="E1" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="F1" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A2" s="23">
         <v>43958</v>
       </c>
@@ -3176,19 +3182,23 @@
         <v>1000</v>
       </c>
       <c r="E2" s="12">
-        <f>H4-D2</f>
+        <f>I4-D2</f>
         <v>106800</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="12">
+        <f>D2</f>
+        <v>1000</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="26">
+      <c r="I2" s="26">
         <v>7700</v>
       </c>
-      <c r="I2" s="19"/>
       <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A3" s="23">
         <v>43959</v>
       </c>
@@ -3206,16 +3216,20 @@
         <f>E2-D3</f>
         <v>106700</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="12">
+        <f>F2+D3</f>
+        <v>1100</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="24">
+      <c r="I3" s="24">
         <v>14</v>
       </c>
-      <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A4" s="23">
         <v>43960</v>
       </c>
@@ -3233,17 +3247,21 @@
         <f>E3-D4</f>
         <v>105800</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="12">
+        <f>F3+D4</f>
+        <v>2000</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="26">
-        <f>H2*H3</f>
+      <c r="I4" s="26">
+        <f>I2*I3</f>
         <v>107800</v>
       </c>
-      <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A5" s="23">
         <v>43961</v>
       </c>
@@ -3261,16 +3279,20 @@
         <f>E4-D5</f>
         <v>105900</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="12">
+        <f>F4+D5</f>
+        <v>1900</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="24">
+      <c r="I5" s="24">
         <v>100</v>
       </c>
-      <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A6" s="23">
         <v>43962</v>
       </c>
@@ -3288,17 +3310,21 @@
         <f>E5-D6</f>
         <v>104800</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="12">
+        <f>F5+D6</f>
+        <v>3000</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="26">
-        <f>H4/H5</f>
+      <c r="I6" s="26">
+        <f>I4/I5</f>
         <v>1078</v>
       </c>
-      <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A7" s="23">
         <v>43963</v>
       </c>
@@ -3316,17 +3342,21 @@
         <f>E6-D7</f>
         <v>104200</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="F7" s="12">
+        <f>F6+D7</f>
+        <v>3600</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="26">
-        <f>H6*7</f>
+      <c r="I7" s="26">
+        <f>I6*7</f>
         <v>7546</v>
       </c>
-      <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A8" s="23">
         <v>43964</v>
       </c>
@@ -3344,12 +3374,16 @@
         <f>E7-D8</f>
         <v>103300</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="F8" s="12">
+        <f>F7+D8</f>
+        <v>4500</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A9" s="23">
         <v>43965</v>
       </c>
@@ -3367,13 +3401,17 @@
         <f>E8-D9</f>
         <v>102400</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="12">
+        <f>F8+D9</f>
+        <v>5400</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A10" s="23">
         <v>43966</v>
       </c>
@@ -3391,12 +3429,16 @@
         <f>E9-D10</f>
         <v>102300</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="F10" s="12">
+        <f>F9+D10</f>
+        <v>5500</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A11" s="23">
         <v>43967</v>
       </c>
@@ -3414,12 +3456,16 @@
         <f>E10-D11</f>
         <v>102400</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="F11" s="12">
+        <f>F10+D11</f>
+        <v>5400</v>
+      </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A12" s="23">
         <v>43968</v>
       </c>
@@ -3437,12 +3483,16 @@
         <f>E11-D12</f>
         <v>102500</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="F12" s="12">
+        <f>F11+D12</f>
+        <v>5300</v>
+      </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A13" s="23">
         <v>43969</v>
       </c>
@@ -3460,8 +3510,12 @@
         <f>E12-D13</f>
         <v>102400</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="F13" s="12">
+        <f>F12+D13</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A14" s="23">
         <v>43970</v>
       </c>
@@ -3479,8 +3533,12 @@
         <f>E13-D14</f>
         <v>102400</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="F14" s="12">
+        <f>F13+D14</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A15" s="23">
         <v>43971</v>
       </c>
@@ -3498,25 +3556,35 @@
         <f>E14-D15</f>
         <v>102600</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="20.000000" customHeight="1">
+      <c r="F15" s="12">
+        <f>F14+D15</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.000000" customHeight="1">
       <c r="A16" s="23">
         <v>43972</v>
       </c>
       <c r="B16" s="24">
         <v>2800</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="24">
+        <v>2000</v>
+      </c>
       <c r="D16" s="12">
         <f>B16-C16</f>
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E16" s="12">
         <f>E15-D16</f>
-        <v>99800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.000000" customHeight="1">
+        <v>101800</v>
+      </c>
+      <c r="F16" s="12">
+        <f>F15+D16</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A17" s="23">
         <v>43973</v>
       </c>
@@ -3530,10 +3598,14 @@
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>97000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.000000" customHeight="1">
+        <v>99000</v>
+      </c>
+      <c r="F17" s="12">
+        <f>F16+D17</f>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A18" s="23">
         <v>43974</v>
       </c>
@@ -3547,10 +3619,14 @@
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>95200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.000000" customHeight="1">
+        <v>97200</v>
+      </c>
+      <c r="F18" s="12">
+        <f>F17+D18</f>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A19" s="23">
         <v>43975</v>
       </c>
@@ -3564,10 +3640,14 @@
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>93400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.000000" customHeight="1">
+        <v>95400</v>
+      </c>
+      <c r="F19" s="12">
+        <f>F18+D19</f>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A20" s="23">
         <v>43976</v>
       </c>
@@ -3581,10 +3661,14 @@
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>90600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.000000" customHeight="1">
+        <v>92600</v>
+      </c>
+      <c r="F20" s="12">
+        <f>F19+D20</f>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A21" s="23">
         <v>43977</v>
       </c>
@@ -3598,10 +3682,14 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>87800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.000000" customHeight="1">
+        <v>89800</v>
+      </c>
+      <c r="F21" s="12">
+        <f>F20+D21</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A22" s="23">
         <v>43978</v>
       </c>
@@ -3615,10 +3703,14 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.000000" customHeight="1">
+        <v>87000</v>
+      </c>
+      <c r="F22" s="12">
+        <f>F21+D22</f>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A23" s="23">
         <v>43979</v>
       </c>
@@ -3632,10 +3724,14 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>82200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.000000" customHeight="1">
+        <v>84200</v>
+      </c>
+      <c r="F23" s="12">
+        <f>F22+D23</f>
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A24" s="23">
         <v>43980</v>
       </c>
@@ -3649,10 +3745,14 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.000000" customHeight="1">
+        <v>81400</v>
+      </c>
+      <c r="F24" s="12">
+        <f>F23+D24</f>
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A25" s="23">
         <v>43981</v>
       </c>
@@ -3666,10 +3766,14 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>77600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.000000" customHeight="1">
+        <v>79600</v>
+      </c>
+      <c r="F25" s="12">
+        <f>F24+D25</f>
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A26" s="23">
         <v>43982</v>
       </c>
@@ -3683,10 +3787,14 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>75800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.000000" customHeight="1">
+        <v>77800</v>
+      </c>
+      <c r="F26" s="12">
+        <f>F25+D26</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A27" s="23">
         <v>43983</v>
       </c>
@@ -3700,10 +3808,14 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.000000" customHeight="1">
+        <v>75000</v>
+      </c>
+      <c r="F27" s="12">
+        <f>F26+D27</f>
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A28" s="23">
         <v>43984</v>
       </c>
@@ -3717,10 +3829,14 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>70200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.000000" customHeight="1">
+        <v>72200</v>
+      </c>
+      <c r="F28" s="12">
+        <f>F27+D28</f>
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A29" s="23">
         <v>43985</v>
       </c>
@@ -3734,10 +3850,14 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>67400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.000000" customHeight="1">
+        <v>69400</v>
+      </c>
+      <c r="F29" s="12">
+        <f>F28+D29</f>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A30" s="23">
         <v>43986</v>
       </c>
@@ -3751,10 +3871,14 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>64600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.000000" customHeight="1">
+        <v>66600</v>
+      </c>
+      <c r="F30" s="12">
+        <f>F29+D30</f>
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A31" s="23">
         <v>43987</v>
       </c>
@@ -3768,10 +3892,14 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.000000" customHeight="1">
+        <v>63800</v>
+      </c>
+      <c r="F31" s="12">
+        <f>F30+D31</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A32" s="23">
         <v>43988</v>
       </c>
@@ -3785,10 +3913,14 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.000000" customHeight="1">
+        <v>62000</v>
+      </c>
+      <c r="F32" s="12">
+        <f>F31+D32</f>
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A33" s="23">
         <v>43989</v>
       </c>
@@ -3802,10 +3934,14 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>58200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20.000000" customHeight="1">
+        <v>60200</v>
+      </c>
+      <c r="F33" s="12">
+        <f>F32+D33</f>
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A34" s="23">
         <v>43990</v>
       </c>
@@ -3819,10 +3955,14 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>55400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.000000" customHeight="1">
+        <v>57400</v>
+      </c>
+      <c r="F34" s="12">
+        <f>F33+D34</f>
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A35" s="23">
         <v>43991</v>
       </c>
@@ -3836,10 +3976,14 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>52600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="20.000000" customHeight="1">
+        <v>54600</v>
+      </c>
+      <c r="F35" s="12">
+        <f>F34+D35</f>
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A36" s="23">
         <v>43992</v>
       </c>
@@ -3853,10 +3997,14 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>49800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="20.000000" customHeight="1">
+        <v>51800</v>
+      </c>
+      <c r="F36" s="12">
+        <f>F35+D36</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A37" s="23">
         <v>43993</v>
       </c>
@@ -3870,10 +4018,14 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.000000" customHeight="1">
+        <v>49000</v>
+      </c>
+      <c r="F37" s="12">
+        <f>F36+D37</f>
+        <v>58800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A38" s="23">
         <v>43994</v>
       </c>
@@ -3887,10 +4039,14 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>44200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.000000" customHeight="1">
+        <v>46200</v>
+      </c>
+      <c r="F38" s="12">
+        <f>F37+D38</f>
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A39" s="23">
         <v>43995</v>
       </c>
@@ -3904,10 +4060,14 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>42400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="20.000000" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="F39" s="12">
+        <f>F38+D39</f>
+        <v>63400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A40" s="23">
         <v>43996</v>
       </c>
@@ -3921,10 +4081,14 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>40600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.000000" customHeight="1">
+        <v>42600</v>
+      </c>
+      <c r="F40" s="12">
+        <f>F39+D40</f>
+        <v>65200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A41" s="23">
         <v>43997</v>
       </c>
@@ -3938,10 +4102,14 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>37800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.000000" customHeight="1">
+        <v>39800</v>
+      </c>
+      <c r="F41" s="12">
+        <f>F40+D41</f>
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A42" s="23">
         <v>43998</v>
       </c>
@@ -3955,10 +4123,14 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20.000000" customHeight="1">
+        <v>37000</v>
+      </c>
+      <c r="F42" s="12">
+        <f>F41+D42</f>
+        <v>70800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A43" s="23">
         <v>43999</v>
       </c>
@@ -3972,10 +4144,14 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20.000000" customHeight="1">
+        <v>34200</v>
+      </c>
+      <c r="F43" s="12">
+        <f>F42+D43</f>
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A44" s="23">
         <v>44000</v>
       </c>
@@ -3989,10 +4165,14 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>29400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.000000" customHeight="1">
+        <v>31400</v>
+      </c>
+      <c r="F44" s="12">
+        <f>F43+D44</f>
+        <v>76400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A45" s="23">
         <v>44001</v>
       </c>
@@ -4006,10 +4186,14 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>26600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="20.000000" customHeight="1">
+        <v>28600</v>
+      </c>
+      <c r="F45" s="12">
+        <f>F44+D45</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A46" s="23">
         <v>44002</v>
       </c>
@@ -4023,10 +4207,14 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>24800</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.000000" customHeight="1">
+        <v>26800</v>
+      </c>
+      <c r="F46" s="12">
+        <f>F45+D46</f>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A47" s="23">
         <v>44003</v>
       </c>
@@ -4040,10 +4228,14 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20.000000" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="F47" s="12">
+        <f>F46+D47</f>
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A48" s="23">
         <v>44004</v>
       </c>
@@ -4057,10 +4249,14 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>20200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="20.000000" customHeight="1">
+        <v>22200</v>
+      </c>
+      <c r="F48" s="12">
+        <f>F47+D48</f>
+        <v>85600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A49" s="23">
         <v>44005</v>
       </c>
@@ -4074,10 +4270,14 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.000000" customHeight="1">
+        <v>19400</v>
+      </c>
+      <c r="F49" s="12">
+        <f>F48+D49</f>
+        <v>88400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A50" s="23">
         <v>44006</v>
       </c>
@@ -4091,10 +4291,14 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>14600</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="20.000000" customHeight="1">
+        <v>16600</v>
+      </c>
+      <c r="F50" s="12">
+        <f>F49+D50</f>
+        <v>91200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A51" s="23">
         <v>44007</v>
       </c>
@@ -4108,10 +4312,14 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>11800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="20.000000" customHeight="1">
+        <v>13800</v>
+      </c>
+      <c r="F51" s="12">
+        <f>F50+D51</f>
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A52" s="23">
         <v>44008</v>
       </c>
@@ -4125,10 +4333,14 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="20.000000" customHeight="1">
+        <v>11000</v>
+      </c>
+      <c r="F52" s="12">
+        <f>F51+D52</f>
+        <v>96800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A53" s="23">
         <v>44009</v>
       </c>
@@ -4142,10 +4354,14 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="20.000000" customHeight="1">
+        <v>9200</v>
+      </c>
+      <c r="F53" s="12">
+        <f>F52+D53</f>
+        <v>98600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A54" s="23">
         <v>44010</v>
       </c>
@@ -4159,10 +4375,14 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.000000" customHeight="1">
+        <v>7400</v>
+      </c>
+      <c r="F54" s="12">
+        <f>F53+D54</f>
+        <v>100400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A55" s="23">
         <v>44011</v>
       </c>
@@ -4176,10 +4396,14 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="20.000000" customHeight="1">
+        <v>4600</v>
+      </c>
+      <c r="F55" s="12">
+        <f>F54+D55</f>
+        <v>103200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A56" s="23">
         <v>44012</v>
       </c>
@@ -4193,10 +4417,14 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="20.000000" customHeight="1">
+        <v>1800</v>
+      </c>
+      <c r="F56" s="12">
+        <f>F55+D56</f>
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A57" s="23">
         <v>44013</v>
       </c>
@@ -4210,10 +4438,14 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-1000</v>
+      </c>
+      <c r="F57" s="12">
+        <f>F56+D57</f>
+        <v>108800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A58" s="23">
         <v>44014</v>
       </c>
@@ -4227,10 +4459,14 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-5800</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-3800</v>
+      </c>
+      <c r="F58" s="12">
+        <f>F57+D58</f>
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A59" s="23">
         <v>44015</v>
       </c>
@@ -4244,10 +4480,14 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-8600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-6600</v>
+      </c>
+      <c r="F59" s="12">
+        <f>F58+D59</f>
+        <v>114400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A60" s="23">
         <v>44016</v>
       </c>
@@ -4261,10 +4501,14 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-10400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-8400</v>
+      </c>
+      <c r="F60" s="12">
+        <f>F59+D60</f>
+        <v>116200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A61" s="23">
         <v>44017</v>
       </c>
@@ -4278,10 +4522,14 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-12200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-10200</v>
+      </c>
+      <c r="F61" s="12">
+        <f>F60+D61</f>
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A62" s="23">
         <v>44018</v>
       </c>
@@ -4295,10 +4543,14 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-15000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-13000</v>
+      </c>
+      <c r="F62" s="12">
+        <f>F61+D62</f>
+        <v>120800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A63" s="23">
         <v>44019</v>
       </c>
@@ -4312,10 +4564,14 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-17800</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-15800</v>
+      </c>
+      <c r="F63" s="12">
+        <f>F62+D63</f>
+        <v>123600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A64" s="23">
         <v>44020</v>
       </c>
@@ -4329,10 +4585,14 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-20600</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-18600</v>
+      </c>
+      <c r="F64" s="12">
+        <f>F63+D64</f>
+        <v>126400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A65" s="23">
         <v>44021</v>
       </c>
@@ -4346,10 +4606,14 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-23400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-21400</v>
+      </c>
+      <c r="F65" s="12">
+        <f>F64+D65</f>
+        <v>129200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A66" s="23">
         <v>44022</v>
       </c>
@@ -4363,10 +4627,14 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-26200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-24200</v>
+      </c>
+      <c r="F66" s="12">
+        <f>F65+D66</f>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A67" s="23">
         <v>44023</v>
       </c>
@@ -4380,10 +4648,14 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-28000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-26000</v>
+      </c>
+      <c r="F67" s="12">
+        <f>F66+D67</f>
+        <v>133800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A68" s="23">
         <v>44024</v>
       </c>
@@ -4397,10 +4669,14 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-29800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-27800</v>
+      </c>
+      <c r="F68" s="12">
+        <f>F67+D68</f>
+        <v>135600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A69" s="23">
         <v>44025</v>
       </c>
@@ -4414,10 +4690,14 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-32600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-30600</v>
+      </c>
+      <c r="F69" s="12">
+        <f>F68+D69</f>
+        <v>138400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A70" s="23">
         <v>44026</v>
       </c>
@@ -4431,10 +4711,14 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-35400</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-33400</v>
+      </c>
+      <c r="F70" s="12">
+        <f>F69+D70</f>
+        <v>141200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A71" s="23">
         <v>44027</v>
       </c>
@@ -4448,10 +4732,14 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-38200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-36200</v>
+      </c>
+      <c r="F71" s="12">
+        <f>F70+D71</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A72" s="23">
         <v>44028</v>
       </c>
@@ -4465,10 +4753,14 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-41000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-39000</v>
+      </c>
+      <c r="F72" s="12">
+        <f>F71+D72</f>
+        <v>146800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A73" s="23">
         <v>44029</v>
       </c>
@@ -4482,10 +4774,14 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-43800</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-41800</v>
+      </c>
+      <c r="F73" s="12">
+        <f>F72+D73</f>
+        <v>149600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A74" s="23">
         <v>44030</v>
       </c>
@@ -4499,10 +4795,14 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-45600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-43600</v>
+      </c>
+      <c r="F74" s="12">
+        <f>F73+D74</f>
+        <v>151400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A75" s="23">
         <v>44031</v>
       </c>
@@ -4516,10 +4816,14 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-47400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-45400</v>
+      </c>
+      <c r="F75" s="12">
+        <f>F74+D75</f>
+        <v>153200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A76" s="23">
         <v>44032</v>
       </c>
@@ -4533,10 +4837,14 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-50200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-48200</v>
+      </c>
+      <c r="F76" s="12">
+        <f>F75+D76</f>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A77" s="23">
         <v>44033</v>
       </c>
@@ -4550,10 +4858,14 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-53000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-51000</v>
+      </c>
+      <c r="F77" s="12">
+        <f>F76+D77</f>
+        <v>158800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A78" s="23">
         <v>44034</v>
       </c>
@@ -4567,10 +4879,14 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-55800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-53800</v>
+      </c>
+      <c r="F78" s="12">
+        <f>F77+D78</f>
+        <v>161600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A79" s="23">
         <v>44035</v>
       </c>
@@ -4584,10 +4900,14 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-58600</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-56600</v>
+      </c>
+      <c r="F79" s="12">
+        <f>F78+D79</f>
+        <v>164400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A80" s="23">
         <v>44036</v>
       </c>
@@ -4601,10 +4921,14 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-61400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-59400</v>
+      </c>
+      <c r="F80" s="12">
+        <f>F79+D80</f>
+        <v>167200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A81" s="23">
         <v>44037</v>
       </c>
@@ -4618,10 +4942,14 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-63200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-61200</v>
+      </c>
+      <c r="F81" s="12">
+        <f>F80+D81</f>
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A82" s="23">
         <v>44038</v>
       </c>
@@ -4635,10 +4963,14 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-65000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-63000</v>
+      </c>
+      <c r="F82" s="12">
+        <f>F81+D82</f>
+        <v>170800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A83" s="23">
         <v>44039</v>
       </c>
@@ -4652,10 +4984,14 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-67800</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-65800</v>
+      </c>
+      <c r="F83" s="12">
+        <f>F82+D83</f>
+        <v>173600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A84" s="23">
         <v>44040</v>
       </c>
@@ -4669,10 +5005,14 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-70600</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-68600</v>
+      </c>
+      <c r="F84" s="12">
+        <f>F83+D84</f>
+        <v>176400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A85" s="23">
         <v>44041</v>
       </c>
@@ -4686,10 +5026,14 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-73400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-71400</v>
+      </c>
+      <c r="F85" s="12">
+        <f>F84+D85</f>
+        <v>179200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A86" s="23">
         <v>44042</v>
       </c>
@@ -4703,10 +5047,14 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-76200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-74200</v>
+      </c>
+      <c r="F86" s="12">
+        <f>F85+D86</f>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A87" s="23">
         <v>44043</v>
       </c>
@@ -4720,10 +5068,14 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-79000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-77000</v>
+      </c>
+      <c r="F87" s="12">
+        <f>F86+D87</f>
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A88" s="23">
         <v>44044</v>
       </c>
@@ -4737,10 +5089,14 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-80800</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-78800</v>
+      </c>
+      <c r="F88" s="12">
+        <f>F87+D88</f>
+        <v>186600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A89" s="23">
         <v>44045</v>
       </c>
@@ -4754,10 +5110,14 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-82600</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-80600</v>
+      </c>
+      <c r="F89" s="12">
+        <f>F88+D89</f>
+        <v>188400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A90" s="23">
         <v>44046</v>
       </c>
@@ -4771,10 +5131,14 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-85400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-83400</v>
+      </c>
+      <c r="F90" s="12">
+        <f>F89+D90</f>
+        <v>191200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A91" s="23">
         <v>44047</v>
       </c>
@@ -4788,10 +5152,14 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-88200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-86200</v>
+      </c>
+      <c r="F91" s="12">
+        <f>F90+D91</f>
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A92" s="23">
         <v>44048</v>
       </c>
@@ -4805,10 +5173,14 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-91000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-89000</v>
+      </c>
+      <c r="F92" s="12">
+        <f>F91+D92</f>
+        <v>196800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A93" s="23">
         <v>44049</v>
       </c>
@@ -4822,10 +5194,14 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-93800</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-91800</v>
+      </c>
+      <c r="F93" s="12">
+        <f>F92+D93</f>
+        <v>199600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A94" s="23">
         <v>44050</v>
       </c>
@@ -4839,10 +5215,14 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-96600</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-94600</v>
+      </c>
+      <c r="F94" s="12">
+        <f>F93+D94</f>
+        <v>202400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A95" s="23">
         <v>44051</v>
       </c>
@@ -4856,10 +5236,14 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-98400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-96400</v>
+      </c>
+      <c r="F95" s="12">
+        <f>F94+D95</f>
+        <v>204200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A96" s="23">
         <v>44052</v>
       </c>
@@ -4873,10 +5257,14 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-100200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-98200</v>
+      </c>
+      <c r="F96" s="12">
+        <f>F95+D96</f>
+        <v>206000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A97" s="23">
         <v>44053</v>
       </c>
@@ -4890,10 +5278,14 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-103000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-101000</v>
+      </c>
+      <c r="F97" s="12">
+        <f>F96+D97</f>
+        <v>208800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A98" s="23">
         <v>44054</v>
       </c>
@@ -4907,10 +5299,14 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-105800</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-103800</v>
+      </c>
+      <c r="F98" s="12">
+        <f>F97+D98</f>
+        <v>211600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A99" s="23">
         <v>44055</v>
       </c>
@@ -4924,10 +5320,14 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-108600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-106600</v>
+      </c>
+      <c r="F99" s="12">
+        <f>F98+D99</f>
+        <v>214400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A100" s="23">
         <v>44056</v>
       </c>
@@ -4941,10 +5341,14 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-111400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="20.000000" customHeight="1">
+        <v>-109400</v>
+      </c>
+      <c r="F100" s="12">
+        <f>F99+D100</f>
+        <v>217200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="20.000000" customHeight="1">
       <c r="A101" s="23">
         <v>44057</v>
       </c>
@@ -4958,7 +5362,329 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-114200</v>
+        <v>-112200</v>
+      </c>
+      <c r="F101" s="12">
+        <f>F100+D101</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="F102" s="12">
+        <f>F101+D102</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="F103" s="12">
+        <f>F102+D103</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="F104" s="12">
+        <f>F103+D104</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="F105" s="12">
+        <f>F104+D105</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="F106" s="12">
+        <f>F105+D106</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="F107" s="12">
+        <f>F106+D107</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="F108" s="12">
+        <f>F107+D108</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="F109" s="12">
+        <f>F108+D109</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="F110" s="12">
+        <f>F109+D110</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="F111" s="12">
+        <f>F110+D111</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="F112" s="12">
+        <f>F111+D112</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="12">
+        <f>F112+D113</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="12">
+        <f>F113+D114</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="12">
+        <f>F114+D115</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" s="12">
+        <f>F115+D116</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="12">
+        <f>F116+D117</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="12">
+        <f>F117+D118</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" s="12">
+        <f>F118+D119</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" s="12">
+        <f>F119+D120</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" s="12">
+        <f>F120+D121</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122" s="12">
+        <f>F121+D122</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123" s="12">
+        <f>F122+D123</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" s="12">
+        <f>F123+D124</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" s="12">
+        <f>F124+D125</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6">
+      <c r="F126" s="12">
+        <f>F125+D126</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6">
+      <c r="F127" s="12">
+        <f>F126+D127</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" s="12">
+        <f>F127+D128</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="12">
+        <f>F128+D129</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" s="12">
+        <f>F129+D130</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="12">
+        <f>F130+D131</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="12">
+        <f>F131+D132</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="12">
+        <f>F132+D133</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6">
+      <c r="F134" s="12">
+        <f>F133+D134</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" s="12">
+        <f>F134+D135</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" s="12">
+        <f>F135+D136</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" s="12">
+        <f>F136+D137</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" s="12">
+        <f>F137+D138</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6">
+      <c r="F139" s="12">
+        <f>F138+D139</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6">
+      <c r="F140" s="12">
+        <f>F139+D140</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6">
+      <c r="F141" s="12">
+        <f>F140+D141</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6">
+      <c r="F142" s="12">
+        <f>F141+D142</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6">
+      <c r="F143" s="12">
+        <f>F142+D143</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6">
+      <c r="F144" s="12">
+        <f>F143+D144</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6">
+      <c r="F145" s="12">
+        <f>F144+D145</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" s="12">
+        <f>F145+D146</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6">
+      <c r="F147" s="12">
+        <f>F146+D147</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6">
+      <c r="F148" s="12">
+        <f>F147+D148</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="12">
+        <f>F148+D149</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6">
+      <c r="F150" s="12">
+        <f>F149+D150</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6">
+      <c r="F151" s="12">
+        <f>F150+D151</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6">
+      <c r="F152" s="12">
+        <f>F151+D152</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" s="12">
+        <f>F152+D153</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" s="12">
+        <f>F153+D154</f>
+        <v>220000</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3136,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3591,18 +3591,20 @@
       <c r="B17" s="24">
         <v>2800</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="24">
+        <v>2200</v>
+      </c>
       <c r="D17" s="12">
         <f>B17-C17</f>
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="E17" s="12">
         <f>E16-D17</f>
-        <v>99000</v>
+        <v>101200</v>
       </c>
       <c r="F17" s="12">
         <f>F16+D17</f>
-        <v>8800</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.000000" customHeight="1">
@@ -3612,18 +3614,20 @@
       <c r="B18" s="24">
         <v>1800</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="24">
+        <v>2200</v>
+      </c>
       <c r="D18" s="12">
         <f>B18-C18</f>
-        <v>1800</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="12">
         <f>E17-D18</f>
-        <v>97200</v>
+        <v>101600</v>
       </c>
       <c r="F18" s="12">
         <f>F17+D18</f>
-        <v>10600</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.000000" customHeight="1">
@@ -3631,20 +3635,22 @@
         <v>43975</v>
       </c>
       <c r="B19" s="24">
-        <v>1800</v>
-      </c>
-      <c r="C19" s="24"/>
+        <v>2400</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2500</v>
+      </c>
       <c r="D19" s="12">
         <f>B19-C19</f>
-        <v>1800</v>
+        <v>-100</v>
       </c>
       <c r="E19" s="12">
         <f>E18-D19</f>
-        <v>95400</v>
+        <v>101700</v>
       </c>
       <c r="F19" s="12">
         <f>F18+D19</f>
-        <v>12400</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.000000" customHeight="1">
@@ -3654,18 +3660,20 @@
       <c r="B20" s="24">
         <v>2800</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="24">
+        <v>2000</v>
+      </c>
       <c r="D20" s="12">
         <f>B20-C20</f>
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>92600</v>
+        <v>100900</v>
       </c>
       <c r="F20" s="12">
         <f>F19+D20</f>
-        <v>15200</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.000000" customHeight="1">
@@ -3682,11 +3690,11 @@
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>89800</v>
+        <v>98100</v>
       </c>
       <c r="F21" s="12">
         <f>F20+D21</f>
-        <v>18000</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.000000" customHeight="1">
@@ -3703,11 +3711,11 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>87000</v>
+        <v>95300</v>
       </c>
       <c r="F22" s="12">
         <f>F21+D22</f>
-        <v>20800</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.000000" customHeight="1">
@@ -3724,11 +3732,11 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>84200</v>
+        <v>92500</v>
       </c>
       <c r="F23" s="12">
         <f>F22+D23</f>
-        <v>23600</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.000000" customHeight="1">
@@ -3745,11 +3753,11 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>81400</v>
+        <v>89700</v>
       </c>
       <c r="F24" s="12">
         <f>F23+D24</f>
-        <v>26400</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.000000" customHeight="1">
@@ -3766,11 +3774,11 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>79600</v>
+        <v>87900</v>
       </c>
       <c r="F25" s="12">
         <f>F24+D25</f>
-        <v>28200</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.000000" customHeight="1">
@@ -3787,11 +3795,11 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>77800</v>
+        <v>86100</v>
       </c>
       <c r="F26" s="12">
         <f>F25+D26</f>
-        <v>30000</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.000000" customHeight="1">
@@ -3808,11 +3816,11 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>75000</v>
+        <v>83300</v>
       </c>
       <c r="F27" s="12">
         <f>F26+D27</f>
-        <v>32800</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.000000" customHeight="1">
@@ -3829,11 +3837,11 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>72200</v>
+        <v>80500</v>
       </c>
       <c r="F28" s="12">
         <f>F27+D28</f>
-        <v>35600</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.000000" customHeight="1">
@@ -3850,11 +3858,11 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>69400</v>
+        <v>77700</v>
       </c>
       <c r="F29" s="12">
         <f>F28+D29</f>
-        <v>38400</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.000000" customHeight="1">
@@ -3871,11 +3879,11 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>66600</v>
+        <v>74900</v>
       </c>
       <c r="F30" s="12">
         <f>F29+D30</f>
-        <v>41200</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.000000" customHeight="1">
@@ -3892,11 +3900,11 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>63800</v>
+        <v>72100</v>
       </c>
       <c r="F31" s="12">
         <f>F30+D31</f>
-        <v>44000</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.000000" customHeight="1">
@@ -3913,11 +3921,11 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>62000</v>
+        <v>70300</v>
       </c>
       <c r="F32" s="12">
         <f>F31+D32</f>
-        <v>45800</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.000000" customHeight="1">
@@ -3934,11 +3942,11 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>60200</v>
+        <v>68500</v>
       </c>
       <c r="F33" s="12">
         <f>F32+D33</f>
-        <v>47600</v>
+        <v>39300</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.000000" customHeight="1">
@@ -3955,11 +3963,11 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>57400</v>
+        <v>65700</v>
       </c>
       <c r="F34" s="12">
         <f>F33+D34</f>
-        <v>50400</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.000000" customHeight="1">
@@ -3976,11 +3984,11 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>54600</v>
+        <v>62900</v>
       </c>
       <c r="F35" s="12">
         <f>F34+D35</f>
-        <v>53200</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.000000" customHeight="1">
@@ -3997,11 +4005,11 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>51800</v>
+        <v>60100</v>
       </c>
       <c r="F36" s="12">
         <f>F35+D36</f>
-        <v>56000</v>
+        <v>47700</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.000000" customHeight="1">
@@ -4018,11 +4026,11 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>49000</v>
+        <v>57300</v>
       </c>
       <c r="F37" s="12">
         <f>F36+D37</f>
-        <v>58800</v>
+        <v>50500</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.000000" customHeight="1">
@@ -4039,11 +4047,11 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>46200</v>
+        <v>54500</v>
       </c>
       <c r="F38" s="12">
         <f>F37+D38</f>
-        <v>61600</v>
+        <v>53300</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.000000" customHeight="1">
@@ -4060,11 +4068,11 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>44400</v>
+        <v>52700</v>
       </c>
       <c r="F39" s="12">
         <f>F38+D39</f>
-        <v>63400</v>
+        <v>55100</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.000000" customHeight="1">
@@ -4081,11 +4089,11 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>42600</v>
+        <v>50900</v>
       </c>
       <c r="F40" s="12">
         <f>F39+D40</f>
-        <v>65200</v>
+        <v>56900</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.000000" customHeight="1">
@@ -4102,11 +4110,11 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>39800</v>
+        <v>48100</v>
       </c>
       <c r="F41" s="12">
         <f>F40+D41</f>
-        <v>68000</v>
+        <v>59700</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.000000" customHeight="1">
@@ -4123,11 +4131,11 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>37000</v>
+        <v>45300</v>
       </c>
       <c r="F42" s="12">
         <f>F41+D42</f>
-        <v>70800</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.000000" customHeight="1">
@@ -4144,11 +4152,11 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>34200</v>
+        <v>42500</v>
       </c>
       <c r="F43" s="12">
         <f>F42+D43</f>
-        <v>73600</v>
+        <v>65300</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.000000" customHeight="1">
@@ -4165,11 +4173,11 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>31400</v>
+        <v>39700</v>
       </c>
       <c r="F44" s="12">
         <f>F43+D44</f>
-        <v>76400</v>
+        <v>68100</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.000000" customHeight="1">
@@ -4186,11 +4194,11 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>28600</v>
+        <v>36900</v>
       </c>
       <c r="F45" s="12">
         <f>F44+D45</f>
-        <v>79200</v>
+        <v>70900</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.000000" customHeight="1">
@@ -4207,11 +4215,11 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>26800</v>
+        <v>35100</v>
       </c>
       <c r="F46" s="12">
         <f>F45+D46</f>
-        <v>81000</v>
+        <v>72700</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.000000" customHeight="1">
@@ -4228,11 +4236,11 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>25000</v>
+        <v>33300</v>
       </c>
       <c r="F47" s="12">
         <f>F46+D47</f>
-        <v>82800</v>
+        <v>74500</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.000000" customHeight="1">
@@ -4249,11 +4257,11 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>22200</v>
+        <v>30500</v>
       </c>
       <c r="F48" s="12">
         <f>F47+D48</f>
-        <v>85600</v>
+        <v>77300</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.000000" customHeight="1">
@@ -4270,11 +4278,11 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>19400</v>
+        <v>27700</v>
       </c>
       <c r="F49" s="12">
         <f>F48+D49</f>
-        <v>88400</v>
+        <v>80100</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.000000" customHeight="1">
@@ -4291,11 +4299,11 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>16600</v>
+        <v>24900</v>
       </c>
       <c r="F50" s="12">
         <f>F49+D50</f>
-        <v>91200</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.000000" customHeight="1">
@@ -4312,11 +4320,11 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>13800</v>
+        <v>22100</v>
       </c>
       <c r="F51" s="12">
         <f>F50+D51</f>
-        <v>94000</v>
+        <v>85700</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.000000" customHeight="1">
@@ -4333,11 +4341,11 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>11000</v>
+        <v>19300</v>
       </c>
       <c r="F52" s="12">
         <f>F51+D52</f>
-        <v>96800</v>
+        <v>88500</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.000000" customHeight="1">
@@ -4354,11 +4362,11 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>9200</v>
+        <v>17500</v>
       </c>
       <c r="F53" s="12">
         <f>F52+D53</f>
-        <v>98600</v>
+        <v>90300</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.000000" customHeight="1">
@@ -4375,11 +4383,11 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>7400</v>
+        <v>15700</v>
       </c>
       <c r="F54" s="12">
         <f>F53+D54</f>
-        <v>100400</v>
+        <v>92100</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.000000" customHeight="1">
@@ -4396,11 +4404,11 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>4600</v>
+        <v>12900</v>
       </c>
       <c r="F55" s="12">
         <f>F54+D55</f>
-        <v>103200</v>
+        <v>94900</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.000000" customHeight="1">
@@ -4417,11 +4425,11 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>1800</v>
+        <v>10100</v>
       </c>
       <c r="F56" s="12">
         <f>F55+D56</f>
-        <v>106000</v>
+        <v>97700</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.000000" customHeight="1">
@@ -4438,11 +4446,11 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>-1000</v>
+        <v>7300</v>
       </c>
       <c r="F57" s="12">
         <f>F56+D57</f>
-        <v>108800</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.000000" customHeight="1">
@@ -4459,11 +4467,11 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>-3800</v>
+        <v>4500</v>
       </c>
       <c r="F58" s="12">
         <f>F57+D58</f>
-        <v>111600</v>
+        <v>103300</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.000000" customHeight="1">
@@ -4480,11 +4488,11 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>-6600</v>
+        <v>1700</v>
       </c>
       <c r="F59" s="12">
         <f>F58+D59</f>
-        <v>114400</v>
+        <v>106100</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.000000" customHeight="1">
@@ -4501,11 +4509,11 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-8400</v>
+        <v>-100</v>
       </c>
       <c r="F60" s="12">
         <f>F59+D60</f>
-        <v>116200</v>
+        <v>107900</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.000000" customHeight="1">
@@ -4522,11 +4530,11 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-10200</v>
+        <v>-1900</v>
       </c>
       <c r="F61" s="12">
         <f>F60+D61</f>
-        <v>118000</v>
+        <v>109700</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.000000" customHeight="1">
@@ -4543,11 +4551,11 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-13000</v>
+        <v>-4700</v>
       </c>
       <c r="F62" s="12">
         <f>F61+D62</f>
-        <v>120800</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.000000" customHeight="1">
@@ -4564,11 +4572,11 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-15800</v>
+        <v>-7500</v>
       </c>
       <c r="F63" s="12">
         <f>F62+D63</f>
-        <v>123600</v>
+        <v>115300</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.000000" customHeight="1">
@@ -4585,11 +4593,11 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-18600</v>
+        <v>-10300</v>
       </c>
       <c r="F64" s="12">
         <f>F63+D64</f>
-        <v>126400</v>
+        <v>118100</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.000000" customHeight="1">
@@ -4606,11 +4614,11 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-21400</v>
+        <v>-13100</v>
       </c>
       <c r="F65" s="12">
         <f>F64+D65</f>
-        <v>129200</v>
+        <v>120900</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.000000" customHeight="1">
@@ -4627,11 +4635,11 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-24200</v>
+        <v>-15900</v>
       </c>
       <c r="F66" s="12">
         <f>F65+D66</f>
-        <v>132000</v>
+        <v>123700</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.000000" customHeight="1">
@@ -4648,11 +4656,11 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-26000</v>
+        <v>-17700</v>
       </c>
       <c r="F67" s="12">
         <f>F66+D67</f>
-        <v>133800</v>
+        <v>125500</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.000000" customHeight="1">
@@ -4669,11 +4677,11 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-27800</v>
+        <v>-19500</v>
       </c>
       <c r="F68" s="12">
         <f>F67+D68</f>
-        <v>135600</v>
+        <v>127300</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.000000" customHeight="1">
@@ -4690,11 +4698,11 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-30600</v>
+        <v>-22300</v>
       </c>
       <c r="F69" s="12">
         <f>F68+D69</f>
-        <v>138400</v>
+        <v>130100</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.000000" customHeight="1">
@@ -4711,11 +4719,11 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-33400</v>
+        <v>-25100</v>
       </c>
       <c r="F70" s="12">
         <f>F69+D70</f>
-        <v>141200</v>
+        <v>132900</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.000000" customHeight="1">
@@ -4732,11 +4740,11 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-36200</v>
+        <v>-27900</v>
       </c>
       <c r="F71" s="12">
         <f>F70+D71</f>
-        <v>144000</v>
+        <v>135700</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.000000" customHeight="1">
@@ -4753,11 +4761,11 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-39000</v>
+        <v>-30700</v>
       </c>
       <c r="F72" s="12">
         <f>F71+D72</f>
-        <v>146800</v>
+        <v>138500</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.000000" customHeight="1">
@@ -4774,11 +4782,11 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-41800</v>
+        <v>-33500</v>
       </c>
       <c r="F73" s="12">
         <f>F72+D73</f>
-        <v>149600</v>
+        <v>141300</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.000000" customHeight="1">
@@ -4795,11 +4803,11 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-43600</v>
+        <v>-35300</v>
       </c>
       <c r="F74" s="12">
         <f>F73+D74</f>
-        <v>151400</v>
+        <v>143100</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.000000" customHeight="1">
@@ -4816,11 +4824,11 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-45400</v>
+        <v>-37100</v>
       </c>
       <c r="F75" s="12">
         <f>F74+D75</f>
-        <v>153200</v>
+        <v>144900</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.000000" customHeight="1">
@@ -4837,11 +4845,11 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-48200</v>
+        <v>-39900</v>
       </c>
       <c r="F76" s="12">
         <f>F75+D76</f>
-        <v>156000</v>
+        <v>147700</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.000000" customHeight="1">
@@ -4858,11 +4866,11 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-51000</v>
+        <v>-42700</v>
       </c>
       <c r="F77" s="12">
         <f>F76+D77</f>
-        <v>158800</v>
+        <v>150500</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.000000" customHeight="1">
@@ -4879,11 +4887,11 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-53800</v>
+        <v>-45500</v>
       </c>
       <c r="F78" s="12">
         <f>F77+D78</f>
-        <v>161600</v>
+        <v>153300</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.000000" customHeight="1">
@@ -4900,11 +4908,11 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-56600</v>
+        <v>-48300</v>
       </c>
       <c r="F79" s="12">
         <f>F78+D79</f>
-        <v>164400</v>
+        <v>156100</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.000000" customHeight="1">
@@ -4921,11 +4929,11 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-59400</v>
+        <v>-51100</v>
       </c>
       <c r="F80" s="12">
         <f>F79+D80</f>
-        <v>167200</v>
+        <v>158900</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="20.000000" customHeight="1">
@@ -4942,11 +4950,11 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-61200</v>
+        <v>-52900</v>
       </c>
       <c r="F81" s="12">
         <f>F80+D81</f>
-        <v>169000</v>
+        <v>160700</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.000000" customHeight="1">
@@ -4963,11 +4971,11 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-63000</v>
+        <v>-54700</v>
       </c>
       <c r="F82" s="12">
         <f>F81+D82</f>
-        <v>170800</v>
+        <v>162500</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.000000" customHeight="1">
@@ -4984,11 +4992,11 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-65800</v>
+        <v>-57500</v>
       </c>
       <c r="F83" s="12">
         <f>F82+D83</f>
-        <v>173600</v>
+        <v>165300</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.000000" customHeight="1">
@@ -5005,11 +5013,11 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-68600</v>
+        <v>-60300</v>
       </c>
       <c r="F84" s="12">
         <f>F83+D84</f>
-        <v>176400</v>
+        <v>168100</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.000000" customHeight="1">
@@ -5026,11 +5034,11 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-71400</v>
+        <v>-63100</v>
       </c>
       <c r="F85" s="12">
         <f>F84+D85</f>
-        <v>179200</v>
+        <v>170900</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.000000" customHeight="1">
@@ -5047,11 +5055,11 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-74200</v>
+        <v>-65900</v>
       </c>
       <c r="F86" s="12">
         <f>F85+D86</f>
-        <v>182000</v>
+        <v>173700</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.000000" customHeight="1">
@@ -5068,11 +5076,11 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-77000</v>
+        <v>-68700</v>
       </c>
       <c r="F87" s="12">
         <f>F86+D87</f>
-        <v>184800</v>
+        <v>176500</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.000000" customHeight="1">
@@ -5089,11 +5097,11 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-78800</v>
+        <v>-70500</v>
       </c>
       <c r="F88" s="12">
         <f>F87+D88</f>
-        <v>186600</v>
+        <v>178300</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.000000" customHeight="1">
@@ -5110,11 +5118,11 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-80600</v>
+        <v>-72300</v>
       </c>
       <c r="F89" s="12">
         <f>F88+D89</f>
-        <v>188400</v>
+        <v>180100</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.000000" customHeight="1">
@@ -5131,11 +5139,11 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-83400</v>
+        <v>-75100</v>
       </c>
       <c r="F90" s="12">
         <f>F89+D90</f>
-        <v>191200</v>
+        <v>182900</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.000000" customHeight="1">
@@ -5152,11 +5160,11 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-86200</v>
+        <v>-77900</v>
       </c>
       <c r="F91" s="12">
         <f>F90+D91</f>
-        <v>194000</v>
+        <v>185700</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="20.000000" customHeight="1">
@@ -5173,11 +5181,11 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-89000</v>
+        <v>-80700</v>
       </c>
       <c r="F92" s="12">
         <f>F91+D92</f>
-        <v>196800</v>
+        <v>188500</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.000000" customHeight="1">
@@ -5194,11 +5202,11 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-91800</v>
+        <v>-83500</v>
       </c>
       <c r="F93" s="12">
         <f>F92+D93</f>
-        <v>199600</v>
+        <v>191300</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.000000" customHeight="1">
@@ -5215,11 +5223,11 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-94600</v>
+        <v>-86300</v>
       </c>
       <c r="F94" s="12">
         <f>F93+D94</f>
-        <v>202400</v>
+        <v>194100</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.000000" customHeight="1">
@@ -5236,11 +5244,11 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-96400</v>
+        <v>-88100</v>
       </c>
       <c r="F95" s="12">
         <f>F94+D95</f>
-        <v>204200</v>
+        <v>195900</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.000000" customHeight="1">
@@ -5257,11 +5265,11 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-98200</v>
+        <v>-89900</v>
       </c>
       <c r="F96" s="12">
         <f>F95+D96</f>
-        <v>206000</v>
+        <v>197700</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.000000" customHeight="1">
@@ -5278,11 +5286,11 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-101000</v>
+        <v>-92700</v>
       </c>
       <c r="F97" s="12">
         <f>F96+D97</f>
-        <v>208800</v>
+        <v>200500</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.000000" customHeight="1">
@@ -5299,11 +5307,11 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-103800</v>
+        <v>-95500</v>
       </c>
       <c r="F98" s="12">
         <f>F97+D98</f>
-        <v>211600</v>
+        <v>203300</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.000000" customHeight="1">
@@ -5320,11 +5328,11 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-106600</v>
+        <v>-98300</v>
       </c>
       <c r="F99" s="12">
         <f>F98+D99</f>
-        <v>214400</v>
+        <v>206100</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.000000" customHeight="1">
@@ -5341,11 +5349,11 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-109400</v>
+        <v>-101100</v>
       </c>
       <c r="F100" s="12">
         <f>F99+D100</f>
-        <v>217200</v>
+        <v>208900</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.000000" customHeight="1">
@@ -5362,329 +5370,329 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-112200</v>
+        <v>-103900</v>
       </c>
       <c r="F101" s="12">
         <f>F100+D101</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="F102" s="12">
         <f>F101+D102</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="F103" s="12">
         <f>F102+D103</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="F104" s="12">
         <f>F103+D104</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="F105" s="12">
         <f>F104+D105</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="F106" s="12">
         <f>F105+D106</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="F107" s="12">
         <f>F106+D107</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="F108" s="12">
         <f>F107+D108</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="F109" s="12">
         <f>F108+D109</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="F110" s="12">
         <f>F109+D110</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="F111" s="12">
         <f>F110+D111</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="F112" s="12">
         <f>F111+D112</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="12">
         <f>F112+D113</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="12">
         <f>F113+D114</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="12">
         <f>F114+D115</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="12">
         <f>F115+D116</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="12">
         <f>F116+D117</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="12">
         <f>F117+D118</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="12">
         <f>F118+D119</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="12">
         <f>F119+D120</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="12">
         <f>F120+D121</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="12">
         <f>F121+D122</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="12">
         <f>F122+D123</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="124" spans="6:6">
       <c r="F124" s="12">
         <f>F123+D124</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="12">
         <f>F124+D125</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="12">
         <f>F125+D126</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="12">
         <f>F126+D127</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="12">
         <f>F127+D128</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="12">
         <f>F128+D129</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="12">
         <f>F129+D130</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="12">
         <f>F130+D131</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="12">
         <f>F131+D132</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="12">
         <f>F132+D133</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" s="12">
         <f>F133+D134</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="12">
         <f>F134+D135</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="12">
         <f>F135+D136</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="12">
         <f>F136+D137</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="12">
         <f>F137+D138</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" s="12">
         <f>F138+D139</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="140" spans="6:6">
       <c r="F140" s="12">
         <f>F139+D140</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="141" spans="6:6">
       <c r="F141" s="12">
         <f>F140+D141</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="142" spans="6:6">
       <c r="F142" s="12">
         <f>F141+D142</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="143" spans="6:6">
       <c r="F143" s="12">
         <f>F142+D143</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="144" spans="6:6">
       <c r="F144" s="12">
         <f>F143+D144</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="145" spans="6:6">
       <c r="F145" s="12">
         <f>F144+D145</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" s="12">
         <f>F145+D146</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="147" spans="6:6">
       <c r="F147" s="12">
         <f>F146+D147</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="148" spans="6:6">
       <c r="F148" s="12">
         <f>F147+D148</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="149" spans="6:6">
       <c r="F149" s="12">
         <f>F148+D149</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="150" spans="6:6">
       <c r="F150" s="12">
         <f>F149+D150</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="151" spans="6:6">
       <c r="F151" s="12">
         <f>F150+D151</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="152" spans="6:6">
       <c r="F152" s="12">
         <f>F151+D152</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="153" spans="6:6">
       <c r="F153" s="12">
         <f>F152+D153</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
     <row r="154" spans="6:6">
       <c r="F154" s="12">
         <f>F153+D154</f>
-        <v>220000</v>
+        <v>211700</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="370" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3137,7 +3137,7 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3661,19 +3661,19 @@
         <v>2800</v>
       </c>
       <c r="C20" s="24">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="D20" s="12">
         <f>B20-C20</f>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E20" s="12">
         <f>E19-D20</f>
-        <v>100900</v>
+        <v>101200</v>
       </c>
       <c r="F20" s="12">
         <f>F19+D20</f>
-        <v>6900</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.000000" customHeight="1">
@@ -3683,18 +3683,20 @@
       <c r="B21" s="24">
         <v>2800</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="24">
+        <v>2000</v>
+      </c>
       <c r="D21" s="12">
         <f>B21-C21</f>
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E21" s="12">
         <f>E20-D21</f>
-        <v>98100</v>
+        <v>100400</v>
       </c>
       <c r="F21" s="12">
         <f>F20+D21</f>
-        <v>9700</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.000000" customHeight="1">
@@ -3711,11 +3713,11 @@
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>95300</v>
+        <v>97600</v>
       </c>
       <c r="F22" s="12">
         <f>F21+D22</f>
-        <v>12500</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.000000" customHeight="1">
@@ -3732,11 +3734,11 @@
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>92500</v>
+        <v>94800</v>
       </c>
       <c r="F23" s="12">
         <f>F22+D23</f>
-        <v>15300</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.000000" customHeight="1">
@@ -3753,11 +3755,11 @@
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>89700</v>
+        <v>92000</v>
       </c>
       <c r="F24" s="12">
         <f>F23+D24</f>
-        <v>18100</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.000000" customHeight="1">
@@ -3774,11 +3776,11 @@
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>87900</v>
+        <v>90200</v>
       </c>
       <c r="F25" s="12">
         <f>F24+D25</f>
-        <v>19900</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.000000" customHeight="1">
@@ -3795,11 +3797,11 @@
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>86100</v>
+        <v>88400</v>
       </c>
       <c r="F26" s="12">
         <f>F25+D26</f>
-        <v>21700</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.000000" customHeight="1">
@@ -3816,11 +3818,11 @@
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>83300</v>
+        <v>85600</v>
       </c>
       <c r="F27" s="12">
         <f>F26+D27</f>
-        <v>24500</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.000000" customHeight="1">
@@ -3837,11 +3839,11 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>80500</v>
+        <v>82800</v>
       </c>
       <c r="F28" s="12">
         <f>F27+D28</f>
-        <v>27300</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.000000" customHeight="1">
@@ -3858,11 +3860,11 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>77700</v>
+        <v>80000</v>
       </c>
       <c r="F29" s="12">
         <f>F28+D29</f>
-        <v>30100</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.000000" customHeight="1">
@@ -3879,11 +3881,11 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>74900</v>
+        <v>77200</v>
       </c>
       <c r="F30" s="12">
         <f>F29+D30</f>
-        <v>32900</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.000000" customHeight="1">
@@ -3900,11 +3902,11 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>72100</v>
+        <v>74400</v>
       </c>
       <c r="F31" s="12">
         <f>F30+D31</f>
-        <v>35700</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.000000" customHeight="1">
@@ -3921,11 +3923,11 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>70300</v>
+        <v>72600</v>
       </c>
       <c r="F32" s="12">
         <f>F31+D32</f>
-        <v>37500</v>
+        <v>35200</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.000000" customHeight="1">
@@ -3942,11 +3944,11 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>68500</v>
+        <v>70800</v>
       </c>
       <c r="F33" s="12">
         <f>F32+D33</f>
-        <v>39300</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.000000" customHeight="1">
@@ -3963,11 +3965,11 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>65700</v>
+        <v>68000</v>
       </c>
       <c r="F34" s="12">
         <f>F33+D34</f>
-        <v>42100</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.000000" customHeight="1">
@@ -3984,11 +3986,11 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>62900</v>
+        <v>65200</v>
       </c>
       <c r="F35" s="12">
         <f>F34+D35</f>
-        <v>44900</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.000000" customHeight="1">
@@ -4005,11 +4007,11 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>60100</v>
+        <v>62400</v>
       </c>
       <c r="F36" s="12">
         <f>F35+D36</f>
-        <v>47700</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.000000" customHeight="1">
@@ -4026,11 +4028,11 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>57300</v>
+        <v>59600</v>
       </c>
       <c r="F37" s="12">
         <f>F36+D37</f>
-        <v>50500</v>
+        <v>48200</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.000000" customHeight="1">
@@ -4047,11 +4049,11 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>54500</v>
+        <v>56800</v>
       </c>
       <c r="F38" s="12">
         <f>F37+D38</f>
-        <v>53300</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.000000" customHeight="1">
@@ -4068,11 +4070,11 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>52700</v>
+        <v>55000</v>
       </c>
       <c r="F39" s="12">
         <f>F38+D39</f>
-        <v>55100</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.000000" customHeight="1">
@@ -4089,11 +4091,11 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>50900</v>
+        <v>53200</v>
       </c>
       <c r="F40" s="12">
         <f>F39+D40</f>
-        <v>56900</v>
+        <v>54600</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.000000" customHeight="1">
@@ -4110,11 +4112,11 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>48100</v>
+        <v>50400</v>
       </c>
       <c r="F41" s="12">
         <f>F40+D41</f>
-        <v>59700</v>
+        <v>57400</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.000000" customHeight="1">
@@ -4131,11 +4133,11 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>45300</v>
+        <v>47600</v>
       </c>
       <c r="F42" s="12">
         <f>F41+D42</f>
-        <v>62500</v>
+        <v>60200</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.000000" customHeight="1">
@@ -4152,11 +4154,11 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>42500</v>
+        <v>44800</v>
       </c>
       <c r="F43" s="12">
         <f>F42+D43</f>
-        <v>65300</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.000000" customHeight="1">
@@ -4173,11 +4175,11 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>39700</v>
+        <v>42000</v>
       </c>
       <c r="F44" s="12">
         <f>F43+D44</f>
-        <v>68100</v>
+        <v>65800</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.000000" customHeight="1">
@@ -4194,11 +4196,11 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>36900</v>
+        <v>39200</v>
       </c>
       <c r="F45" s="12">
         <f>F44+D45</f>
-        <v>70900</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.000000" customHeight="1">
@@ -4215,11 +4217,11 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>35100</v>
+        <v>37400</v>
       </c>
       <c r="F46" s="12">
         <f>F45+D46</f>
-        <v>72700</v>
+        <v>70400</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.000000" customHeight="1">
@@ -4236,11 +4238,11 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>33300</v>
+        <v>35600</v>
       </c>
       <c r="F47" s="12">
         <f>F46+D47</f>
-        <v>74500</v>
+        <v>72200</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.000000" customHeight="1">
@@ -4257,11 +4259,11 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>30500</v>
+        <v>32800</v>
       </c>
       <c r="F48" s="12">
         <f>F47+D48</f>
-        <v>77300</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.000000" customHeight="1">
@@ -4278,11 +4280,11 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>27700</v>
+        <v>30000</v>
       </c>
       <c r="F49" s="12">
         <f>F48+D49</f>
-        <v>80100</v>
+        <v>77800</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.000000" customHeight="1">
@@ -4299,11 +4301,11 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>24900</v>
+        <v>27200</v>
       </c>
       <c r="F50" s="12">
         <f>F49+D50</f>
-        <v>82900</v>
+        <v>80600</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.000000" customHeight="1">
@@ -4320,11 +4322,11 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>22100</v>
+        <v>24400</v>
       </c>
       <c r="F51" s="12">
         <f>F50+D51</f>
-        <v>85700</v>
+        <v>83400</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.000000" customHeight="1">
@@ -4341,11 +4343,11 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>19300</v>
+        <v>21600</v>
       </c>
       <c r="F52" s="12">
         <f>F51+D52</f>
-        <v>88500</v>
+        <v>86200</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.000000" customHeight="1">
@@ -4362,11 +4364,11 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>17500</v>
+        <v>19800</v>
       </c>
       <c r="F53" s="12">
         <f>F52+D53</f>
-        <v>90300</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.000000" customHeight="1">
@@ -4383,11 +4385,11 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>15700</v>
+        <v>18000</v>
       </c>
       <c r="F54" s="12">
         <f>F53+D54</f>
-        <v>92100</v>
+        <v>89800</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.000000" customHeight="1">
@@ -4404,11 +4406,11 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>12900</v>
+        <v>15200</v>
       </c>
       <c r="F55" s="12">
         <f>F54+D55</f>
-        <v>94900</v>
+        <v>92600</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.000000" customHeight="1">
@@ -4425,11 +4427,11 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>10100</v>
+        <v>12400</v>
       </c>
       <c r="F56" s="12">
         <f>F55+D56</f>
-        <v>97700</v>
+        <v>95400</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.000000" customHeight="1">
@@ -4446,11 +4448,11 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>7300</v>
+        <v>9600</v>
       </c>
       <c r="F57" s="12">
         <f>F56+D57</f>
-        <v>100500</v>
+        <v>98200</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.000000" customHeight="1">
@@ -4467,11 +4469,11 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>4500</v>
+        <v>6800</v>
       </c>
       <c r="F58" s="12">
         <f>F57+D58</f>
-        <v>103300</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.000000" customHeight="1">
@@ -4488,11 +4490,11 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="F59" s="12">
         <f>F58+D59</f>
-        <v>106100</v>
+        <v>103800</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.000000" customHeight="1">
@@ -4509,11 +4511,11 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>-100</v>
+        <v>2200</v>
       </c>
       <c r="F60" s="12">
         <f>F59+D60</f>
-        <v>107900</v>
+        <v>105600</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.000000" customHeight="1">
@@ -4530,11 +4532,11 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>-1900</v>
+        <v>400</v>
       </c>
       <c r="F61" s="12">
         <f>F60+D61</f>
-        <v>109700</v>
+        <v>107400</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.000000" customHeight="1">
@@ -4551,11 +4553,11 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-4700</v>
+        <v>-2400</v>
       </c>
       <c r="F62" s="12">
         <f>F61+D62</f>
-        <v>112500</v>
+        <v>110200</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.000000" customHeight="1">
@@ -4572,11 +4574,11 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-7500</v>
+        <v>-5200</v>
       </c>
       <c r="F63" s="12">
         <f>F62+D63</f>
-        <v>115300</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.000000" customHeight="1">
@@ -4593,11 +4595,11 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-10300</v>
+        <v>-8000</v>
       </c>
       <c r="F64" s="12">
         <f>F63+D64</f>
-        <v>118100</v>
+        <v>115800</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.000000" customHeight="1">
@@ -4614,11 +4616,11 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-13100</v>
+        <v>-10800</v>
       </c>
       <c r="F65" s="12">
         <f>F64+D65</f>
-        <v>120900</v>
+        <v>118600</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.000000" customHeight="1">
@@ -4635,11 +4637,11 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-15900</v>
+        <v>-13600</v>
       </c>
       <c r="F66" s="12">
         <f>F65+D66</f>
-        <v>123700</v>
+        <v>121400</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.000000" customHeight="1">
@@ -4656,11 +4658,11 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-17700</v>
+        <v>-15400</v>
       </c>
       <c r="F67" s="12">
         <f>F66+D67</f>
-        <v>125500</v>
+        <v>123200</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.000000" customHeight="1">
@@ -4677,11 +4679,11 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-19500</v>
+        <v>-17200</v>
       </c>
       <c r="F68" s="12">
         <f>F67+D68</f>
-        <v>127300</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.000000" customHeight="1">
@@ -4698,11 +4700,11 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-22300</v>
+        <v>-20000</v>
       </c>
       <c r="F69" s="12">
         <f>F68+D69</f>
-        <v>130100</v>
+        <v>127800</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.000000" customHeight="1">
@@ -4719,11 +4721,11 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-25100</v>
+        <v>-22800</v>
       </c>
       <c r="F70" s="12">
         <f>F69+D70</f>
-        <v>132900</v>
+        <v>130600</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.000000" customHeight="1">
@@ -4740,11 +4742,11 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-27900</v>
+        <v>-25600</v>
       </c>
       <c r="F71" s="12">
         <f>F70+D71</f>
-        <v>135700</v>
+        <v>133400</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.000000" customHeight="1">
@@ -4761,11 +4763,11 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-30700</v>
+        <v>-28400</v>
       </c>
       <c r="F72" s="12">
         <f>F71+D72</f>
-        <v>138500</v>
+        <v>136200</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.000000" customHeight="1">
@@ -4782,11 +4784,11 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-33500</v>
+        <v>-31200</v>
       </c>
       <c r="F73" s="12">
         <f>F72+D73</f>
-        <v>141300</v>
+        <v>139000</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.000000" customHeight="1">
@@ -4803,11 +4805,11 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-35300</v>
+        <v>-33000</v>
       </c>
       <c r="F74" s="12">
         <f>F73+D74</f>
-        <v>143100</v>
+        <v>140800</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.000000" customHeight="1">
@@ -4824,11 +4826,11 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-37100</v>
+        <v>-34800</v>
       </c>
       <c r="F75" s="12">
         <f>F74+D75</f>
-        <v>144900</v>
+        <v>142600</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.000000" customHeight="1">
@@ -4845,11 +4847,11 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-39900</v>
+        <v>-37600</v>
       </c>
       <c r="F76" s="12">
         <f>F75+D76</f>
-        <v>147700</v>
+        <v>145400</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.000000" customHeight="1">
@@ -4866,11 +4868,11 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-42700</v>
+        <v>-40400</v>
       </c>
       <c r="F77" s="12">
         <f>F76+D77</f>
-        <v>150500</v>
+        <v>148200</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.000000" customHeight="1">
@@ -4887,11 +4889,11 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-45500</v>
+        <v>-43200</v>
       </c>
       <c r="F78" s="12">
         <f>F77+D78</f>
-        <v>153300</v>
+        <v>151000</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.000000" customHeight="1">
@@ -4908,11 +4910,11 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-48300</v>
+        <v>-46000</v>
       </c>
       <c r="F79" s="12">
         <f>F78+D79</f>
-        <v>156100</v>
+        <v>153800</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.000000" customHeight="1">
@@ -4929,11 +4931,11 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-51100</v>
+        <v>-48800</v>
       </c>
       <c r="F80" s="12">
         <f>F79+D80</f>
-        <v>158900</v>
+        <v>156600</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="20.000000" customHeight="1">
@@ -4950,11 +4952,11 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-52900</v>
+        <v>-50600</v>
       </c>
       <c r="F81" s="12">
         <f>F80+D81</f>
-        <v>160700</v>
+        <v>158400</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.000000" customHeight="1">
@@ -4971,11 +4973,11 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-54700</v>
+        <v>-52400</v>
       </c>
       <c r="F82" s="12">
         <f>F81+D82</f>
-        <v>162500</v>
+        <v>160200</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.000000" customHeight="1">
@@ -4992,11 +4994,11 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-57500</v>
+        <v>-55200</v>
       </c>
       <c r="F83" s="12">
         <f>F82+D83</f>
-        <v>165300</v>
+        <v>163000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.000000" customHeight="1">
@@ -5013,11 +5015,11 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-60300</v>
+        <v>-58000</v>
       </c>
       <c r="F84" s="12">
         <f>F83+D84</f>
-        <v>168100</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.000000" customHeight="1">
@@ -5034,11 +5036,11 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-63100</v>
+        <v>-60800</v>
       </c>
       <c r="F85" s="12">
         <f>F84+D85</f>
-        <v>170900</v>
+        <v>168600</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.000000" customHeight="1">
@@ -5055,11 +5057,11 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-65900</v>
+        <v>-63600</v>
       </c>
       <c r="F86" s="12">
         <f>F85+D86</f>
-        <v>173700</v>
+        <v>171400</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.000000" customHeight="1">
@@ -5076,11 +5078,11 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-68700</v>
+        <v>-66400</v>
       </c>
       <c r="F87" s="12">
         <f>F86+D87</f>
-        <v>176500</v>
+        <v>174200</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.000000" customHeight="1">
@@ -5097,11 +5099,11 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-70500</v>
+        <v>-68200</v>
       </c>
       <c r="F88" s="12">
         <f>F87+D88</f>
-        <v>178300</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.000000" customHeight="1">
@@ -5118,11 +5120,11 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-72300</v>
+        <v>-70000</v>
       </c>
       <c r="F89" s="12">
         <f>F88+D89</f>
-        <v>180100</v>
+        <v>177800</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.000000" customHeight="1">
@@ -5139,11 +5141,11 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-75100</v>
+        <v>-72800</v>
       </c>
       <c r="F90" s="12">
         <f>F89+D90</f>
-        <v>182900</v>
+        <v>180600</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.000000" customHeight="1">
@@ -5160,11 +5162,11 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-77900</v>
+        <v>-75600</v>
       </c>
       <c r="F91" s="12">
         <f>F90+D91</f>
-        <v>185700</v>
+        <v>183400</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="20.000000" customHeight="1">
@@ -5181,11 +5183,11 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-80700</v>
+        <v>-78400</v>
       </c>
       <c r="F92" s="12">
         <f>F91+D92</f>
-        <v>188500</v>
+        <v>186200</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.000000" customHeight="1">
@@ -5202,11 +5204,11 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-83500</v>
+        <v>-81200</v>
       </c>
       <c r="F93" s="12">
         <f>F92+D93</f>
-        <v>191300</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.000000" customHeight="1">
@@ -5223,11 +5225,11 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-86300</v>
+        <v>-84000</v>
       </c>
       <c r="F94" s="12">
         <f>F93+D94</f>
-        <v>194100</v>
+        <v>191800</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.000000" customHeight="1">
@@ -5244,11 +5246,11 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-88100</v>
+        <v>-85800</v>
       </c>
       <c r="F95" s="12">
         <f>F94+D95</f>
-        <v>195900</v>
+        <v>193600</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.000000" customHeight="1">
@@ -5265,11 +5267,11 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-89900</v>
+        <v>-87600</v>
       </c>
       <c r="F96" s="12">
         <f>F95+D96</f>
-        <v>197700</v>
+        <v>195400</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.000000" customHeight="1">
@@ -5286,11 +5288,11 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-92700</v>
+        <v>-90400</v>
       </c>
       <c r="F97" s="12">
         <f>F96+D97</f>
-        <v>200500</v>
+        <v>198200</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.000000" customHeight="1">
@@ -5307,11 +5309,11 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-95500</v>
+        <v>-93200</v>
       </c>
       <c r="F98" s="12">
         <f>F97+D98</f>
-        <v>203300</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.000000" customHeight="1">
@@ -5328,11 +5330,11 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-98300</v>
+        <v>-96000</v>
       </c>
       <c r="F99" s="12">
         <f>F98+D99</f>
-        <v>206100</v>
+        <v>203800</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.000000" customHeight="1">
@@ -5349,11 +5351,11 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-101100</v>
+        <v>-98800</v>
       </c>
       <c r="F100" s="12">
         <f>F99+D100</f>
-        <v>208900</v>
+        <v>206600</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.000000" customHeight="1">
@@ -5370,329 +5372,329 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-103900</v>
+        <v>-101600</v>
       </c>
       <c r="F101" s="12">
         <f>F100+D101</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="F102" s="12">
         <f>F101+D102</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="F103" s="12">
         <f>F102+D103</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="F104" s="12">
         <f>F103+D104</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="F105" s="12">
         <f>F104+D105</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="F106" s="12">
         <f>F105+D106</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="F107" s="12">
         <f>F106+D107</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="F108" s="12">
         <f>F107+D108</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="F109" s="12">
         <f>F108+D109</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="F110" s="12">
         <f>F109+D110</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="F111" s="12">
         <f>F110+D111</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="F112" s="12">
         <f>F111+D112</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="12">
         <f>F112+D113</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="12">
         <f>F113+D114</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="12">
         <f>F114+D115</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="12">
         <f>F115+D116</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="12">
         <f>F116+D117</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="12">
         <f>F117+D118</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="12">
         <f>F118+D119</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="12">
         <f>F119+D120</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="12">
         <f>F120+D121</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="12">
         <f>F121+D122</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="12">
         <f>F122+D123</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="124" spans="6:6">
       <c r="F124" s="12">
         <f>F123+D124</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="12">
         <f>F124+D125</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="12">
         <f>F125+D126</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="12">
         <f>F126+D127</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="12">
         <f>F127+D128</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="12">
         <f>F128+D129</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="12">
         <f>F129+D130</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="12">
         <f>F130+D131</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="12">
         <f>F131+D132</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="12">
         <f>F132+D133</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" s="12">
         <f>F133+D134</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="12">
         <f>F134+D135</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="12">
         <f>F135+D136</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="12">
         <f>F136+D137</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="12">
         <f>F137+D138</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" s="12">
         <f>F138+D139</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="140" spans="6:6">
       <c r="F140" s="12">
         <f>F139+D140</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="141" spans="6:6">
       <c r="F141" s="12">
         <f>F140+D141</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="142" spans="6:6">
       <c r="F142" s="12">
         <f>F141+D142</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="143" spans="6:6">
       <c r="F143" s="12">
         <f>F142+D143</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="144" spans="6:6">
       <c r="F144" s="12">
         <f>F143+D144</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="145" spans="6:6">
       <c r="F145" s="12">
         <f>F144+D145</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" s="12">
         <f>F145+D146</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="147" spans="6:6">
       <c r="F147" s="12">
         <f>F146+D147</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="148" spans="6:6">
       <c r="F148" s="12">
         <f>F147+D148</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="149" spans="6:6">
       <c r="F149" s="12">
         <f>F148+D149</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="150" spans="6:6">
       <c r="F150" s="12">
         <f>F149+D150</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="151" spans="6:6">
       <c r="F151" s="12">
         <f>F150+D151</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="152" spans="6:6">
       <c r="F152" s="12">
         <f>F151+D152</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="153" spans="6:6">
       <c r="F153" s="12">
         <f>F152+D153</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
     <row r="154" spans="6:6">
       <c r="F154" s="12">
         <f>F153+D154</f>
-        <v>211700</v>
+        <v>209400</v>
       </c>
     </row>
   </sheetData>

--- a/食物.xlsx
+++ b/食物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="360" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="热量表" sheetId="1" r:id="rId1"/>
@@ -3137,7 +3137,7 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.61718750" defaultRowHeight="20.000000" customHeight="1"/>
@@ -3706,18 +3706,20 @@
       <c r="B22" s="24">
         <v>2800</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="24">
+        <v>2000</v>
+      </c>
       <c r="D22" s="12">
         <f>B22-C22</f>
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E22" s="12">
         <f>E21-D22</f>
-        <v>97600</v>
+        <v>99600</v>
       </c>
       <c r="F22" s="12">
         <f>F21+D22</f>
-        <v>10200</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.000000" customHeight="1">
@@ -3727,18 +3729,20 @@
       <c r="B23" s="24">
         <v>2800</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="24">
+        <v>2000</v>
+      </c>
       <c r="D23" s="12">
         <f>B23-C23</f>
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E23" s="12">
         <f>E22-D23</f>
-        <v>94800</v>
+        <v>98800</v>
       </c>
       <c r="F23" s="12">
         <f>F22+D23</f>
-        <v>13000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.000000" customHeight="1">
@@ -3748,18 +3752,20 @@
       <c r="B24" s="24">
         <v>2800</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="24">
+        <v>2000</v>
+      </c>
       <c r="D24" s="12">
         <f>B24-C24</f>
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E24" s="12">
         <f>E23-D24</f>
-        <v>92000</v>
+        <v>98000</v>
       </c>
       <c r="F24" s="12">
         <f>F23+D24</f>
-        <v>15800</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.000000" customHeight="1">
@@ -3769,18 +3775,20 @@
       <c r="B25" s="24">
         <v>1800</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="24">
+        <v>2000</v>
+      </c>
       <c r="D25" s="12">
         <f>B25-C25</f>
-        <v>1800</v>
+        <v>-200</v>
       </c>
       <c r="E25" s="12">
         <f>E24-D25</f>
-        <v>90200</v>
+        <v>98200</v>
       </c>
       <c r="F25" s="12">
         <f>F24+D25</f>
-        <v>17600</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.000000" customHeight="1">
@@ -3788,20 +3796,22 @@
         <v>43982</v>
       </c>
       <c r="B26" s="24">
-        <v>1800</v>
-      </c>
-      <c r="C26" s="24"/>
+        <v>2100</v>
+      </c>
+      <c r="C26" s="24">
+        <v>2000</v>
+      </c>
       <c r="D26" s="12">
         <f>B26-C26</f>
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="E26" s="12">
         <f>E25-D26</f>
-        <v>88400</v>
+        <v>98100</v>
       </c>
       <c r="F26" s="12">
         <f>F25+D26</f>
-        <v>19400</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.000000" customHeight="1">
@@ -3811,18 +3821,20 @@
       <c r="B27" s="24">
         <v>2800</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="24">
+        <v>1900</v>
+      </c>
       <c r="D27" s="12">
         <f>B27-C27</f>
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="E27" s="12">
         <f>E26-D27</f>
-        <v>85600</v>
+        <v>97200</v>
       </c>
       <c r="F27" s="12">
         <f>F26+D27</f>
-        <v>22200</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.000000" customHeight="1">
@@ -3839,11 +3851,11 @@
       </c>
       <c r="E28" s="12">
         <f>E27-D28</f>
-        <v>82800</v>
+        <v>94400</v>
       </c>
       <c r="F28" s="12">
         <f>F27+D28</f>
-        <v>25000</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.000000" customHeight="1">
@@ -3860,11 +3872,11 @@
       </c>
       <c r="E29" s="12">
         <f>E28-D29</f>
-        <v>80000</v>
+        <v>91600</v>
       </c>
       <c r="F29" s="12">
         <f>F28+D29</f>
-        <v>27800</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.000000" customHeight="1">
@@ -3881,11 +3893,11 @@
       </c>
       <c r="E30" s="12">
         <f>E29-D30</f>
-        <v>77200</v>
+        <v>88800</v>
       </c>
       <c r="F30" s="12">
         <f>F29+D30</f>
-        <v>30600</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.000000" customHeight="1">
@@ -3902,11 +3914,11 @@
       </c>
       <c r="E31" s="12">
         <f>E30-D31</f>
-        <v>74400</v>
+        <v>86000</v>
       </c>
       <c r="F31" s="12">
         <f>F30+D31</f>
-        <v>33400</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.000000" customHeight="1">
@@ -3923,11 +3935,11 @@
       </c>
       <c r="E32" s="12">
         <f>E31-D32</f>
-        <v>72600</v>
+        <v>84200</v>
       </c>
       <c r="F32" s="12">
         <f>F31+D32</f>
-        <v>35200</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.000000" customHeight="1">
@@ -3944,11 +3956,11 @@
       </c>
       <c r="E33" s="12">
         <f>E32-D33</f>
-        <v>70800</v>
+        <v>82400</v>
       </c>
       <c r="F33" s="12">
         <f>F32+D33</f>
-        <v>37000</v>
+        <v>25400</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.000000" customHeight="1">
@@ -3965,11 +3977,11 @@
       </c>
       <c r="E34" s="12">
         <f>E33-D34</f>
-        <v>68000</v>
+        <v>79600</v>
       </c>
       <c r="F34" s="12">
         <f>F33+D34</f>
-        <v>39800</v>
+        <v>28200</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.000000" customHeight="1">
@@ -3986,11 +3998,11 @@
       </c>
       <c r="E35" s="12">
         <f>E34-D35</f>
-        <v>65200</v>
+        <v>76800</v>
       </c>
       <c r="F35" s="12">
         <f>F34+D35</f>
-        <v>42600</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.000000" customHeight="1">
@@ -4007,11 +4019,11 @@
       </c>
       <c r="E36" s="12">
         <f>E35-D36</f>
-        <v>62400</v>
+        <v>74000</v>
       </c>
       <c r="F36" s="12">
         <f>F35+D36</f>
-        <v>45400</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.000000" customHeight="1">
@@ -4028,11 +4040,11 @@
       </c>
       <c r="E37" s="12">
         <f>E36-D37</f>
-        <v>59600</v>
+        <v>71200</v>
       </c>
       <c r="F37" s="12">
         <f>F36+D37</f>
-        <v>48200</v>
+        <v>36600</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.000000" customHeight="1">
@@ -4049,11 +4061,11 @@
       </c>
       <c r="E38" s="12">
         <f>E37-D38</f>
-        <v>56800</v>
+        <v>68400</v>
       </c>
       <c r="F38" s="12">
         <f>F37+D38</f>
-        <v>51000</v>
+        <v>39400</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.000000" customHeight="1">
@@ -4070,11 +4082,11 @@
       </c>
       <c r="E39" s="12">
         <f>E38-D39</f>
-        <v>55000</v>
+        <v>66600</v>
       </c>
       <c r="F39" s="12">
         <f>F38+D39</f>
-        <v>52800</v>
+        <v>41200</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.000000" customHeight="1">
@@ -4091,11 +4103,11 @@
       </c>
       <c r="E40" s="12">
         <f>E39-D40</f>
-        <v>53200</v>
+        <v>64800</v>
       </c>
       <c r="F40" s="12">
         <f>F39+D40</f>
-        <v>54600</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.000000" customHeight="1">
@@ -4112,11 +4124,11 @@
       </c>
       <c r="E41" s="12">
         <f>E40-D41</f>
-        <v>50400</v>
+        <v>62000</v>
       </c>
       <c r="F41" s="12">
         <f>F40+D41</f>
-        <v>57400</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.000000" customHeight="1">
@@ -4133,11 +4145,11 @@
       </c>
       <c r="E42" s="12">
         <f>E41-D42</f>
-        <v>47600</v>
+        <v>59200</v>
       </c>
       <c r="F42" s="12">
         <f>F41+D42</f>
-        <v>60200</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.000000" customHeight="1">
@@ -4154,11 +4166,11 @@
       </c>
       <c r="E43" s="12">
         <f>E42-D43</f>
-        <v>44800</v>
+        <v>56400</v>
       </c>
       <c r="F43" s="12">
         <f>F42+D43</f>
-        <v>63000</v>
+        <v>51400</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.000000" customHeight="1">
@@ -4175,11 +4187,11 @@
       </c>
       <c r="E44" s="12">
         <f>E43-D44</f>
-        <v>42000</v>
+        <v>53600</v>
       </c>
       <c r="F44" s="12">
         <f>F43+D44</f>
-        <v>65800</v>
+        <v>54200</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.000000" customHeight="1">
@@ -4196,11 +4208,11 @@
       </c>
       <c r="E45" s="12">
         <f>E44-D45</f>
-        <v>39200</v>
+        <v>50800</v>
       </c>
       <c r="F45" s="12">
         <f>F44+D45</f>
-        <v>68600</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.000000" customHeight="1">
@@ -4217,11 +4229,11 @@
       </c>
       <c r="E46" s="12">
         <f>E45-D46</f>
-        <v>37400</v>
+        <v>49000</v>
       </c>
       <c r="F46" s="12">
         <f>F45+D46</f>
-        <v>70400</v>
+        <v>58800</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.000000" customHeight="1">
@@ -4238,11 +4250,11 @@
       </c>
       <c r="E47" s="12">
         <f>E46-D47</f>
-        <v>35600</v>
+        <v>47200</v>
       </c>
       <c r="F47" s="12">
         <f>F46+D47</f>
-        <v>72200</v>
+        <v>60600</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.000000" customHeight="1">
@@ -4259,11 +4271,11 @@
       </c>
       <c r="E48" s="12">
         <f>E47-D48</f>
-        <v>32800</v>
+        <v>44400</v>
       </c>
       <c r="F48" s="12">
         <f>F47+D48</f>
-        <v>75000</v>
+        <v>63400</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.000000" customHeight="1">
@@ -4280,11 +4292,11 @@
       </c>
       <c r="E49" s="12">
         <f>E48-D49</f>
-        <v>30000</v>
+        <v>41600</v>
       </c>
       <c r="F49" s="12">
         <f>F48+D49</f>
-        <v>77800</v>
+        <v>66200</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.000000" customHeight="1">
@@ -4301,11 +4313,11 @@
       </c>
       <c r="E50" s="12">
         <f>E49-D50</f>
-        <v>27200</v>
+        <v>38800</v>
       </c>
       <c r="F50" s="12">
         <f>F49+D50</f>
-        <v>80600</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.000000" customHeight="1">
@@ -4322,11 +4334,11 @@
       </c>
       <c r="E51" s="12">
         <f>E50-D51</f>
-        <v>24400</v>
+        <v>36000</v>
       </c>
       <c r="F51" s="12">
         <f>F50+D51</f>
-        <v>83400</v>
+        <v>71800</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.000000" customHeight="1">
@@ -4343,11 +4355,11 @@
       </c>
       <c r="E52" s="12">
         <f>E51-D52</f>
-        <v>21600</v>
+        <v>33200</v>
       </c>
       <c r="F52" s="12">
         <f>F51+D52</f>
-        <v>86200</v>
+        <v>74600</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.000000" customHeight="1">
@@ -4364,11 +4376,11 @@
       </c>
       <c r="E53" s="12">
         <f>E52-D53</f>
-        <v>19800</v>
+        <v>31400</v>
       </c>
       <c r="F53" s="12">
         <f>F52+D53</f>
-        <v>88000</v>
+        <v>76400</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.000000" customHeight="1">
@@ -4385,11 +4397,11 @@
       </c>
       <c r="E54" s="12">
         <f>E53-D54</f>
-        <v>18000</v>
+        <v>29600</v>
       </c>
       <c r="F54" s="12">
         <f>F53+D54</f>
-        <v>89800</v>
+        <v>78200</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.000000" customHeight="1">
@@ -4406,11 +4418,11 @@
       </c>
       <c r="E55" s="12">
         <f>E54-D55</f>
-        <v>15200</v>
+        <v>26800</v>
       </c>
       <c r="F55" s="12">
         <f>F54+D55</f>
-        <v>92600</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.000000" customHeight="1">
@@ -4427,11 +4439,11 @@
       </c>
       <c r="E56" s="12">
         <f>E55-D56</f>
-        <v>12400</v>
+        <v>24000</v>
       </c>
       <c r="F56" s="12">
         <f>F55+D56</f>
-        <v>95400</v>
+        <v>83800</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.000000" customHeight="1">
@@ -4448,11 +4460,11 @@
       </c>
       <c r="E57" s="12">
         <f>E56-D57</f>
-        <v>9600</v>
+        <v>21200</v>
       </c>
       <c r="F57" s="12">
         <f>F56+D57</f>
-        <v>98200</v>
+        <v>86600</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.000000" customHeight="1">
@@ -4469,11 +4481,11 @@
       </c>
       <c r="E58" s="12">
         <f>E57-D58</f>
-        <v>6800</v>
+        <v>18400</v>
       </c>
       <c r="F58" s="12">
         <f>F57+D58</f>
-        <v>101000</v>
+        <v>89400</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.000000" customHeight="1">
@@ -4490,11 +4502,11 @@
       </c>
       <c r="E59" s="12">
         <f>E58-D59</f>
-        <v>4000</v>
+        <v>15600</v>
       </c>
       <c r="F59" s="12">
         <f>F58+D59</f>
-        <v>103800</v>
+        <v>92200</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.000000" customHeight="1">
@@ -4511,11 +4523,11 @@
       </c>
       <c r="E60" s="12">
         <f>E59-D60</f>
-        <v>2200</v>
+        <v>13800</v>
       </c>
       <c r="F60" s="12">
         <f>F59+D60</f>
-        <v>105600</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.000000" customHeight="1">
@@ -4532,11 +4544,11 @@
       </c>
       <c r="E61" s="12">
         <f>E60-D61</f>
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="F61" s="12">
         <f>F60+D61</f>
-        <v>107400</v>
+        <v>95800</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.000000" customHeight="1">
@@ -4553,11 +4565,11 @@
       </c>
       <c r="E62" s="12">
         <f>E61-D62</f>
-        <v>-2400</v>
+        <v>9200</v>
       </c>
       <c r="F62" s="12">
         <f>F61+D62</f>
-        <v>110200</v>
+        <v>98600</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.000000" customHeight="1">
@@ -4574,11 +4586,11 @@
       </c>
       <c r="E63" s="12">
         <f>E62-D63</f>
-        <v>-5200</v>
+        <v>6400</v>
       </c>
       <c r="F63" s="12">
         <f>F62+D63</f>
-        <v>113000</v>
+        <v>101400</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.000000" customHeight="1">
@@ -4595,11 +4607,11 @@
       </c>
       <c r="E64" s="12">
         <f>E63-D64</f>
-        <v>-8000</v>
+        <v>3600</v>
       </c>
       <c r="F64" s="12">
         <f>F63+D64</f>
-        <v>115800</v>
+        <v>104200</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.000000" customHeight="1">
@@ -4616,11 +4628,11 @@
       </c>
       <c r="E65" s="12">
         <f>E64-D65</f>
-        <v>-10800</v>
+        <v>800</v>
       </c>
       <c r="F65" s="12">
         <f>F64+D65</f>
-        <v>118600</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.000000" customHeight="1">
@@ -4637,11 +4649,11 @@
       </c>
       <c r="E66" s="12">
         <f>E65-D66</f>
-        <v>-13600</v>
+        <v>-2000</v>
       </c>
       <c r="F66" s="12">
         <f>F65+D66</f>
-        <v>121400</v>
+        <v>109800</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.000000" customHeight="1">
@@ -4658,11 +4670,11 @@
       </c>
       <c r="E67" s="12">
         <f>E66-D67</f>
-        <v>-15400</v>
+        <v>-3800</v>
       </c>
       <c r="F67" s="12">
         <f>F66+D67</f>
-        <v>123200</v>
+        <v>111600</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.000000" customHeight="1">
@@ -4679,11 +4691,11 @@
       </c>
       <c r="E68" s="12">
         <f>E67-D68</f>
-        <v>-17200</v>
+        <v>-5600</v>
       </c>
       <c r="F68" s="12">
         <f>F67+D68</f>
-        <v>125000</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.000000" customHeight="1">
@@ -4700,11 +4712,11 @@
       </c>
       <c r="E69" s="12">
         <f>E68-D69</f>
-        <v>-20000</v>
+        <v>-8400</v>
       </c>
       <c r="F69" s="12">
         <f>F68+D69</f>
-        <v>127800</v>
+        <v>116200</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.000000" customHeight="1">
@@ -4721,11 +4733,11 @@
       </c>
       <c r="E70" s="12">
         <f>E69-D70</f>
-        <v>-22800</v>
+        <v>-11200</v>
       </c>
       <c r="F70" s="12">
         <f>F69+D70</f>
-        <v>130600</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.000000" customHeight="1">
@@ -4742,11 +4754,11 @@
       </c>
       <c r="E71" s="12">
         <f>E70-D71</f>
-        <v>-25600</v>
+        <v>-14000</v>
       </c>
       <c r="F71" s="12">
         <f>F70+D71</f>
-        <v>133400</v>
+        <v>121800</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.000000" customHeight="1">
@@ -4763,11 +4775,11 @@
       </c>
       <c r="E72" s="12">
         <f>E71-D72</f>
-        <v>-28400</v>
+        <v>-16800</v>
       </c>
       <c r="F72" s="12">
         <f>F71+D72</f>
-        <v>136200</v>
+        <v>124600</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.000000" customHeight="1">
@@ -4784,11 +4796,11 @@
       </c>
       <c r="E73" s="12">
         <f>E72-D73</f>
-        <v>-31200</v>
+        <v>-19600</v>
       </c>
       <c r="F73" s="12">
         <f>F72+D73</f>
-        <v>139000</v>
+        <v>127400</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.000000" customHeight="1">
@@ -4805,11 +4817,11 @@
       </c>
       <c r="E74" s="12">
         <f>E73-D74</f>
-        <v>-33000</v>
+        <v>-21400</v>
       </c>
       <c r="F74" s="12">
         <f>F73+D74</f>
-        <v>140800</v>
+        <v>129200</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.000000" customHeight="1">
@@ -4826,11 +4838,11 @@
       </c>
       <c r="E75" s="12">
         <f>E74-D75</f>
-        <v>-34800</v>
+        <v>-23200</v>
       </c>
       <c r="F75" s="12">
         <f>F74+D75</f>
-        <v>142600</v>
+        <v>131000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.000000" customHeight="1">
@@ -4847,11 +4859,11 @@
       </c>
       <c r="E76" s="12">
         <f>E75-D76</f>
-        <v>-37600</v>
+        <v>-26000</v>
       </c>
       <c r="F76" s="12">
         <f>F75+D76</f>
-        <v>145400</v>
+        <v>133800</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.000000" customHeight="1">
@@ -4868,11 +4880,11 @@
       </c>
       <c r="E77" s="12">
         <f>E76-D77</f>
-        <v>-40400</v>
+        <v>-28800</v>
       </c>
       <c r="F77" s="12">
         <f>F76+D77</f>
-        <v>148200</v>
+        <v>136600</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.000000" customHeight="1">
@@ -4889,11 +4901,11 @@
       </c>
       <c r="E78" s="12">
         <f>E77-D78</f>
-        <v>-43200</v>
+        <v>-31600</v>
       </c>
       <c r="F78" s="12">
         <f>F77+D78</f>
-        <v>151000</v>
+        <v>139400</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.000000" customHeight="1">
@@ -4910,11 +4922,11 @@
       </c>
       <c r="E79" s="12">
         <f>E78-D79</f>
-        <v>-46000</v>
+        <v>-34400</v>
       </c>
       <c r="F79" s="12">
         <f>F78+D79</f>
-        <v>153800</v>
+        <v>142200</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.000000" customHeight="1">
@@ -4931,11 +4943,11 @@
       </c>
       <c r="E80" s="12">
         <f>E79-D80</f>
-        <v>-48800</v>
+        <v>-37200</v>
       </c>
       <c r="F80" s="12">
         <f>F79+D80</f>
-        <v>156600</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="20.000000" customHeight="1">
@@ -4952,11 +4964,11 @@
       </c>
       <c r="E81" s="12">
         <f>E80-D81</f>
-        <v>-50600</v>
+        <v>-39000</v>
       </c>
       <c r="F81" s="12">
         <f>F80+D81</f>
-        <v>158400</v>
+        <v>146800</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.000000" customHeight="1">
@@ -4973,11 +4985,11 @@
       </c>
       <c r="E82" s="12">
         <f>E81-D82</f>
-        <v>-52400</v>
+        <v>-40800</v>
       </c>
       <c r="F82" s="12">
         <f>F81+D82</f>
-        <v>160200</v>
+        <v>148600</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.000000" customHeight="1">
@@ -4994,11 +5006,11 @@
       </c>
       <c r="E83" s="12">
         <f>E82-D83</f>
-        <v>-55200</v>
+        <v>-43600</v>
       </c>
       <c r="F83" s="12">
         <f>F82+D83</f>
-        <v>163000</v>
+        <v>151400</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.000000" customHeight="1">
@@ -5015,11 +5027,11 @@
       </c>
       <c r="E84" s="12">
         <f>E83-D84</f>
-        <v>-58000</v>
+        <v>-46400</v>
       </c>
       <c r="F84" s="12">
         <f>F83+D84</f>
-        <v>165800</v>
+        <v>154200</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.000000" customHeight="1">
@@ -5036,11 +5048,11 @@
       </c>
       <c r="E85" s="12">
         <f>E84-D85</f>
-        <v>-60800</v>
+        <v>-49200</v>
       </c>
       <c r="F85" s="12">
         <f>F84+D85</f>
-        <v>168600</v>
+        <v>157000</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.000000" customHeight="1">
@@ -5057,11 +5069,11 @@
       </c>
       <c r="E86" s="12">
         <f>E85-D86</f>
-        <v>-63600</v>
+        <v>-52000</v>
       </c>
       <c r="F86" s="12">
         <f>F85+D86</f>
-        <v>171400</v>
+        <v>159800</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.000000" customHeight="1">
@@ -5078,11 +5090,11 @@
       </c>
       <c r="E87" s="12">
         <f>E86-D87</f>
-        <v>-66400</v>
+        <v>-54800</v>
       </c>
       <c r="F87" s="12">
         <f>F86+D87</f>
-        <v>174200</v>
+        <v>162600</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.000000" customHeight="1">
@@ -5099,11 +5111,11 @@
       </c>
       <c r="E88" s="12">
         <f>E87-D88</f>
-        <v>-68200</v>
+        <v>-56600</v>
       </c>
       <c r="F88" s="12">
         <f>F87+D88</f>
-        <v>176000</v>
+        <v>164400</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.000000" customHeight="1">
@@ -5120,11 +5132,11 @@
       </c>
       <c r="E89" s="12">
         <f>E88-D89</f>
-        <v>-70000</v>
+        <v>-58400</v>
       </c>
       <c r="F89" s="12">
         <f>F88+D89</f>
-        <v>177800</v>
+        <v>166200</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.000000" customHeight="1">
@@ -5141,11 +5153,11 @@
       </c>
       <c r="E90" s="12">
         <f>E89-D90</f>
-        <v>-72800</v>
+        <v>-61200</v>
       </c>
       <c r="F90" s="12">
         <f>F89+D90</f>
-        <v>180600</v>
+        <v>169000</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.000000" customHeight="1">
@@ -5162,11 +5174,11 @@
       </c>
       <c r="E91" s="12">
         <f>E90-D91</f>
-        <v>-75600</v>
+        <v>-64000</v>
       </c>
       <c r="F91" s="12">
         <f>F90+D91</f>
-        <v>183400</v>
+        <v>171800</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="20.000000" customHeight="1">
@@ -5183,11 +5195,11 @@
       </c>
       <c r="E92" s="12">
         <f>E91-D92</f>
-        <v>-78400</v>
+        <v>-66800</v>
       </c>
       <c r="F92" s="12">
         <f>F91+D92</f>
-        <v>186200</v>
+        <v>174600</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.000000" customHeight="1">
@@ -5204,11 +5216,11 @@
       </c>
       <c r="E93" s="12">
         <f>E92-D93</f>
-        <v>-81200</v>
+        <v>-69600</v>
       </c>
       <c r="F93" s="12">
         <f>F92+D93</f>
-        <v>189000</v>
+        <v>177400</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.000000" customHeight="1">
@@ -5225,11 +5237,11 @@
       </c>
       <c r="E94" s="12">
         <f>E93-D94</f>
-        <v>-84000</v>
+        <v>-72400</v>
       </c>
       <c r="F94" s="12">
         <f>F93+D94</f>
-        <v>191800</v>
+        <v>180200</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.000000" customHeight="1">
@@ -5246,11 +5258,11 @@
       </c>
       <c r="E95" s="12">
         <f>E94-D95</f>
-        <v>-85800</v>
+        <v>-74200</v>
       </c>
       <c r="F95" s="12">
         <f>F94+D95</f>
-        <v>193600</v>
+        <v>182000</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.000000" customHeight="1">
@@ -5267,11 +5279,11 @@
       </c>
       <c r="E96" s="12">
         <f>E95-D96</f>
-        <v>-87600</v>
+        <v>-76000</v>
       </c>
       <c r="F96" s="12">
         <f>F95+D96</f>
-        <v>195400</v>
+        <v>183800</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.000000" customHeight="1">
@@ -5288,11 +5300,11 @@
       </c>
       <c r="E97" s="12">
         <f>E96-D97</f>
-        <v>-90400</v>
+        <v>-78800</v>
       </c>
       <c r="F97" s="12">
         <f>F96+D97</f>
-        <v>198200</v>
+        <v>186600</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.000000" customHeight="1">
@@ -5309,11 +5321,11 @@
       </c>
       <c r="E98" s="12">
         <f>E97-D98</f>
-        <v>-93200</v>
+        <v>-81600</v>
       </c>
       <c r="F98" s="12">
         <f>F97+D98</f>
-        <v>201000</v>
+        <v>189400</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.000000" customHeight="1">
@@ -5330,11 +5342,11 @@
       </c>
       <c r="E99" s="12">
         <f>E98-D99</f>
-        <v>-96000</v>
+        <v>-84400</v>
       </c>
       <c r="F99" s="12">
         <f>F98+D99</f>
-        <v>203800</v>
+        <v>192200</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.000000" customHeight="1">
@@ -5351,11 +5363,11 @@
       </c>
       <c r="E100" s="12">
         <f>E99-D100</f>
-        <v>-98800</v>
+        <v>-87200</v>
       </c>
       <c r="F100" s="12">
         <f>F99+D100</f>
-        <v>206600</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.000000" customHeight="1">
@@ -5372,329 +5384,329 @@
       </c>
       <c r="E101" s="12">
         <f>E100-D101</f>
-        <v>-101600</v>
+        <v>-90000</v>
       </c>
       <c r="F101" s="12">
         <f>F100+D101</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="F102" s="12">
         <f>F101+D102</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="F103" s="12">
         <f>F102+D103</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="F104" s="12">
         <f>F103+D104</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="F105" s="12">
         <f>F104+D105</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="F106" s="12">
         <f>F105+D106</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="F107" s="12">
         <f>F106+D107</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="F108" s="12">
         <f>F107+D108</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="F109" s="12">
         <f>F108+D109</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="F110" s="12">
         <f>F109+D110</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="F111" s="12">
         <f>F110+D111</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="F112" s="12">
         <f>F111+D112</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="12">
         <f>F112+D113</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="12">
         <f>F113+D114</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="12">
         <f>F114+D115</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="12">
         <f>F115+D116</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="12">
         <f>F116+D117</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="12">
         <f>F117+D118</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="12">
         <f>F118+D119</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="12">
         <f>F119+D120</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="12">
         <f>F120+D121</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="12">
         <f>F121+D122</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="12">
         <f>F122+D123</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="124" spans="6:6">
       <c r="F124" s="12">
         <f>F123+D124</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="12">
         <f>F124+D125</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="12">
         <f>F125+D126</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="12">
         <f>F126+D127</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="12">
         <f>F127+D128</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="12">
         <f>F128+D129</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="12">
         <f>F129+D130</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="12">
         <f>F130+D131</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="12">
         <f>F131+D132</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="12">
         <f>F132+D133</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" s="12">
         <f>F133+D134</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="12">
         <f>F134+D135</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="12">
         <f>F135+D136</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="12">
         <f>F136+D137</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="12">
         <f>F137+D138</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" s="12">
         <f>F138+D139</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="140" spans="6:6">
       <c r="F140" s="12">
         <f>F139+D140</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="141" spans="6:6">
       <c r="F141" s="12">
         <f>F140+D141</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="142" spans="6:6">
       <c r="F142" s="12">
         <f>F141+D142</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="143" spans="6:6">
       <c r="F143" s="12">
         <f>F142+D143</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="144" spans="6:6">
       <c r="F144" s="12">
         <f>F143+D144</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="145" spans="6:6">
       <c r="F145" s="12">
         <f>F144+D145</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" s="12">
         <f>F145+D146</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="147" spans="6:6">
       <c r="F147" s="12">
         <f>F146+D147</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="148" spans="6:6">
       <c r="F148" s="12">
         <f>F147+D148</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="149" spans="6:6">
       <c r="F149" s="12">
         <f>F148+D149</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="150" spans="6:6">
       <c r="F150" s="12">
         <f>F149+D150</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="151" spans="6:6">
       <c r="F151" s="12">
         <f>F150+D151</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="152" spans="6:6">
       <c r="F152" s="12">
         <f>F151+D152</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="153" spans="6:6">
       <c r="F153" s="12">
         <f>F152+D153</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
     <row r="154" spans="6:6">
       <c r="F154" s="12">
         <f>F153+D154</f>
-        <v>209400</v>
+        <v>197800</v>
       </c>
     </row>
   </sheetData>
